--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
+    <sheet name="23.05.2018" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
+  </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="184">
   <si>
     <t>№</t>
   </si>
@@ -289,6 +293,288 @@
   </si>
   <si>
     <t>Обработано</t>
+  </si>
+  <si>
+    <t>May 23, 2018, 5:43 p.m.</t>
+  </si>
+  <si>
+    <t>biscont.com.ua</t>
+  </si>
+  <si>
+    <t>http://biscont.com.ua/yaki-buvayut-vydy-zvaryuvalnyh-robit/</t>
+  </si>
+  <si>
+    <t>animan.kiev.ua</t>
+  </si>
+  <si>
+    <t>http://animan.kiev.ua/yaki-buvayut-vidi-zvaryuvalnih-robit/</t>
+  </si>
+  <si>
+    <t>poser.kiev.ua</t>
+  </si>
+  <si>
+    <t>http://poser.kiev.ua/yaki-buvayut-vydy-zvaryuvalnyh-robit/</t>
+  </si>
+  <si>
+    <t>medical-beauty.org.ua</t>
+  </si>
+  <si>
+    <t>http://medical-beauty.org.ua/%d1%8f%d0%ba-%d1%81%d1%82%d0%b5%d0%b6%d0%b8%d1%82%d0%b8-%d0%b7%d0%b0-%d1%81%d0%b2%d0%be%d1%97%d0%bc-%d0%b7%d0%b4%d0%be%d1%80%d0%be%d0%b2%d1%8f%d0%bc-2/</t>
+  </si>
+  <si>
+    <t>May 23, 2018, 6:02 p.m.</t>
+  </si>
+  <si>
+    <t>http://ahumor.org.ua/najposhyrenishi-polomky-avtomobilya/</t>
+  </si>
+  <si>
+    <t>http://ypag.com.ua/yak-vikoristovuyetsya-transformator/</t>
+  </si>
+  <si>
+    <t>http://gv.org.ua/vidi-obladnannya-dlya-medustanov/</t>
+  </si>
+  <si>
+    <t>http://medical-beauty.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d1%81%d1%82%d0%b5%d0%b6%d0%b8%d1%82%d0%b8-%d0%b7%d0%b0-%d0%b7%d0%b4%d0%be%d1%80%d0%be%d0%b2%d1%8f%d0%bc-3/</t>
+  </si>
+  <si>
+    <t>interline.net.ua</t>
+  </si>
+  <si>
+    <t>http://interline.net.ua/yak-pravilno-stezhiti-za-zdorov-yam/</t>
+  </si>
+  <si>
+    <t>tellall.kiev.ua</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-pidibraty-restoran/</t>
+  </si>
+  <si>
+    <t>shiva.net.ua</t>
+  </si>
+  <si>
+    <t>http://shiva.net.ua/yak-pidibrati-metaloplastikove-vikno/</t>
+  </si>
+  <si>
+    <t>oscar.donetsk.ua</t>
+  </si>
+  <si>
+    <t>http://oscar.donetsk.ua/dostoprimechatelnsti-maldivskih-ostroviv/</t>
+  </si>
+  <si>
+    <t>lightdesign.od.ua</t>
+  </si>
+  <si>
+    <t>http://lightdesign.od.ua/yak-vybraty-laminat-dlya-domu/</t>
+  </si>
+  <si>
+    <t>playman.com.ua</t>
+  </si>
+  <si>
+    <t>http://playman.com.ua/yak-pravilno-vibirati-neruhomist/</t>
+  </si>
+  <si>
+    <t>http://redcat.net.ua/nihto/</t>
+  </si>
+  <si>
+    <t>bf3.com.ua</t>
+  </si>
+  <si>
+    <t>http://bf3.com.ua/yak-masovo-rozpovsyudzhuvaty-reklamu/</t>
+  </si>
+  <si>
+    <t>mylink.org.ua</t>
+  </si>
+  <si>
+    <t>http://mylink.org.ua/yak-masovo-rozpovsyudzhuvaty-reklamu/</t>
+  </si>
+  <si>
+    <t>programer.org.ua</t>
+  </si>
+  <si>
+    <t>umapalata.zp.ua</t>
+  </si>
+  <si>
+    <t>May 23, 2018, 5:54 p.m.</t>
+  </si>
+  <si>
+    <t>softik.net.ua</t>
+  </si>
+  <si>
+    <t>http://softik.net.ua/osnovni-vydy-reklamy/</t>
+  </si>
+  <si>
+    <t>http://zvonkov.net.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/yak-masovo-rozpovsyudzhuvaty-reklamu/</t>
+  </si>
+  <si>
+    <t>savelink.org.ua</t>
+  </si>
+  <si>
+    <t>http://savelink.org.ua/osnovni-vidi-reklami/</t>
+  </si>
+  <si>
+    <t>http://oscar.donetsk.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>linkomania.com.ua</t>
+  </si>
+  <si>
+    <t>http://linkomania.com.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>slaidik.com.ua</t>
+  </si>
+  <si>
+    <t>http://slaidik.com.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>zenit2.com.ua</t>
+  </si>
+  <si>
+    <t>http://zenit2.com.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>fbk.org.ua</t>
+  </si>
+  <si>
+    <t>http://fbk.org.ua/osnovni-vidi-reklami/</t>
+  </si>
+  <si>
+    <t>web-city.org.ua</t>
+  </si>
+  <si>
+    <t>http://web-city.org.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>http://shiva.net.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>tren.com.ua</t>
+  </si>
+  <si>
+    <t>http://tren.com.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>http://e-putivka.com.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>gyrus.org.ua</t>
+  </si>
+  <si>
+    <t>http://gyrus.org.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>tropic.od.ua</t>
+  </si>
+  <si>
+    <t>http://tropic.od.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>turtrans.net.ua</t>
+  </si>
+  <si>
+    <t>http://turtrans.net.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>mip-stroy.com.ua</t>
+  </si>
+  <si>
+    <t>http://softik.net.ua/riznomanitnist-vyrobiv-z-biseru/</t>
+  </si>
+  <si>
+    <t>http://tropic.od.ua/yak-navchitisya-robiti-vishivku/</t>
+  </si>
+  <si>
+    <t>blackmetal.kiev.ua</t>
+  </si>
+  <si>
+    <t>http://blackmetal.kiev.ua/yak-prykrasyty-vyrib-vyshyvkoyu-hrestykom/</t>
+  </si>
+  <si>
+    <t>http://tren.com.ua/riznomanitnist-virobiv-z-biseru/</t>
+  </si>
+  <si>
+    <t>http://zvonkov.net.ua/riznomanitnist-virobiv-z-biseru/</t>
+  </si>
+  <si>
+    <t>http://mylink.org.ua/yak-navchytysya-robyty-vyshyvku/</t>
+  </si>
+  <si>
+    <t>http://programer.org.ua/yak-prikrasiti-virib-vishivkoyu-hrestikom/</t>
+  </si>
+  <si>
+    <t>http://fbk.org.ua/yak-navchitisya-shiti-hrestikom/</t>
+  </si>
+  <si>
+    <t>patriarh.in.ua</t>
+  </si>
+  <si>
+    <t>http://patriarh.in.ua/yak-navchitisya-robiti-vishivku/</t>
+  </si>
+  <si>
+    <t>http://umapalata.zp.ua/yak-navchitisya-robiti-vishivku/</t>
+  </si>
+  <si>
+    <t>http://bf3.com.ua/yak-navchytysya-robyty-vyshyvku/</t>
+  </si>
+  <si>
+    <t>yavtanke.org.ua</t>
+  </si>
+  <si>
+    <t>http://yavtanke.org.ua/riznomanitnist-virobiv-z-biseru/</t>
+  </si>
+  <si>
+    <t>http://slaidik.com.ua/yak-navchitisya-robiti-vishivku/</t>
+  </si>
+  <si>
+    <t>http://e-putivka.com.ua/riznomanitnist-virobiv-z-biseru/</t>
+  </si>
+  <si>
+    <t>http://gyrus.org.ua/riznomanitnist-virobiv-z-biseru/</t>
+  </si>
+  <si>
+    <t>slonoff.net.ua</t>
+  </si>
+  <si>
+    <t>http://playman.com.ua/yak-navchitisya-robiti-vishivku/</t>
+  </si>
+  <si>
+    <t>http://e-putivka.com.ua/yak-organizuvati-opalennya-v-budinku/</t>
+  </si>
+  <si>
+    <t>telopa.com.ua</t>
+  </si>
+  <si>
+    <t>seovin.ru</t>
+  </si>
+  <si>
+    <t>http://seovin.ru/yak-pravilno-zdati-kvartiru-v-orendu</t>
+  </si>
+  <si>
+    <t>http://turtrans.net.ua/dostoprimechatelnsti-maldivskih-ostroviv/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yake-obladnannya-neobhidno-dlya-magazynu/</t>
+  </si>
+  <si>
+    <t>Нужна статья</t>
+  </si>
+  <si>
+    <t>Не настроена публикация</t>
+  </si>
+  <si>
+    <t>Нужна доработка</t>
+  </si>
+  <si>
+    <t>Нужен прессрелиз</t>
+  </si>
+  <si>
+    <t>Запрещенная публикация</t>
+  </si>
+  <si>
+    <t>Блокирование маккафи</t>
   </si>
 </sst>
 </file>
@@ -632,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,4 +2072,2090 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28673896</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28676124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>28678600</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>23909029</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>23909037</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>23909040</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>28679477</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>28680822</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28682727</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>23928873</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>28686192</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>28686313</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>28686680</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>28686790</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>28686954</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>28687102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>28687165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>28687256</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>28687295</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>28687297</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>28687296</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>23936365</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>28687442</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>28687485</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>28687492</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>28687493</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>28687730</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>28687753</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>28687751</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>28687756</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>28687757</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>28687758</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>28687759</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>28687761</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>28687843</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>28687844</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>28687845</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>28687847</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>28687848</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>28687849</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>28687851</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>28687852</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>28687856</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>28687857</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>28687858</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>28687859</v>
+      </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>28687860</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>28687915</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>28687914</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>28687916</v>
+      </c>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>28687919</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>28687918</v>
+      </c>
+      <c r="C53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>28687917</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>28687920</v>
+      </c>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>28687921</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>28687922</v>
+      </c>
+      <c r="C57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>28687923</v>
+      </c>
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>28687925</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>28687924</v>
+      </c>
+      <c r="C60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" t="s">
+        <v>90</v>
+      </c>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>28687927</v>
+      </c>
+      <c r="C61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" t="s">
+        <v>90</v>
+      </c>
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>28687926</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>28687928</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>168</v>
+      </c>
+      <c r="G63" t="s">
+        <v>90</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>28687930</v>
+      </c>
+      <c r="C64" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>169</v>
+      </c>
+      <c r="G64" t="s">
+        <v>90</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>28687929</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>28687931</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>23938167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" t="s">
+        <v>90</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>23938627</v>
+      </c>
+      <c r="C68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>28688467</v>
+      </c>
+      <c r="C69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>175</v>
+      </c>
+      <c r="G69" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>28689080</v>
+      </c>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>176</v>
+      </c>
+      <c r="G70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>23940372</v>
+      </c>
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>177</v>
+      </c>
+      <c r="G71" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
     <sheet name="23.05.2018" sheetId="2" r:id="rId2"/>
+    <sheet name="25.05.2018" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="238">
   <si>
     <t>№</t>
   </si>
@@ -575,6 +577,168 @@
   </si>
   <si>
     <t>Блокирование маккафи</t>
+  </si>
+  <si>
+    <t>May 24, 2018, 2:08 p.m.</t>
+  </si>
+  <si>
+    <t>ADDUNIKAL</t>
+  </si>
+  <si>
+    <t>May 25, 2018, 3 p.m.</t>
+  </si>
+  <si>
+    <t>da100let.dn.ua</t>
+  </si>
+  <si>
+    <t>http://da100let.dn.ua/vidi-zovnishnoyi-reklami/</t>
+  </si>
+  <si>
+    <t>May 25, 2018, 11:12 a.m.</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>http://valiza-tour.kiev.ua/vidi-zovnishnoyi-reklami/</t>
+  </si>
+  <si>
+    <t>http://programer.org.ua/osnovni-vidi-reklami/</t>
+  </si>
+  <si>
+    <t>May 25, 2018, 11:13 a.m.</t>
+  </si>
+  <si>
+    <t>http://umapalata.zp.ua/osnovni-vidi-reklami/</t>
+  </si>
+  <si>
+    <t>http://mip-stroy.com.ua/yak-masovo-rozpovsyudzhuvati-reklamu/</t>
+  </si>
+  <si>
+    <t>May 25, 2018, 3:41 p.m.</t>
+  </si>
+  <si>
+    <t>http://mip-stroy.com.ua/yak-navchitisya-robiti-vishivku/</t>
+  </si>
+  <si>
+    <t>http://slonoff.net.ua/yak-vikonuvati-vishivku-biserom/</t>
+  </si>
+  <si>
+    <t>http://ypag.com.ua/yak-buti-dobrim-gospodarem-v-budinku/</t>
+  </si>
+  <si>
+    <t>http://ypag.com.ua/yak-vibrati-sadovu-benzopilu/</t>
+  </si>
+  <si>
+    <t>web-stroy.kharkov.ua</t>
+  </si>
+  <si>
+    <t>http://web-stroy.kharkov.ua/yak-pravilno-vibirati-elektroinstrument/</t>
+  </si>
+  <si>
+    <t>druzhba-lux.com.ua</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-narostyty-myshechnuyu-masu/</t>
+  </si>
+  <si>
+    <t>http://interline.net.ua/yak-pravilno-vibirati-elektroinstrument/</t>
+  </si>
+  <si>
+    <t>opalkova.com.ua</t>
+  </si>
+  <si>
+    <t>http://opalkova.com.ua/yak-pravylno-vybyraty-elektroinstrument/</t>
+  </si>
+  <si>
+    <t>http://elit-a-a.com.ua/yak-pravilno-obrati-elektroinstrument/</t>
+  </si>
+  <si>
+    <t>dril.com.ua</t>
+  </si>
+  <si>
+    <t>http://dril.com.ua/vibirayemo-dril-dlya-domu/</t>
+  </si>
+  <si>
+    <t>http://opalkova.com.ua/yak-stvoryty-domen-dlya-sajtu/</t>
+  </si>
+  <si>
+    <t>http://www.schooler.org.ua/yak-stvoryuyetsya-kryptovalyuta/</t>
+  </si>
+  <si>
+    <t>http://telopa.com.ua/yak-vybraty-spalnyj-garnitur/</t>
+  </si>
+  <si>
+    <t>May 25, 2018, 11:14 a.m.</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-vybraty-spalnyj-garnitur/</t>
+  </si>
+  <si>
+    <t>http://telopa.com.ua/yak-zahystyty-svoyi-prava-v-sudi/</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/yaki-instrumenty-potribni-vdoma/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yaki-instrumenty-potribni-vdoma/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/osnovni-nespravnosti-v-roboti-os-windows/</t>
+  </si>
+  <si>
+    <t>salfetki.org.ua</t>
+  </si>
+  <si>
+    <t>http://salfetki.org.ua/yak-pravilno-vibirati-elektroinstrument/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-organizuvaty-zahid-2/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/vykorystovuyemo-tekstyl-v-nashomu-domi/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/de-krashhe-vidpochyty-vlitku/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-pravylno-stezhyty-za-holodylnykom/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-pravylno-stezhyty-za-avtomobilem/</t>
+  </si>
+  <si>
+    <t>May 24, 2018, 2:09 p.m.</t>
+  </si>
+  <si>
+    <t>REWORD</t>
+  </si>
+  <si>
+    <t>nublog.ru</t>
+  </si>
+  <si>
+    <t>http://nublog.ru/yak-robiti-masazh/</t>
+  </si>
+  <si>
+    <t>http://slaidik.com.ua/osnovni-virobi-metaloprokatnogo-virobnitstva/</t>
+  </si>
+  <si>
+    <t>May 25, 2018, 11:15 a.m.</t>
+  </si>
+  <si>
+    <t>ekobil.com.ua</t>
+  </si>
+  <si>
+    <t>http://web-city.org.ua/osnovni-printsipi-prosuvannya-sajtu/</t>
+  </si>
+  <si>
+    <t>catalog-security.com.ua</t>
+  </si>
+  <si>
+    <t>http://catalog-security.com.ua/osnovni-printsipi-prosuvannya-sajtu/</t>
+  </si>
+  <si>
+    <t>Не работает площадка</t>
   </si>
 </sst>
 </file>
@@ -2078,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4158,4 +4322,1276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>23928873</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28686680</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>28687733</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>28687732</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>28687752</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>28687754</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>28687756</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>28687860</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28687919</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>28687929</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>23943940</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>23943935</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>23942104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>23944571</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>23942100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>23942099</v>
+      </c>
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>23942079</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>23942078</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>23940621</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>23944125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>23944036</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>23944035</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>214</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23944015</v>
+      </c>
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>23942505</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>23942504</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>23942283</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>23942096</v>
+      </c>
+      <c r="C28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>23941866</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>23941688</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>23941652</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>23941443</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>23938913</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>28689935</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" t="s">
+        <v>228</v>
+      </c>
+      <c r="I34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>28689847</v>
+      </c>
+      <c r="C35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>28687256</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>28687165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37" t="s">
+        <v>228</v>
+      </c>
+      <c r="I37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>28687102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>227</v>
+      </c>
+      <c r="H38" t="s">
+        <v>228</v>
+      </c>
+      <c r="I38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>28680822</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>28689540</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" t="s">
+        <v>232</v>
+      </c>
+      <c r="H40" t="s">
+        <v>190</v>
+      </c>
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>28690138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>227</v>
+      </c>
+      <c r="H41" t="s">
+        <v>228</v>
+      </c>
+      <c r="I41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>28690716</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" t="s">
+        <v>232</v>
+      </c>
+      <c r="H42" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>28690727</v>
+      </c>
+      <c r="C43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" t="s">
+        <v>232</v>
+      </c>
+      <c r="H43" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
     <sheet name="23.05.2018" sheetId="2" r:id="rId2"/>
     <sheet name="25.05.2018" sheetId="3" r:id="rId3"/>
+    <sheet name="30.05.2018" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="402">
   <si>
     <t>№</t>
   </si>
@@ -739,6 +742,498 @@
   </si>
   <si>
     <t>Не работает площадка</t>
+  </si>
+  <si>
+    <t>May 29, 2018, 2:01 p.m.</t>
+  </si>
+  <si>
+    <t>Как правильно взять кредит.</t>
+  </si>
+  <si>
+    <t>Достопримечательнсти мальдивских островов.</t>
+  </si>
+  <si>
+    <t>Основные виды рекламы.</t>
+  </si>
+  <si>
+    <t>smartx.kiev.ua</t>
+  </si>
+  <si>
+    <t>http://smartx.kiev.ua/yak-pravilno-vibrati-farbu-dlya-poverhon-2/</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 11:54 a.m.</t>
+  </si>
+  <si>
+    <t>Как правильно выбрать краску для поверхностей.</t>
+  </si>
+  <si>
+    <t>xn--90afsemmyc.com.ua</t>
+  </si>
+  <si>
+    <t>http://xn--90afsemmyc.com.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b2%d0%b8%d0%b1%d1%80%d0%b0%d1%82%d0%b8-%d1%84%d0%b0%d1%80%d0%b1%d1%83-%d0%b4%d0%bb%d1%8f-%d0%bf%d0%be%d0%b2%d0%b5%d1%80%d1%85</t>
+  </si>
+  <si>
+    <t>http://web-stroy.kharkov.ua/osnovni-printsipi-posilalnogo-auditu/</t>
+  </si>
+  <si>
+    <t>Основные принципы ссылочного аудита.</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-vidbuvayetsya-indeksatsiya-sajtiv/</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 11:55 a.m.</t>
+  </si>
+  <si>
+    <t>Как происходит индексация сайтов.</t>
+  </si>
+  <si>
+    <t>it-shop.donetsk.ua</t>
+  </si>
+  <si>
+    <t>http://it-shop.donetsk.ua/yak-vykonaty-prosuvannya-sajtu/</t>
+  </si>
+  <si>
+    <t>Как выполнить продвижение сайта.</t>
+  </si>
+  <si>
+    <t>apples-web.org.ua</t>
+  </si>
+  <si>
+    <t>http://apples-web.org.ua/yak-gramotno-rozpodiliti-kontent-na-sajti/</t>
+  </si>
+  <si>
+    <t>Как грамотно распределить контент на сайте.</t>
+  </si>
+  <si>
+    <t>openlib.org.ua</t>
+  </si>
+  <si>
+    <t>http://openlib.org.ua/yak-vidbuvayetsya-indeksatsiya-sajtiv/</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-pravylno-stezhyty-za-zdorov-yam-2/</t>
+  </si>
+  <si>
+    <t>Как правильно следить за здоровьем.</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/vykorystovuyemo-tekstyl-v-nashomu-domi/</t>
+  </si>
+  <si>
+    <t>Используем текстиль в нашем доме.</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/yak-zrobyty-zovnishnyu-reklamu-svoyeyi-spravy/</t>
+  </si>
+  <si>
+    <t>Как сделать внешнюю рекламу своего дела.</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/z-chogo-pochaty-znajomstvo-z-divchynoyu-2/</t>
+  </si>
+  <si>
+    <t>С чего начать знакомство с девушкой.</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/yak-pravylno-doglyadaty-za-viknamy-v-budynku/</t>
+  </si>
+  <si>
+    <t>Как правильно ухаживать за окнами в доме.</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/yak-skachaty-video-z-youtube/</t>
+  </si>
+  <si>
+    <t>Как скачать видео с youtube.</t>
+  </si>
+  <si>
+    <t>http://telopa.com.ua/yak-pravylno-stezhyty-za-zdorov-yam/</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 11:57 a.m.</t>
+  </si>
+  <si>
+    <t>dveroman.kiev.ua</t>
+  </si>
+  <si>
+    <t>http://dveroman.kiev.ua/yak-pidibrati-bolgarku-dlya-remontu/</t>
+  </si>
+  <si>
+    <t>Как подобрать болгарку для ремонта.</t>
+  </si>
+  <si>
+    <t>http://lightdesign.od.ua/yak-zrobyty-pravylno-oformyty-menyu-restoranu/</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 11:53 a.m.</t>
+  </si>
+  <si>
+    <t>Как произвести правильно оформить меню ресторана.</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/koly-mozhna-vstanovlyuvaty-pam-yatnyk-lyudyni/</t>
+  </si>
+  <si>
+    <t>Когда можно устанавливать памятник человеку.</t>
+  </si>
+  <si>
+    <t>http://dveroman.kiev.ua/vibirayemo-lyustru-dlya-zalu/</t>
+  </si>
+  <si>
+    <t>Выбираем люстру для зала.</t>
+  </si>
+  <si>
+    <t>http://medical-beauty.org.ua/%d0%be%d1%81%d0%bd%d0%be%d0%b2%d0%bd%d1%96-%d0%b2%d0%b8%d0%b4%d0%b8-%d0%be%d0%b1%d0%bb%d0%b0%d0%b4%d0%bd%d0%b0%d0%bd%d0%bd%d1%8f-%d0%b4%d0%bb%d1%8f-%d1%83%d0%b7%d0%b4/</t>
+  </si>
+  <si>
+    <t>Основные виды оборудования для УЗИ.</t>
+  </si>
+  <si>
+    <t>kpln.com.ua</t>
+  </si>
+  <si>
+    <t>http://kpln.com.ua/osnovni-prylady-dlya-obstezhennya-sertsya/</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 11:58 a.m.</t>
+  </si>
+  <si>
+    <t>Основные приборы для обследования сердца.</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d1%81%d1%82%d0%b5%d0%b6%d0%b8%d1%82%d0%b8-%d0%b7%d0%b0-%d1%81%d0%b2%d0%be%d1%97%d0%bc-%d0%b7%d0%b4%d0%be%d1%80%d0%be%d0%b2%d1%8f-2/</t>
+  </si>
+  <si>
+    <t>Как правильно следить за своим здоровьем.</t>
+  </si>
+  <si>
+    <t>belosnet.dn.ua</t>
+  </si>
+  <si>
+    <t>http://belosnet.dn.ua/populyarni-stili-muziki/</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 1:50 p.m.</t>
+  </si>
+  <si>
+    <t>Популярные стили музыки.</t>
+  </si>
+  <si>
+    <t>http://ahumor.org.ua/yak-pravylno-stezhyty-za-svoyim-zdorov-yam/</t>
+  </si>
+  <si>
+    <t>http://allsearch.com.ua/yak-pravilno-stezhiti-za-svoyim-zdorov-yam-2/</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 11:59 a.m.</t>
+  </si>
+  <si>
+    <t>http://ppsls.org.ua/yak-pravilno-stezhiti-za-svoyim-zdorov-yam-2/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-vidnovyty-stosunky/</t>
+  </si>
+  <si>
+    <t>Как возобновить отношения.</t>
+  </si>
+  <si>
+    <t>http://smartx.kiev.ua/yak-vibrati-zhitlo-v-novobudovah/</t>
+  </si>
+  <si>
+    <t>Как выбрать жилье в новостройках.</t>
+  </si>
+  <si>
+    <t>http://dveroman.kiev.ua/yak-vibrati-dveri-dlya-oseli-4/</t>
+  </si>
+  <si>
+    <t>Как выбрать двери для дома.</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 10:06 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 10:07 a.m.</t>
+  </si>
+  <si>
+    <t>http://betar.org.ua/yak-orgnazovyvaetsya-vesillya/</t>
+  </si>
+  <si>
+    <t>Как оргназовывается свадьбу.</t>
+  </si>
+  <si>
+    <t>http://e-putivka.com.ua/yak-orgnazovyvaetsya-vesillya-2/</t>
+  </si>
+  <si>
+    <t>http://oscar.donetsk.ua/yak-vidkriti-svoyu-spravu-za-kordonom/</t>
+  </si>
+  <si>
+    <t>Как открыть сове дело за границей.</t>
+  </si>
+  <si>
+    <t>http://turtrans.net.ua/golovni-viznachni-pam-yatki-avstriyi/</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 1:51 p.m.</t>
+  </si>
+  <si>
+    <t>Главные достопримечательности Австрии.</t>
+  </si>
+  <si>
+    <t>http://tropic.od.ua/golovni-viznachni-pam-yatki-avstriyi/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/golovni-vyznachni-pam-yatky-avstriyi/</t>
+  </si>
+  <si>
+    <t>http://europarfum.net.ua/golovni-kurorti-italiyi/</t>
+  </si>
+  <si>
+    <t>Главные курорты Италии.</t>
+  </si>
+  <si>
+    <t>quickest.com.ua</t>
+  </si>
+  <si>
+    <t>http://quickest.com.ua/najvidomishi-kurorty-italiyi/</t>
+  </si>
+  <si>
+    <t>Самые известные курорты Италии.</t>
+  </si>
+  <si>
+    <t>http://kpln.com.ua/golovni-kurorty-italiyi/</t>
+  </si>
+  <si>
+    <t>http://redcat.net.ua/najvidomishi-kurorty-italiyi/</t>
+  </si>
+  <si>
+    <t>http://valiza-tour.kiev.ua/najvidomishi-kurorti-italiyi/</t>
+  </si>
+  <si>
+    <t>http://electrodom-l.com.ua/perevagi-alyuminiyevih-virobiv-2/</t>
+  </si>
+  <si>
+    <t>Преимущества алюминиевых изделий.</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-pravylno-vybraty-investora/</t>
+  </si>
+  <si>
+    <t>Как правильно выбрать инвестора.</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/yak-zbilshyty-rejtyng-v-instagram/</t>
+  </si>
+  <si>
+    <t>Как увеличить рейтинг в Instagram.</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/osnovni-vydy-elektronnyh-valyut/</t>
+  </si>
+  <si>
+    <t>Основные виды электронных валют.</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-pravylno-kachaty-m-yazy/</t>
+  </si>
+  <si>
+    <t>Как правильно качать мышцы.</t>
+  </si>
+  <si>
+    <t>http://electrodom-l.com.ua/yak-pochati-remont-kvartiri/</t>
+  </si>
+  <si>
+    <t>May 30, 2018, noon</t>
+  </si>
+  <si>
+    <t>Как начать ремонт квартиры.</t>
+  </si>
+  <si>
+    <t>http://freya.kiev.ua/yak-vybraty-mebli-dlya-domu</t>
+  </si>
+  <si>
+    <t>Как выбрать мебель для дома.</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/de-neobhidno-yspolzovta-dyplom/</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 11:56 a.m.</t>
+  </si>
+  <si>
+    <t>Где необходимо использовтаь диплом.</t>
+  </si>
+  <si>
+    <t>http://telopa.com.ua/de-neobhidno-yspolzovta-dyplom/</t>
+  </si>
+  <si>
+    <t>sortis.com.ua</t>
+  </si>
+  <si>
+    <t>http://sortis.com.ua/de-neobhidno-ispolzovta-diplom/</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/de-neobhidno-yspolzovta-dyplom/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/z-chogo-pochaty-remont-kvartyry/</t>
+  </si>
+  <si>
+    <t>С чего начать ремонт квартиры.</t>
+  </si>
+  <si>
+    <t>ukravtomobil.if.ua</t>
+  </si>
+  <si>
+    <t>http://ukravtomobil.if.ua/yak-vipraviti-vm-yatinu-na-avtomobili/</t>
+  </si>
+  <si>
+    <t>Как исправить вмятину на автомобиле.</t>
+  </si>
+  <si>
+    <t>http://slaidik.com.ua/yak-proindeksuvati-sajt-v-poshukovih-sistemah/</t>
+  </si>
+  <si>
+    <t>Как проиндексировать сайт в поисковиках.</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-vybraty-tsikavu-podarunok/</t>
+  </si>
+  <si>
+    <t>Как выбрать интерестный подарок.</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/vybyrayemo-cholovichu-tualetnu-vodu/</t>
+  </si>
+  <si>
+    <t>Выбираем мужскую туалетную воду.</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/vybyrayemo-cholovichu-tualetnu-vodu/</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/yak-pidibraty-oryginalnyj-podarunok/</t>
+  </si>
+  <si>
+    <t>Как подобрать оригинальный подарок.</t>
+  </si>
+  <si>
+    <t>http://sortis.com.ua/z-chogo-pochati-znajomstvo-z-divchinoyu/</t>
+  </si>
+  <si>
+    <t>http://medical-beauty.org.ua/%d1%8f%d0%ba-%d1%83-%d0%bc%d0%b5%d0%b4%d0%b8%d1%86%d0%b8%d0%bd%d1%96-%d0%b2%d0%b8%d0%ba%d0%be%d1%80%d0%b8%d1%81%d1%82%d0%be%d0%b2%d1%83%d1%94%d1%82%d1%8c%d1%81%d1%8f-%d0%ba%d0%be%d0%bd%d0%be%d0%bf/</t>
+  </si>
+  <si>
+    <t>Как в медицине используется конопля.</t>
+  </si>
+  <si>
+    <t>http://e-putivka.com.ua/yak-otrimati-vizu-v-yevropejsku-krayinu/</t>
+  </si>
+  <si>
+    <t>Как получить визу в европейскую страну.</t>
+  </si>
+  <si>
+    <t>http://e-putivka.com.ua/yak-orgnazovyvaetsya-vesillya/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-prykrasyty-prostir-kartynamy/</t>
+  </si>
+  <si>
+    <t>Как украсить пространство картинами.</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/yak-krashhe-spivaty-v-karaoke/</t>
+  </si>
+  <si>
+    <t>Как лучше петь в караоке.</t>
+  </si>
+  <si>
+    <t>http://animan.kiev.ua/yak-vibrati-sobi-gamanets/</t>
+  </si>
+  <si>
+    <t>Как выбрать себе бумажник.</t>
+  </si>
+  <si>
+    <t>http://redcat.net.ua/yak-vybraty-modnyj-odyag/</t>
+  </si>
+  <si>
+    <t>Как выбрать модную одежду.</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-pidibraty-sumochku-do-odyagu/</t>
+  </si>
+  <si>
+    <t>Как подобрать сумочку к одежде.</t>
+  </si>
+  <si>
+    <t>http://ypag.com.ua/yaki-vidi-poligrafichnoyi-druku-isnuyut/</t>
+  </si>
+  <si>
+    <t>Какие виды полиграфической печати существуют.</t>
+  </si>
+  <si>
+    <t>http://cugp.com.ua/chim-obigriti-svij-budinok/</t>
+  </si>
+  <si>
+    <t>Чем обогревать свой дом.</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/yak-vybraty-ohoronnu-systemu/</t>
+  </si>
+  <si>
+    <t>Как выбрать охранную систему.</t>
+  </si>
+  <si>
+    <t>http://seovin.ru/yak-pratsyuye-reklama-v-interneti</t>
+  </si>
+  <si>
+    <t>Как работает реклама в интернете.</t>
+  </si>
+  <si>
+    <t>komitet.kiev.ua</t>
+  </si>
+  <si>
+    <t>http://komitet.kiev.ua/%d1%8f%d0%ba-%d0%bf%d0%be%d1%87%d0%b0%d1%82%d0%b8-%d1%80%d0%b5%d0%bc%d0%be%d0%bd%d1%82-%d0%ba%d0%b2%d0%b0%d1%80%d1%82%d0%b8%d1%80%d0%b8/</t>
+  </si>
+  <si>
+    <t>http://ekobil.com.ua/yak-pidibrati-materiali-dlya-budivnitstva/</t>
+  </si>
+  <si>
+    <t>Как подобрать материалы для строительства.</t>
+  </si>
+  <si>
+    <t>http://freya.kiev.ua/yak-vykonuyetsya-ukladyvaenye-parketu</t>
+  </si>
+  <si>
+    <t>Как выполняется укладываение паркета.</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/de-zastosovuyetsya-zagartovane-sklo/</t>
+  </si>
+  <si>
+    <t>Где применяется закаленное стекло.</t>
+  </si>
+  <si>
+    <t>http://biscont.com.ua/yak-pravylno-vybraty-noutbuk-2/</t>
+  </si>
+  <si>
+    <t>Как правильно выбрать ноутбук.</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/yak-pidibraty-metaloplastykove-vikno/</t>
+  </si>
+  <si>
+    <t>Как подобрать металлопластиковое окно.</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/osnovni-nespravnosti-v-roboti-os-windows/</t>
+  </si>
+  <si>
+    <t>Основные неисправности в работе Windows.</t>
+  </si>
+  <si>
+    <t>http://sortis.com.ua/yak-pidibrati-metaloplastikove-vikno/</t>
   </si>
 </sst>
 </file>
@@ -754,7 +1249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,6 +1259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,11 +1296,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4328,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5305,7 +5807,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>28689935</v>
       </c>
       <c r="C34" t="s">
@@ -5594,4 +6096,2699 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28680822</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>23928873</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>28686680</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>28687756</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>28689935</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>28690084</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>28690138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>28690495</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28690689</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>28690716</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>28690727</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>28690946</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>28690950</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>28690954</v>
+      </c>
+      <c r="C15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" t="s">
+        <v>251</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>28690964</v>
+      </c>
+      <c r="C16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>23945397</v>
+      </c>
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>23945545</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>23945973</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>28691295</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>23946116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>23946152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>23946233</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>271</v>
+      </c>
+      <c r="G23" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23946402</v>
+      </c>
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" t="s">
+        <v>274</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>28691700</v>
+      </c>
+      <c r="C25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>23947470</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>28691789</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>238</v>
+      </c>
+      <c r="H27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>23947491</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G28" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28692014</v>
+      </c>
+      <c r="C29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>28692068</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>238</v>
+      </c>
+      <c r="H30" t="s">
+        <v>228</v>
+      </c>
+      <c r="I30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>28692189</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>28692199</v>
+      </c>
+      <c r="C32" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>28692205</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>289</v>
+      </c>
+      <c r="H33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>28692203</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>28692211</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" t="s">
+        <v>274</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>28692212</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" t="s">
+        <v>299</v>
+      </c>
+      <c r="H36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>28692217</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" t="s">
+        <v>299</v>
+      </c>
+      <c r="H37" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>28692218</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" t="s">
+        <v>295</v>
+      </c>
+      <c r="H38" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>28692234</v>
+      </c>
+      <c r="C39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" t="s">
+        <v>289</v>
+      </c>
+      <c r="H39" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>28692381</v>
+      </c>
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>305</v>
+      </c>
+      <c r="G40" t="s">
+        <v>299</v>
+      </c>
+      <c r="H40" t="s">
+        <v>190</v>
+      </c>
+      <c r="I40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>28692382</v>
+      </c>
+      <c r="C41" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s">
+        <v>307</v>
+      </c>
+      <c r="H41" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>28692387</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>308</v>
+      </c>
+      <c r="H42" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>28692397</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" t="s">
+        <v>299</v>
+      </c>
+      <c r="H43" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>28692399</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H44" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>28692415</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" t="s">
+        <v>295</v>
+      </c>
+      <c r="H45" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>28692427</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>314</v>
+      </c>
+      <c r="G46" t="s">
+        <v>315</v>
+      </c>
+      <c r="H46" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>28692426</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" t="s">
+        <v>315</v>
+      </c>
+      <c r="H47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>28692425</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" t="s">
+        <v>315</v>
+      </c>
+      <c r="H48" t="s">
+        <v>190</v>
+      </c>
+      <c r="I48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>28692454</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>319</v>
+      </c>
+      <c r="G49" t="s">
+        <v>315</v>
+      </c>
+      <c r="H49" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>28692465</v>
+      </c>
+      <c r="C50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>322</v>
+      </c>
+      <c r="G50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H50" t="s">
+        <v>190</v>
+      </c>
+      <c r="I50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>28692461</v>
+      </c>
+      <c r="C51" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>324</v>
+      </c>
+      <c r="G51" t="s">
+        <v>295</v>
+      </c>
+      <c r="H51" t="s">
+        <v>190</v>
+      </c>
+      <c r="I51" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>28692466</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G52" t="s">
+        <v>299</v>
+      </c>
+      <c r="H52" t="s">
+        <v>190</v>
+      </c>
+      <c r="I52" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>28692473</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>326</v>
+      </c>
+      <c r="G53" t="s">
+        <v>299</v>
+      </c>
+      <c r="H53" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>28692480</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54" t="s">
+        <v>299</v>
+      </c>
+      <c r="H54" t="s">
+        <v>190</v>
+      </c>
+      <c r="I54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>23949083</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>329</v>
+      </c>
+      <c r="G55" t="s">
+        <v>295</v>
+      </c>
+      <c r="H55" t="s">
+        <v>190</v>
+      </c>
+      <c r="I55" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>23949252</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>331</v>
+      </c>
+      <c r="G56" t="s">
+        <v>274</v>
+      </c>
+      <c r="H56" t="s">
+        <v>190</v>
+      </c>
+      <c r="I56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>23949279</v>
+      </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>333</v>
+      </c>
+      <c r="G57" t="s">
+        <v>274</v>
+      </c>
+      <c r="H57" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>23949503</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>335</v>
+      </c>
+      <c r="G58" t="s">
+        <v>274</v>
+      </c>
+      <c r="H58" t="s">
+        <v>190</v>
+      </c>
+      <c r="I58" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>28692768</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>337</v>
+      </c>
+      <c r="G59" t="s">
+        <v>338</v>
+      </c>
+      <c r="H59" t="s">
+        <v>190</v>
+      </c>
+      <c r="I59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>28692807</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>340</v>
+      </c>
+      <c r="G60" t="s">
+        <v>289</v>
+      </c>
+      <c r="H60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I60" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>23949900</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>342</v>
+      </c>
+      <c r="G61" t="s">
+        <v>343</v>
+      </c>
+      <c r="H61" t="s">
+        <v>190</v>
+      </c>
+      <c r="I61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>23949903</v>
+      </c>
+      <c r="C62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>345</v>
+      </c>
+      <c r="G62" t="s">
+        <v>274</v>
+      </c>
+      <c r="H62" t="s">
+        <v>190</v>
+      </c>
+      <c r="I62" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>23949908</v>
+      </c>
+      <c r="C63" t="s">
+        <v>346</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>347</v>
+      </c>
+      <c r="G63" t="s">
+        <v>274</v>
+      </c>
+      <c r="H63" t="s">
+        <v>190</v>
+      </c>
+      <c r="I63" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>23949916</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>348</v>
+      </c>
+      <c r="G64" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64" t="s">
+        <v>190</v>
+      </c>
+      <c r="I64" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>23950119</v>
+      </c>
+      <c r="C65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>349</v>
+      </c>
+      <c r="G65" t="s">
+        <v>274</v>
+      </c>
+      <c r="H65" t="s">
+        <v>190</v>
+      </c>
+      <c r="I65" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>23950167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>351</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>352</v>
+      </c>
+      <c r="G66" t="s">
+        <v>295</v>
+      </c>
+      <c r="H66" t="s">
+        <v>190</v>
+      </c>
+      <c r="I66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>28692903</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>354</v>
+      </c>
+      <c r="G67" t="s">
+        <v>315</v>
+      </c>
+      <c r="H67" t="s">
+        <v>190</v>
+      </c>
+      <c r="I67" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>23950331</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>356</v>
+      </c>
+      <c r="G68" t="s">
+        <v>274</v>
+      </c>
+      <c r="H68" t="s">
+        <v>190</v>
+      </c>
+      <c r="I68" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>23950381</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>358</v>
+      </c>
+      <c r="G69" t="s">
+        <v>343</v>
+      </c>
+      <c r="H69" t="s">
+        <v>190</v>
+      </c>
+      <c r="I69" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>23950380</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
+        <v>360</v>
+      </c>
+      <c r="G70" t="s">
+        <v>343</v>
+      </c>
+      <c r="H70" t="s">
+        <v>190</v>
+      </c>
+      <c r="I70" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>23950529</v>
+      </c>
+      <c r="C71" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>361</v>
+      </c>
+      <c r="G71" t="s">
+        <v>343</v>
+      </c>
+      <c r="H71" t="s">
+        <v>190</v>
+      </c>
+      <c r="I71" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>23950540</v>
+      </c>
+      <c r="C72" t="s">
+        <v>346</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>363</v>
+      </c>
+      <c r="G72" t="s">
+        <v>343</v>
+      </c>
+      <c r="H72" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>23950591</v>
+      </c>
+      <c r="C73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>364</v>
+      </c>
+      <c r="G73" t="s">
+        <v>295</v>
+      </c>
+      <c r="H73" t="s">
+        <v>190</v>
+      </c>
+      <c r="I73" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>23951029</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
+        <v>366</v>
+      </c>
+      <c r="G74" t="s">
+        <v>343</v>
+      </c>
+      <c r="H74" t="s">
+        <v>190</v>
+      </c>
+      <c r="I74" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>23951036</v>
+      </c>
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" t="s">
+        <v>368</v>
+      </c>
+      <c r="G75" t="s">
+        <v>343</v>
+      </c>
+      <c r="H75" t="s">
+        <v>190</v>
+      </c>
+      <c r="I75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>23951117</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" t="s">
+        <v>369</v>
+      </c>
+      <c r="G76" t="s">
+        <v>343</v>
+      </c>
+      <c r="H76" t="s">
+        <v>190</v>
+      </c>
+      <c r="I76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>23951297</v>
+      </c>
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>371</v>
+      </c>
+      <c r="G77" t="s">
+        <v>343</v>
+      </c>
+      <c r="H77" t="s">
+        <v>190</v>
+      </c>
+      <c r="I77" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>23951312</v>
+      </c>
+      <c r="C78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>373</v>
+      </c>
+      <c r="G78" t="s">
+        <v>343</v>
+      </c>
+      <c r="H78" t="s">
+        <v>190</v>
+      </c>
+      <c r="I78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>28693263</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>375</v>
+      </c>
+      <c r="G79" t="s">
+        <v>299</v>
+      </c>
+      <c r="H79" t="s">
+        <v>190</v>
+      </c>
+      <c r="I79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>23951537</v>
+      </c>
+      <c r="C80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>377</v>
+      </c>
+      <c r="G80" t="s">
+        <v>343</v>
+      </c>
+      <c r="H80" t="s">
+        <v>190</v>
+      </c>
+      <c r="I80" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>28693341</v>
+      </c>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>379</v>
+      </c>
+      <c r="G81" t="s">
+        <v>295</v>
+      </c>
+      <c r="H81" t="s">
+        <v>190</v>
+      </c>
+      <c r="I81" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>28693366</v>
+      </c>
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>381</v>
+      </c>
+      <c r="G82" t="s">
+        <v>289</v>
+      </c>
+      <c r="H82" t="s">
+        <v>190</v>
+      </c>
+      <c r="I82" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>23951915</v>
+      </c>
+      <c r="C83" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>383</v>
+      </c>
+      <c r="G83" t="s">
+        <v>343</v>
+      </c>
+      <c r="H83" t="s">
+        <v>190</v>
+      </c>
+      <c r="I83" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>28693769</v>
+      </c>
+      <c r="C84" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>385</v>
+      </c>
+      <c r="G84" t="s">
+        <v>295</v>
+      </c>
+      <c r="H84" t="s">
+        <v>190</v>
+      </c>
+      <c r="I84" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>28693794</v>
+      </c>
+      <c r="C85" t="s">
+        <v>387</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>388</v>
+      </c>
+      <c r="G85" t="s">
+        <v>338</v>
+      </c>
+      <c r="H85" t="s">
+        <v>190</v>
+      </c>
+      <c r="I85" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>28693796</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>389</v>
+      </c>
+      <c r="G86" t="s">
+        <v>315</v>
+      </c>
+      <c r="H86" t="s">
+        <v>190</v>
+      </c>
+      <c r="I86" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>28693799</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>391</v>
+      </c>
+      <c r="G87" t="s">
+        <v>289</v>
+      </c>
+      <c r="H87" t="s">
+        <v>190</v>
+      </c>
+      <c r="I87" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>23953589</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
+        <v>393</v>
+      </c>
+      <c r="G88" t="s">
+        <v>295</v>
+      </c>
+      <c r="H88" t="s">
+        <v>190</v>
+      </c>
+      <c r="I88" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>23953618</v>
+      </c>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" t="s">
+        <v>395</v>
+      </c>
+      <c r="G89" t="s">
+        <v>251</v>
+      </c>
+      <c r="H89" t="s">
+        <v>190</v>
+      </c>
+      <c r="I89" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>23953751</v>
+      </c>
+      <c r="C90" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
+        <v>397</v>
+      </c>
+      <c r="G90" t="s">
+        <v>251</v>
+      </c>
+      <c r="H90" t="s">
+        <v>190</v>
+      </c>
+      <c r="I90" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>23954517</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" t="s">
+        <v>399</v>
+      </c>
+      <c r="G91" t="s">
+        <v>338</v>
+      </c>
+      <c r="H91" t="s">
+        <v>190</v>
+      </c>
+      <c r="I91" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>23955205</v>
+      </c>
+      <c r="C92" t="s">
+        <v>346</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" t="s">
+        <v>401</v>
+      </c>
+      <c r="G92" t="s">
+        <v>338</v>
+      </c>
+      <c r="H92" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J96"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
     <sheet name="23.05.2018" sheetId="2" r:id="rId2"/>
     <sheet name="25.05.2018" sheetId="3" r:id="rId3"/>
     <sheet name="30.05.2018" sheetId="4" r:id="rId4"/>
+    <sheet name="01.06.2018" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
@@ -18,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="489">
   <si>
     <t>№</t>
   </si>
@@ -1234,6 +1234,267 @@
   </si>
   <si>
     <t>http://sortis.com.ua/yak-pidibrati-metaloplastikove-vikno/</t>
+  </si>
+  <si>
+    <t>May 30, 2018, 5:28 p.m.</t>
+  </si>
+  <si>
+    <t>estdomain.com.ua</t>
+  </si>
+  <si>
+    <t>Йотобайк</t>
+  </si>
+  <si>
+    <t>http://estdomain.com.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d1%86%d1%8e%d1%94-%d1%80%d0%b5%d0%ba%d0%bb%d0%b0%d0%bc%d0%b0-%d0%b2-%d1%96%d0%bd%d1%82%d0%b5%d1%80%d0%bd%d0%b5%d1%82%d1%96/</t>
+  </si>
+  <si>
+    <t>June 1, 2018, 11:57 a.m.</t>
+  </si>
+  <si>
+    <t>pifagor.kiev.ua</t>
+  </si>
+  <si>
+    <t>http://pifagor.kiev.ua/z-chogo-pochati-navchannya-boksu/</t>
+  </si>
+  <si>
+    <t>pravdu.com.ua</t>
+  </si>
+  <si>
+    <t>http://pravdu.com.ua/vibirayemo-lyustru-dlya-zalu/</t>
+  </si>
+  <si>
+    <t>June 1, 2018, 11:58 a.m.</t>
+  </si>
+  <si>
+    <t>http://pravdu.com.ua/golovni-viznachni-pam-yatki-avstriyi/</t>
+  </si>
+  <si>
+    <t>http://pifagor.kiev.ua/yak-pravilno-orenduvati-kvartiru/</t>
+  </si>
+  <si>
+    <t>fastping.com.ua</t>
+  </si>
+  <si>
+    <t>http://fastping.com.ua/yak-pravilno-orenduvati-kvartiru/</t>
+  </si>
+  <si>
+    <t>feyhoa.org.ua</t>
+  </si>
+  <si>
+    <t>http://feyhoa.org.ua/yak-pravilno-orenduvati-kvartiru/</t>
+  </si>
+  <si>
+    <t>http://ukravtomobil.if.ua/yak-zabrati-posilku-z-kitayu/</t>
+  </si>
+  <si>
+    <t>June 1, 2018, 11:50 a.m.</t>
+  </si>
+  <si>
+    <t>buyheavenlyspot.com.ua</t>
+  </si>
+  <si>
+    <t>http://buyheavenlyspot.com.ua/yak-pravylno-zdaty-kvartyru-v-orendu/</t>
+  </si>
+  <si>
+    <t>smolianoy.com.ua</t>
+  </si>
+  <si>
+    <t>http://smolianoy.com.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b7%d0%b4%d0%b0%d1%82%d0%b8-%d0%ba%d0%b2%d0%b0%d1%80%d1%82%d0%b8%d1%80%d1%83-%d0%b2-%d0%be%d1%80%d0%b5%d0%bd%d0%b4%d1%83/</t>
+  </si>
+  <si>
+    <t>http://lightdesign.od.ua/yak-pravylno-zdaty-kvartyru-v-orendu/</t>
+  </si>
+  <si>
+    <t>http://web-stroy.kharkov.ua/yak-pravilno-zdati-kvartiru-v-orendu/</t>
+  </si>
+  <si>
+    <t>http://cugp.com.ua/yak-vibrati-kvartiru-v-novobudovi/</t>
+  </si>
+  <si>
+    <t>http://quickest.com.ua/yak-stvoryuyetsya-sajt/</t>
+  </si>
+  <si>
+    <t>June 1, 2018, 11:51 a.m.</t>
+  </si>
+  <si>
+    <t>http://interline.net.ua/yak-pravilno-stezhiti-za-zdorov-yam-2/</t>
+  </si>
+  <si>
+    <t>June 1, 2018, 11:52 a.m.</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%bf%d1%96%d0%b4%d1%96%d0%b1%d1%80%d0%b0%d1%82%d0%b8-%d1%80%d0%be%d0%b1%d0%be%d1%87%d0%b8%d0%b9-%d0%b4%d0%b8%d0%bf%d0%bb%d0%be%d0%bc%d0%b0%d1%82/</t>
+  </si>
+  <si>
+    <t>http://betar.org.ua/yak-pravylno-zdaty-kvartyru-v-orendu/</t>
+  </si>
+  <si>
+    <t>http://biscont.com.ua/yak-pravylno-zdaty-kvartyru-v-orendu/</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/yak-pravylno-zdaty-kvartyru-v-orendu/</t>
+  </si>
+  <si>
+    <t>upu.org.ua</t>
+  </si>
+  <si>
+    <t>http://upu.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b7%d0%b4%d0%b0%d1%82%d0%b8-%d0%ba%d0%b2%d0%b0%d1%80%d1%82%d0%b8%d1%80%d1%83-%d0%b2-%d0%be%d1%80%d0%b5%d0%bd%d0%b4%d1%83/</t>
+  </si>
+  <si>
+    <t>http://poser.kiev.ua/yak-pravylno-zdaty-kvartyru-v-orendu/</t>
+  </si>
+  <si>
+    <t>hdtv.net.ua</t>
+  </si>
+  <si>
+    <t>http://hdtv.net.ua/yak-pravilno-zdati-kvartiru-v-orendu/</t>
+  </si>
+  <si>
+    <t>www.topcatalog.com.ua</t>
+  </si>
+  <si>
+    <t>http://www.topcatalog.com.ua/yak-pravilno-zdati-kvartiru-v-orendu</t>
+  </si>
+  <si>
+    <t>http://dveroman.kiev.ua/yak-pravilno-zdati-kvartiru-v-orendu/</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b7%d1%80%d0%be%d0%b1%d0%b8%d1%82%d0%b8-%d0%bf%d1%80%d0%be%d1%81%d1%83%d0%b2%d0%b0%d0%bd%d0%bd%d1%8f-%d1%81%d0%b2%d0%be%d0%b3/</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/yak-pravylno-doglyadaty-za-viknamy-v-budynku/</t>
+  </si>
+  <si>
+    <t>June 1, 2018, 11:48 a.m.</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/yak-vlashtovana-tsyrkulyatsiya-vody-v-budynku/</t>
+  </si>
+  <si>
+    <t>http://biscont.com.ua/yak-pravylno-doglyadaty-za-viknamy-v-budynku/</t>
+  </si>
+  <si>
+    <t>seocoding.ru</t>
+  </si>
+  <si>
+    <t>http://seocoding.ru/yak-vikonati-prosuvannya-sajtu/</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%b2%d0%bb%d0%b0%d1%88%d1%82%d0%be%d0%b2%d0%b0%d0%bd%d1%96-%d0%bf%d1%96%d1%80%d0%be%d0%bb%d1%96%d0%b7%d0%bd%d1%96-%d0%ba%d0%be%d1%82%d0%bb%d0%b8/</t>
+  </si>
+  <si>
+    <t>http://slaidik.com.ua/osnovni-printsipi-posilalnogo-auditu/</t>
+  </si>
+  <si>
+    <t>June 1, 2018, 11:54 a.m.</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/yak-vybraty-prystrij-flesh-pam-yati/</t>
+  </si>
+  <si>
+    <t>http://bf3.com.ua/yak-organizuvaty-opalennya-v-budynku/</t>
+  </si>
+  <si>
+    <t>June 1, 2018, 11:49 a.m.</t>
+  </si>
+  <si>
+    <t>yoip.com.ua</t>
+  </si>
+  <si>
+    <t>http://yoip.com.ua/yak-pravilno-orenduvati-kvartiru/</t>
+  </si>
+  <si>
+    <t>bigmoney.kiev.ua</t>
+  </si>
+  <si>
+    <t>http://bigmoney.kiev.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%be%d1%80%d0%b5%d0%bd%d0%b4%d1%83%d0%b2%d0%b0%d1%82%d0%b8-%d0%ba%d0%b2%d0%b0%d1%80%d1%82%d0%b8%d1%80%d1%83/</t>
+  </si>
+  <si>
+    <t>ndua.org.ua</t>
+  </si>
+  <si>
+    <t>http://ndua.org.ua/yak-pravylno-orenduvaty-kvartyru/</t>
+  </si>
+  <si>
+    <t>dlemoduli.org.ua</t>
+  </si>
+  <si>
+    <t>http://dlemoduli.org.ua/yak-pravylno-orenduvaty-kvartyru/</t>
+  </si>
+  <si>
+    <t>June 1, 2018, 11:53 a.m.</t>
+  </si>
+  <si>
+    <t>http://catalog-security.com.ua/yak-pravilno-orenduvati-kvartiru/</t>
+  </si>
+  <si>
+    <t>http://savelink.org.ua/yak-pravilno-orenduvati-kvartiru/</t>
+  </si>
+  <si>
+    <t>thetech.com.ua</t>
+  </si>
+  <si>
+    <t>http://thetech.com.ua/yak-pravilno-orenduvati-kvartiru/</t>
+  </si>
+  <si>
+    <t>http://it-shop.donetsk.ua/yak-pravylno-orenduvaty-kvartyru/</t>
+  </si>
+  <si>
+    <t>http://programer.org.ua/yak-pravilno-zdati-kvartiru-v-orendu/</t>
+  </si>
+  <si>
+    <t>http://umapalata.zp.ua/yak-pravilno-zdati-kvartiru-v-orendu/</t>
+  </si>
+  <si>
+    <t>http://zvonkov.net.ua/yak-pravilno-zdati-kvartiru-v-orendu/</t>
+  </si>
+  <si>
+    <t>http://linkomania.com.ua/yak-pravilno-zdati-kvartiru-v-orendu/</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/yak-pravylno-zdaty-kvartyru-v-orendu/</t>
+  </si>
+  <si>
+    <t>http://sortis.com.ua/yak-pravilno-zdati-kvartiru-v-orendu/</t>
+  </si>
+  <si>
+    <t>http://thetech.com.ua/osnovi-ekonmicheskogo-rozvitku/</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/yak-vlashtovana-ochyshhennya-vody-v-budynku/</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/yak-pravylno-doglyadaty-za-viknamy-v-budynku-2/</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/z-chogo-pochaty-vyvchennya-nimetskoyi-movy/</t>
+  </si>
+  <si>
+    <t>http://sortis.com.ua/yak-pidibrati-originalnij-podarunok/</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/yak-pidibraty-parfumy/</t>
+  </si>
+  <si>
+    <t>http://sortis.com.ua/yak-pravilno-vibrati-kosmetiku/</t>
+  </si>
+  <si>
+    <t>http://sortis.com.ua/yak-pravilno-doglyadati-za-viknami-v-budinku/</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/yak-pravylno-doglyadaty-za-viknamy-v-budynku/</t>
+  </si>
+  <si>
+    <t>http://sortis.com.ua/yak-pravilno-vikoristovuvati-sluhovi-aparati/</t>
+  </si>
+  <si>
+    <t>http://catalog-security.com.ua/yak-pratsyuye-kontekstna-reklama/</t>
+  </si>
+  <si>
+    <t>http://gyrus.org.ua/yak-vidbuvayetsya-indeksatsiya-sajtiv-v-poshukovih-sistemah/</t>
+  </si>
+  <si>
+    <t>http://thetech.com.ua/yak-vikonati-prosuvannya-sajtu/</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1265,6 +1526,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,12 +1563,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6102,8 +6370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8788,7 +9056,1826 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J96"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>28691789</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3">
+        <v>28695204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3">
+        <v>28695310</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>94</v>
+      </c>
+      <c r="B5" s="3">
+        <v>28695796</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>28692068</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3">
+        <v>28694593</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>28696497</v>
+      </c>
+      <c r="C8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>28691041</v>
+      </c>
+      <c r="C9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" t="s">
+        <v>406</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>28691158</v>
+      </c>
+      <c r="C10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>28692011</v>
+      </c>
+      <c r="C11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" t="s">
+        <v>404</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>410</v>
+      </c>
+      <c r="G11" t="s">
+        <v>411</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>28692420</v>
+      </c>
+      <c r="C12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>412</v>
+      </c>
+      <c r="G12" t="s">
+        <v>411</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>28694967</v>
+      </c>
+      <c r="C13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>413</v>
+      </c>
+      <c r="G13" t="s">
+        <v>411</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>28694979</v>
+      </c>
+      <c r="C14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>415</v>
+      </c>
+      <c r="G14" t="s">
+        <v>411</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>28694989</v>
+      </c>
+      <c r="C15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>417</v>
+      </c>
+      <c r="G15" t="s">
+        <v>411</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>28694831</v>
+      </c>
+      <c r="C16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>418</v>
+      </c>
+      <c r="G16" t="s">
+        <v>419</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>28694965</v>
+      </c>
+      <c r="C17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>28694970</v>
+      </c>
+      <c r="C18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>423</v>
+      </c>
+      <c r="G18" t="s">
+        <v>419</v>
+      </c>
+      <c r="H18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>28694978</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>424</v>
+      </c>
+      <c r="G19" t="s">
+        <v>419</v>
+      </c>
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>28694983</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>425</v>
+      </c>
+      <c r="G20" t="s">
+        <v>419</v>
+      </c>
+      <c r="H20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21">
+        <v>28695348</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>426</v>
+      </c>
+      <c r="G21" t="s">
+        <v>419</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>98</v>
+      </c>
+      <c r="B22">
+        <v>28696256</v>
+      </c>
+      <c r="C22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>427</v>
+      </c>
+      <c r="G22" t="s">
+        <v>428</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>28694605</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G23" t="s">
+        <v>430</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>28694828</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>431</v>
+      </c>
+      <c r="G24" t="s">
+        <v>430</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>28695046</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>432</v>
+      </c>
+      <c r="G25" t="s">
+        <v>430</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>66</v>
+      </c>
+      <c r="B26">
+        <v>28695051</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>433</v>
+      </c>
+      <c r="G26" t="s">
+        <v>430</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>68</v>
+      </c>
+      <c r="B27">
+        <v>28695053</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>69</v>
+      </c>
+      <c r="B28">
+        <v>28695054</v>
+      </c>
+      <c r="C28" t="s">
+        <v>435</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>436</v>
+      </c>
+      <c r="G28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>28695056</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>437</v>
+      </c>
+      <c r="G29" t="s">
+        <v>428</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>73</v>
+      </c>
+      <c r="B30">
+        <v>28695059</v>
+      </c>
+      <c r="C30" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>439</v>
+      </c>
+      <c r="G30" t="s">
+        <v>428</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>74</v>
+      </c>
+      <c r="B31">
+        <v>28695060</v>
+      </c>
+      <c r="C31" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>441</v>
+      </c>
+      <c r="G31" t="s">
+        <v>428</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>75</v>
+      </c>
+      <c r="B32">
+        <v>28695061</v>
+      </c>
+      <c r="C32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>442</v>
+      </c>
+      <c r="G32" t="s">
+        <v>428</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>76</v>
+      </c>
+      <c r="B33">
+        <v>28695175</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>443</v>
+      </c>
+      <c r="G33" t="s">
+        <v>428</v>
+      </c>
+      <c r="H33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>78</v>
+      </c>
+      <c r="B34">
+        <v>23956155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>444</v>
+      </c>
+      <c r="G34" t="s">
+        <v>445</v>
+      </c>
+      <c r="H34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35">
+        <v>23956821</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>446</v>
+      </c>
+      <c r="G35" t="s">
+        <v>445</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>95</v>
+      </c>
+      <c r="B36">
+        <v>23958171</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>447</v>
+      </c>
+      <c r="G36" t="s">
+        <v>445</v>
+      </c>
+      <c r="H36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>96</v>
+      </c>
+      <c r="B37">
+        <v>23958379</v>
+      </c>
+      <c r="C37" t="s">
+        <v>448</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>449</v>
+      </c>
+      <c r="G37" t="s">
+        <v>445</v>
+      </c>
+      <c r="H37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>99</v>
+      </c>
+      <c r="B38">
+        <v>28696367</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>450</v>
+      </c>
+      <c r="G38" t="s">
+        <v>430</v>
+      </c>
+      <c r="H38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>28694641</v>
+      </c>
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>451</v>
+      </c>
+      <c r="G39" t="s">
+        <v>452</v>
+      </c>
+      <c r="H39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>23955461</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>453</v>
+      </c>
+      <c r="G40" t="s">
+        <v>419</v>
+      </c>
+      <c r="H40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>23955464</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>454</v>
+      </c>
+      <c r="G41" t="s">
+        <v>455</v>
+      </c>
+      <c r="H41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>28695038</v>
+      </c>
+      <c r="C42" t="s">
+        <v>456</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>457</v>
+      </c>
+      <c r="G42" t="s">
+        <v>452</v>
+      </c>
+      <c r="H42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>28695039</v>
+      </c>
+      <c r="C43" t="s">
+        <v>458</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>459</v>
+      </c>
+      <c r="G43" t="s">
+        <v>452</v>
+      </c>
+      <c r="H43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>28695040</v>
+      </c>
+      <c r="C44" t="s">
+        <v>460</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>461</v>
+      </c>
+      <c r="G44" t="s">
+        <v>452</v>
+      </c>
+      <c r="H44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>28695041</v>
+      </c>
+      <c r="C45" t="s">
+        <v>462</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>463</v>
+      </c>
+      <c r="G45" t="s">
+        <v>464</v>
+      </c>
+      <c r="H45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>28695042</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>465</v>
+      </c>
+      <c r="G46" t="s">
+        <v>464</v>
+      </c>
+      <c r="H46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>28695043</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>466</v>
+      </c>
+      <c r="G47" t="s">
+        <v>464</v>
+      </c>
+      <c r="H47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>61</v>
+      </c>
+      <c r="B48">
+        <v>28695045</v>
+      </c>
+      <c r="C48" t="s">
+        <v>467</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G48" t="s">
+        <v>464</v>
+      </c>
+      <c r="H48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>62</v>
+      </c>
+      <c r="B49">
+        <v>28695047</v>
+      </c>
+      <c r="C49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>469</v>
+      </c>
+      <c r="G49" t="s">
+        <v>464</v>
+      </c>
+      <c r="H49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>63</v>
+      </c>
+      <c r="B50">
+        <v>28695048</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>470</v>
+      </c>
+      <c r="G50" t="s">
+        <v>430</v>
+      </c>
+      <c r="H50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <v>28695049</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G51" t="s">
+        <v>464</v>
+      </c>
+      <c r="H51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>28695050</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>472</v>
+      </c>
+      <c r="G52" t="s">
+        <v>464</v>
+      </c>
+      <c r="H52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>67</v>
+      </c>
+      <c r="B53">
+        <v>28695052</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>473</v>
+      </c>
+      <c r="G53" t="s">
+        <v>430</v>
+      </c>
+      <c r="H53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>71</v>
+      </c>
+      <c r="B54">
+        <v>28695055</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>474</v>
+      </c>
+      <c r="G54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>72</v>
+      </c>
+      <c r="B55">
+        <v>28695057</v>
+      </c>
+      <c r="C55" t="s">
+        <v>346</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>475</v>
+      </c>
+      <c r="G55" t="s">
+        <v>430</v>
+      </c>
+      <c r="H55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>28695410</v>
+      </c>
+      <c r="C56" t="s">
+        <v>467</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>476</v>
+      </c>
+      <c r="G56" t="s">
+        <v>452</v>
+      </c>
+      <c r="H56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <v>23956822</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>477</v>
+      </c>
+      <c r="G57" t="s">
+        <v>455</v>
+      </c>
+      <c r="H57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>84</v>
+      </c>
+      <c r="B58">
+        <v>23956833</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>478</v>
+      </c>
+      <c r="G58" t="s">
+        <v>455</v>
+      </c>
+      <c r="H58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>23956953</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>479</v>
+      </c>
+      <c r="G59" t="s">
+        <v>455</v>
+      </c>
+      <c r="H59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>86</v>
+      </c>
+      <c r="B60">
+        <v>23956956</v>
+      </c>
+      <c r="C60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>480</v>
+      </c>
+      <c r="G60" t="s">
+        <v>455</v>
+      </c>
+      <c r="H60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <v>23957204</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>481</v>
+      </c>
+      <c r="G61" t="s">
+        <v>455</v>
+      </c>
+      <c r="H61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>88</v>
+      </c>
+      <c r="B62">
+        <v>23957403</v>
+      </c>
+      <c r="C62" t="s">
+        <v>346</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>482</v>
+      </c>
+      <c r="G62" t="s">
+        <v>455</v>
+      </c>
+      <c r="H62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>89</v>
+      </c>
+      <c r="B63">
+        <v>23957404</v>
+      </c>
+      <c r="C63" t="s">
+        <v>346</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>483</v>
+      </c>
+      <c r="G63" t="s">
+        <v>455</v>
+      </c>
+      <c r="H63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>90</v>
+      </c>
+      <c r="B64">
+        <v>23957536</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>484</v>
+      </c>
+      <c r="G64" t="s">
+        <v>455</v>
+      </c>
+      <c r="H64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>91</v>
+      </c>
+      <c r="B65">
+        <v>23957539</v>
+      </c>
+      <c r="C65" t="s">
+        <v>346</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>485</v>
+      </c>
+      <c r="G65" t="s">
+        <v>455</v>
+      </c>
+      <c r="H65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>92</v>
+      </c>
+      <c r="B66">
+        <v>28695707</v>
+      </c>
+      <c r="C66" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>486</v>
+      </c>
+      <c r="G66" t="s">
+        <v>452</v>
+      </c>
+      <c r="H66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>93</v>
+      </c>
+      <c r="B67">
+        <v>28695708</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>487</v>
+      </c>
+      <c r="G67" t="s">
+        <v>452</v>
+      </c>
+      <c r="H67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>97</v>
+      </c>
+      <c r="B68">
+        <v>28696214</v>
+      </c>
+      <c r="C68" t="s">
+        <v>467</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>488</v>
+      </c>
+      <c r="G68" t="s">
+        <v>452</v>
+      </c>
+      <c r="H68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,10 @@
     <sheet name="25.05.2018" sheetId="3" r:id="rId3"/>
     <sheet name="30.05.2018" sheetId="4" r:id="rId4"/>
     <sheet name="01.06.2018" sheetId="5" r:id="rId5"/>
+    <sheet name="04.06.2018" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.06.2018'!$A$1:$J$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="599">
   <si>
     <t>№</t>
   </si>
@@ -1495,6 +1497,336 @@
   </si>
   <si>
     <t>http://thetech.com.ua/yak-vikonati-prosuvannya-sajtu/</t>
+  </si>
+  <si>
+    <t>June 3, 2018, 10:51 p.m.</t>
+  </si>
+  <si>
+    <t>June 3, 2018, 4:48 p.m.</t>
+  </si>
+  <si>
+    <t>farman.kiev.ua</t>
+  </si>
+  <si>
+    <t>http://farman.kiev.ua/osnovni-vidi-diagnostichnogo-obladnannya/</t>
+  </si>
+  <si>
+    <t>June 3, 2018, 11:18 p.m.</t>
+  </si>
+  <si>
+    <t>Основные виды диагностического оборудования.</t>
+  </si>
+  <si>
+    <t>hopka.org.ua</t>
+  </si>
+  <si>
+    <t>June 3, 2018, 10:52 p.m.</t>
+  </si>
+  <si>
+    <t>kolizey.net.ua</t>
+  </si>
+  <si>
+    <t>June 3, 2018, 10:54 p.m.</t>
+  </si>
+  <si>
+    <t>http://slonoff.net.ua/yak-pravilno-pidibrati-liki/</t>
+  </si>
+  <si>
+    <t>Как правильно подобрать лекарства.</t>
+  </si>
+  <si>
+    <t>foxtrot-auto.com.ua</t>
+  </si>
+  <si>
+    <t>http://foxtrot-auto.com.ua/%D1%8F%D0%BA-%D0%B4%D0%B5%D1%88%D0%B5%D0%B2%D1%88%D0%B5-%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D0%B8-%D0%B7%D0%B0%D0%BF%D1%87%D0%B0%D1%81%D1%82%D0%B8%D0%BD%D0%B8/</t>
+  </si>
+  <si>
+    <t>June 3, 2018, 11:19 p.m.</t>
+  </si>
+  <si>
+    <t>Как дешевле купить автозапчасти.</t>
+  </si>
+  <si>
+    <t>http://mip-stroy.com.ua/yak-pravilno-pobuduvati-dah-budinku/</t>
+  </si>
+  <si>
+    <t>Как правильно построить крышу дома.</t>
+  </si>
+  <si>
+    <t>http://mip-stroy.com.ua/yak-organizuvati-opalennya-v-budinku/</t>
+  </si>
+  <si>
+    <t>Как организовать отопление в доме.</t>
+  </si>
+  <si>
+    <t>http://mip-stroy.com.ua/yak-pravilno-orenduvati-kvartiru/</t>
+  </si>
+  <si>
+    <t>Как правильно арендовать квартиру.</t>
+  </si>
+  <si>
+    <t>http://salfetki.org.ua/yak-pobuduvati-teplitsyu/</t>
+  </si>
+  <si>
+    <t>June 4, 2018, 1:38 p.m.</t>
+  </si>
+  <si>
+    <t>Как построить теплицу.</t>
+  </si>
+  <si>
+    <t>http://tren.com.ua/osnovi-ekonmicheskogo-rozvitku/</t>
+  </si>
+  <si>
+    <t>June 4, 2018, 3:22 p.m.</t>
+  </si>
+  <si>
+    <t>Основы эконмического развития.</t>
+  </si>
+  <si>
+    <t>http://patriarh.in.ua/osnovi-ekonmicheskogo-rozvitku/</t>
+  </si>
+  <si>
+    <t>adonaidenver.org</t>
+  </si>
+  <si>
+    <t>http://adonaidenver.org/%d1%8f%d0%ba-%d1%80%d0%be%d0%b7%d1%88%d0%b8%d1%80%d0%b8%d1%82%d0%b8-%d0%b1%d0%b0%d0%bb%d0%ba%d0%be%d0%bd/</t>
+  </si>
+  <si>
+    <t>Как расширить балкон.</t>
+  </si>
+  <si>
+    <t>http://linkomania.com.ua/yak-vikonati-prosuvannya-sajtu/</t>
+  </si>
+  <si>
+    <t>June 4, 2018, 1:39 p.m.</t>
+  </si>
+  <si>
+    <t>infoweb.org.ua</t>
+  </si>
+  <si>
+    <t>http://infoweb.org.ua/yak-vikonati-prosuvannya-sajtu-2</t>
+  </si>
+  <si>
+    <t>http://ndua.org.ua/yak-vykonaty-prosuvannya-sajtu/</t>
+  </si>
+  <si>
+    <t>http://smolianoy.com.ua/%d1%8f%d0%ba-%d0%b2%d0%b8%d0%ba%d0%be%d0%bd%d0%b0%d1%82%d0%b8-%d0%bf%d1%80%d0%be%d1%81%d1%83%d0%b2%d0%b0%d0%bd%d0%bd%d1%8f-%d1%81%d0%b0%d0%b9%d1%82%d1%83/</t>
+  </si>
+  <si>
+    <t>http://thetech.com.ua/yak-vikonati-prosuvannya-sajtu-2/</t>
+  </si>
+  <si>
+    <t>seooptimus.ru</t>
+  </si>
+  <si>
+    <t>http://seooptimus.ru/yak-proindeksuvati-sajt-v-poshukovih-sistemah</t>
+  </si>
+  <si>
+    <t>http://apples-web.org.ua/yak-pratsyuye-reklama-v-interneti/</t>
+  </si>
+  <si>
+    <t>http://www.topcatalog.com.ua/yak-pratsyuye-kontekstna-reklama</t>
+  </si>
+  <si>
+    <t>Как работает контекстная реклама.</t>
+  </si>
+  <si>
+    <t>http://redcat.net.ua/yak-pidibraty-kruyiz-po-moryu/</t>
+  </si>
+  <si>
+    <t>Как подобрать круиз по морю.</t>
+  </si>
+  <si>
+    <t>http://feyhoa.org.ua/yak-uriznomanitniti-svoye-dozvillya/</t>
+  </si>
+  <si>
+    <t>June 4, 2018, 1:41 p.m.</t>
+  </si>
+  <si>
+    <t>Как разнообразить свой досуг.</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/yak-pravylno-kupyty-kvartyru-3/</t>
+  </si>
+  <si>
+    <t>June 4, 2018, 1:40 p.m.</t>
+  </si>
+  <si>
+    <t>Как правильно купить квартиру.</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/z-chogo-pochaty-budivnytstvo-zamiskogo-budynku/</t>
+  </si>
+  <si>
+    <t>С чего начать постройку загородного дома.</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d1%80%d0%be%d0%b1%d0%b8%d1%82%d0%b8-%d0%b5%d0%bf%d1%96%d0%bb%d1%8f%d1%86%d1%96%d1%8e-2/</t>
+  </si>
+  <si>
+    <t>June 4, 2018, 3:36 p.m.</t>
+  </si>
+  <si>
+    <t>Как правильно делать эпиляцию.</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/yak-vybraty-zhytlo-v-novobudovah/</t>
+  </si>
+  <si>
+    <t>http://patriarh.in.ua/z-chogo-pochati-vivchennya-religiyi/</t>
+  </si>
+  <si>
+    <t>С чего начать изучение религии.</t>
+  </si>
+  <si>
+    <t>http://zenit2.com.ua/vidomi-gumoristichni-tvori/</t>
+  </si>
+  <si>
+    <t>Известные юмористические произведения.</t>
+  </si>
+  <si>
+    <t>http://yavtanke.org.ua/vidomi-gumoristichni-tvori/</t>
+  </si>
+  <si>
+    <t>http://blackmetal.kiev.ua/z-chogo-pochaty-navchannya-muzyky/</t>
+  </si>
+  <si>
+    <t>С чего начать обучение музыки.</t>
+  </si>
+  <si>
+    <t>http://tren.com.ua/z-chogo-pochati-remont-u-budinku/</t>
+  </si>
+  <si>
+    <t>С чего начать ремонт в доме.</t>
+  </si>
+  <si>
+    <t>http://gyrus.org.ua/najvidomishi-socheneniya-shevchenka/</t>
+  </si>
+  <si>
+    <t>Самые известные соченения Шевченка.</t>
+  </si>
+  <si>
+    <t>3das.com.ua</t>
+  </si>
+  <si>
+    <t>http://3das.com.ua/yak-stati-hudozhnikom/</t>
+  </si>
+  <si>
+    <t>Как стать художником.</t>
+  </si>
+  <si>
+    <t>darkbluecat.net.ua</t>
+  </si>
+  <si>
+    <t>http://darkbluecat.net.ua/z-chogo-pochati-budivnitstvo-zamiskogo-budinku/</t>
+  </si>
+  <si>
+    <t>24zp.org.ua</t>
+  </si>
+  <si>
+    <t>http://24zp.org.ua/yak-vibrati-mebli-dlya-domu/</t>
+  </si>
+  <si>
+    <t>June 4, 2018, 1:42 p.m.</t>
+  </si>
+  <si>
+    <t>Как выбрать комод для дома.</t>
+  </si>
+  <si>
+    <t>http://umapalata.zp.ua/yak-vibrati-komod-dlya-domu/</t>
+  </si>
+  <si>
+    <t>seoclan.ru</t>
+  </si>
+  <si>
+    <t>http://seoclan.ru/yak-proindeksuvati-sajt-v-poshukovih-sistemah</t>
+  </si>
+  <si>
+    <t>http://www.schooler.org.ua/osnovy-ekonmycheskogo-rozvytku/</t>
+  </si>
+  <si>
+    <t>http://lightdesign.od.ua/yak-vybraty-mebli-dlya-kuhni/</t>
+  </si>
+  <si>
+    <t>Как выбрать мебель для кухни.</t>
+  </si>
+  <si>
+    <t>euro-m.kharkov.ua</t>
+  </si>
+  <si>
+    <t>http://euro-m.kharkov.ua/yak-vibrati-mebli-dlya-domu/</t>
+  </si>
+  <si>
+    <t>intwayclub.in.ua</t>
+  </si>
+  <si>
+    <t>http://intwayclub.in.ua/yak-mozhna-vykorystovuvaty-bankivsku-kartu</t>
+  </si>
+  <si>
+    <t>Как можно использовать банковскую карту.</t>
+  </si>
+  <si>
+    <t>http://intwayclub.in.ua/de-krashhe-braty-kredyt</t>
+  </si>
+  <si>
+    <t>June 4, 2018, 4:23 p.m.</t>
+  </si>
+  <si>
+    <t>Где лучше брать кредит.</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/de-krashhe-braty-kredyt/</t>
+  </si>
+  <si>
+    <t>http://3das.com.ua/yak-vibrati-mebli-dlya-kuhni/</t>
+  </si>
+  <si>
+    <t>http://pifagor.kiev.ua/yak-pravilno-pidibrati-liki/</t>
+  </si>
+  <si>
+    <t>http://24zp.org.ua/yak-pravilno-pidibrati-liki/</t>
+  </si>
+  <si>
+    <t>http://web-city.org.ua/yak-pravilno-pidibrati-liki/</t>
+  </si>
+  <si>
+    <t>http://mip-stroy.com.ua/yak-vlashtuvati-den-narodzhennya-v-ofisi/</t>
+  </si>
+  <si>
+    <t>Как устроить день рождения в офисе.</t>
+  </si>
+  <si>
+    <t>http://ypag.com.ua/yak-produmati-inter-yer-kvartiri/</t>
+  </si>
+  <si>
+    <t>Как продумать интерьер квартиры.</t>
+  </si>
+  <si>
+    <t>http://pifagor.kiev.ua/yak-pravilno-vibrati-shini-dlya-avtomobilya/</t>
+  </si>
+  <si>
+    <t>June 4, 2018, 5:57 p.m.</t>
+  </si>
+  <si>
+    <t>Как правильно выбрать покрышки для автомобиля.</t>
+  </si>
+  <si>
+    <t>http://interline.net.ua/nebezpechni-zahvoryuvannya-pechinki/</t>
+  </si>
+  <si>
+    <t>Опасные заболевания печени.</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d0%be%d1%81%d0%bd%d0%be%d0%b2%d0%bd%d1%96-%d0%b7%d0%b0%d1%85%d0%b2%d0%be%d1%80%d1%8e%d0%b2%d0%b0%d0%bd%d0%bd%d1%8f-%d0%bf%d0%b5%d1%87%d1%96%d0%bd%d0%ba%d0%b8/</t>
+  </si>
+  <si>
+    <t>Основные заболевания печени.</t>
+  </si>
+  <si>
+    <t>http://ahumor.org.ua/yak-stezhyty-za-zhinochym-zdorov-yam/</t>
+  </si>
+  <si>
+    <t>Как следить за женским здоровьем.</t>
   </si>
 </sst>
 </file>
@@ -9065,8 +9397,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10878,4 +11210,1973 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>23928873</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28689935</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>490</v>
+      </c>
+      <c r="H3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>28691295</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>490</v>
+      </c>
+      <c r="H4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>28691789</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>490</v>
+      </c>
+      <c r="H5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>28692187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>28692214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>28692215</v>
+      </c>
+      <c r="C8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>498</v>
+      </c>
+      <c r="H8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>28692402</v>
+      </c>
+      <c r="C9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>490</v>
+      </c>
+      <c r="H9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28692409</v>
+      </c>
+      <c r="C10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>490</v>
+      </c>
+      <c r="H10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>28694447</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G11" t="s">
+        <v>493</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>28694724</v>
+      </c>
+      <c r="C12" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>502</v>
+      </c>
+      <c r="G12" t="s">
+        <v>503</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>23955437</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>505</v>
+      </c>
+      <c r="G13" t="s">
+        <v>493</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>23955463</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>507</v>
+      </c>
+      <c r="G14" t="s">
+        <v>493</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>28695044</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>509</v>
+      </c>
+      <c r="G15" t="s">
+        <v>493</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>28695204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>490</v>
+      </c>
+      <c r="H16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>28695310</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>490</v>
+      </c>
+      <c r="H17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>28695796</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>23959602</v>
+      </c>
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>511</v>
+      </c>
+      <c r="G19" t="s">
+        <v>512</v>
+      </c>
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>28696517</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>490</v>
+      </c>
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>28696733</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>514</v>
+      </c>
+      <c r="G21" t="s">
+        <v>515</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>28696734</v>
+      </c>
+      <c r="C22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>517</v>
+      </c>
+      <c r="G22" t="s">
+        <v>512</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I22" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>28696873</v>
+      </c>
+      <c r="C23" t="s">
+        <v>518</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>519</v>
+      </c>
+      <c r="G23" t="s">
+        <v>512</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>28696927</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>521</v>
+      </c>
+      <c r="G24" t="s">
+        <v>522</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>28696929</v>
+      </c>
+      <c r="C25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>524</v>
+      </c>
+      <c r="G25" t="s">
+        <v>512</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>28696930</v>
+      </c>
+      <c r="C26" t="s">
+        <v>460</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>525</v>
+      </c>
+      <c r="G26" t="s">
+        <v>522</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>28696943</v>
+      </c>
+      <c r="C27" t="s">
+        <v>422</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>526</v>
+      </c>
+      <c r="G27" t="s">
+        <v>512</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>28696944</v>
+      </c>
+      <c r="C28" t="s">
+        <v>467</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>527</v>
+      </c>
+      <c r="G28" t="s">
+        <v>522</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28697094</v>
+      </c>
+      <c r="C29" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>529</v>
+      </c>
+      <c r="G29" t="s">
+        <v>512</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>28697095</v>
+      </c>
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>530</v>
+      </c>
+      <c r="G30" t="s">
+        <v>512</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>28697097</v>
+      </c>
+      <c r="C31" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>531</v>
+      </c>
+      <c r="G31" t="s">
+        <v>522</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>28697120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>533</v>
+      </c>
+      <c r="G32" t="s">
+        <v>522</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>28697141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D33" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>535</v>
+      </c>
+      <c r="G33" t="s">
+        <v>536</v>
+      </c>
+      <c r="H33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>28697202</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>490</v>
+      </c>
+      <c r="H34" t="s">
+        <v>228</v>
+      </c>
+      <c r="I34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>28697215</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>538</v>
+      </c>
+      <c r="G35" t="s">
+        <v>539</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>28697236</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>490</v>
+      </c>
+      <c r="H36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>28697250</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>541</v>
+      </c>
+      <c r="G37" t="s">
+        <v>539</v>
+      </c>
+      <c r="H37" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>28697262</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>543</v>
+      </c>
+      <c r="G38" t="s">
+        <v>544</v>
+      </c>
+      <c r="H38" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>28697278</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>546</v>
+      </c>
+      <c r="G39" t="s">
+        <v>539</v>
+      </c>
+      <c r="H39" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>28697289</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>490</v>
+      </c>
+      <c r="H40" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>28697338</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>547</v>
+      </c>
+      <c r="G41" t="s">
+        <v>512</v>
+      </c>
+      <c r="H41" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>28697340</v>
+      </c>
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>549</v>
+      </c>
+      <c r="G42" t="s">
+        <v>539</v>
+      </c>
+      <c r="H42" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>28697342</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>551</v>
+      </c>
+      <c r="G43" t="s">
+        <v>515</v>
+      </c>
+      <c r="H43" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>28697345</v>
+      </c>
+      <c r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>552</v>
+      </c>
+      <c r="G44" t="s">
+        <v>539</v>
+      </c>
+      <c r="H44" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>28697351</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>554</v>
+      </c>
+      <c r="G45" t="s">
+        <v>539</v>
+      </c>
+      <c r="H45" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>28697355</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>556</v>
+      </c>
+      <c r="G46" t="s">
+        <v>539</v>
+      </c>
+      <c r="H46" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>28697356</v>
+      </c>
+      <c r="C47" t="s">
+        <v>558</v>
+      </c>
+      <c r="D47" t="s">
+        <v>404</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>559</v>
+      </c>
+      <c r="G47" t="s">
+        <v>536</v>
+      </c>
+      <c r="H47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>28697372</v>
+      </c>
+      <c r="C48" t="s">
+        <v>561</v>
+      </c>
+      <c r="D48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>562</v>
+      </c>
+      <c r="G48" t="s">
+        <v>536</v>
+      </c>
+      <c r="H48" t="s">
+        <v>190</v>
+      </c>
+      <c r="I48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>28697371</v>
+      </c>
+      <c r="C49" t="s">
+        <v>563</v>
+      </c>
+      <c r="D49" t="s">
+        <v>404</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>564</v>
+      </c>
+      <c r="G49" t="s">
+        <v>565</v>
+      </c>
+      <c r="H49" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>28697395</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>567</v>
+      </c>
+      <c r="G50" t="s">
+        <v>536</v>
+      </c>
+      <c r="H50" t="s">
+        <v>190</v>
+      </c>
+      <c r="I50" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>28697464</v>
+      </c>
+      <c r="C51" t="s">
+        <v>568</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>569</v>
+      </c>
+      <c r="G51" t="s">
+        <v>522</v>
+      </c>
+      <c r="H51" t="s">
+        <v>190</v>
+      </c>
+      <c r="I51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>28697614</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>570</v>
+      </c>
+      <c r="G52" t="s">
+        <v>536</v>
+      </c>
+      <c r="H52" t="s">
+        <v>190</v>
+      </c>
+      <c r="I52" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>28697789</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>571</v>
+      </c>
+      <c r="G53" t="s">
+        <v>512</v>
+      </c>
+      <c r="H53" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>28697792</v>
+      </c>
+      <c r="C54" t="s">
+        <v>573</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>574</v>
+      </c>
+      <c r="G54" t="s">
+        <v>536</v>
+      </c>
+      <c r="H54" t="s">
+        <v>190</v>
+      </c>
+      <c r="I54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>28697793</v>
+      </c>
+      <c r="C55" t="s">
+        <v>575</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>576</v>
+      </c>
+      <c r="G55" t="s">
+        <v>522</v>
+      </c>
+      <c r="H55" t="s">
+        <v>190</v>
+      </c>
+      <c r="I55" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>28697799</v>
+      </c>
+      <c r="C56" t="s">
+        <v>575</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>578</v>
+      </c>
+      <c r="G56" t="s">
+        <v>579</v>
+      </c>
+      <c r="H56" t="s">
+        <v>190</v>
+      </c>
+      <c r="I56" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>28697800</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>581</v>
+      </c>
+      <c r="G57" t="s">
+        <v>536</v>
+      </c>
+      <c r="H57" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>28697804</v>
+      </c>
+      <c r="C58" t="s">
+        <v>558</v>
+      </c>
+      <c r="D58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>582</v>
+      </c>
+      <c r="G58" t="s">
+        <v>565</v>
+      </c>
+      <c r="H58" t="s">
+        <v>190</v>
+      </c>
+      <c r="I58" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>28697843</v>
+      </c>
+      <c r="C59" t="s">
+        <v>407</v>
+      </c>
+      <c r="D59" t="s">
+        <v>404</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>583</v>
+      </c>
+      <c r="G59" t="s">
+        <v>565</v>
+      </c>
+      <c r="H59" t="s">
+        <v>190</v>
+      </c>
+      <c r="I59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>28697853</v>
+      </c>
+      <c r="C60" t="s">
+        <v>563</v>
+      </c>
+      <c r="D60" t="s">
+        <v>404</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>584</v>
+      </c>
+      <c r="G60" t="s">
+        <v>565</v>
+      </c>
+      <c r="H60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>28697854</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>585</v>
+      </c>
+      <c r="G61" t="s">
+        <v>536</v>
+      </c>
+      <c r="H61" t="s">
+        <v>190</v>
+      </c>
+      <c r="I61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>23963866</v>
+      </c>
+      <c r="C62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>586</v>
+      </c>
+      <c r="G62" t="s">
+        <v>512</v>
+      </c>
+      <c r="H62" t="s">
+        <v>190</v>
+      </c>
+      <c r="I62" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>23965573</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>588</v>
+      </c>
+      <c r="G63" t="s">
+        <v>512</v>
+      </c>
+      <c r="H63" t="s">
+        <v>190</v>
+      </c>
+      <c r="I63" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>28691158</v>
+      </c>
+      <c r="C64" t="s">
+        <v>407</v>
+      </c>
+      <c r="D64" t="s">
+        <v>404</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>590</v>
+      </c>
+      <c r="G64" t="s">
+        <v>591</v>
+      </c>
+      <c r="H64" t="s">
+        <v>190</v>
+      </c>
+      <c r="I64" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>28694605</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>593</v>
+      </c>
+      <c r="G65" t="s">
+        <v>591</v>
+      </c>
+      <c r="H65" t="s">
+        <v>190</v>
+      </c>
+      <c r="I65" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>28692205</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>595</v>
+      </c>
+      <c r="G66" t="s">
+        <v>591</v>
+      </c>
+      <c r="H66" t="s">
+        <v>190</v>
+      </c>
+      <c r="I66" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>28692211</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>597</v>
+      </c>
+      <c r="G67" t="s">
+        <v>591</v>
+      </c>
+      <c r="H67" t="s">
+        <v>190</v>
+      </c>
+      <c r="I67" t="s">
+        <v>598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,13 @@
     <sheet name="30.05.2018" sheetId="4" r:id="rId4"/>
     <sheet name="01.06.2018" sheetId="5" r:id="rId5"/>
     <sheet name="04.06.2018" sheetId="6" r:id="rId6"/>
+    <sheet name="07.06.2018" sheetId="7" r:id="rId7"/>
+    <sheet name="08.06.2018" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.06.2018'!$A$1:$J$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'07.06.2018'!$A$1:$J$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'08.06.2018'!$A$1:$K$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="714">
   <si>
     <t>№</t>
   </si>
@@ -1827,6 +1831,351 @@
   </si>
   <si>
     <t>Как следить за женским здоровьем.</t>
+  </si>
+  <si>
+    <t>June 6, 2018, 5:27 p.m.</t>
+  </si>
+  <si>
+    <t>http://biscont.com.ua/yak-vybraty-tur-na-vesnu/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 12:07 a.m.</t>
+  </si>
+  <si>
+    <t>http://softik.net.ua/yak-vybraty-tur-na-vesnu/</t>
+  </si>
+  <si>
+    <t>http://animan.kiev.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://medical-beauty.org.ua/%d1%8f%d0%ba-%d0%b4%d0%be%d0%b3%d0%bb%d1%8f%d0%b4%d0%b0%d1%82%d0%b8-%d0%b7%d0%b0-%d1%88%d0%ba%d1%96%d1%80%d0%be%d1%8e-%d0%be%d0%b1%d0%bb%d0%b8%d1%87%d1%87%d1%8f-2/</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/yak-vybraty-zhytlo-v-novobudovah-2/</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/vybyrayemo-kvartyru-dlya-sim-yi/</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/vybyrayemo-kvartyru-dlya-sim-yi-2/</t>
+  </si>
+  <si>
+    <t>http://ypag.com.ua/yak-pravilno-pidibrati-konditsioner/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 12:02 a.m.</t>
+  </si>
+  <si>
+    <t>http://dveroman.kiev.ua/yak-pravilno-pidibrati-konditsioner/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 12:03 a.m.</t>
+  </si>
+  <si>
+    <t>http://mip-stroy.com.ua/yak-pravilno-pidibrati-konditsioner/</t>
+  </si>
+  <si>
+    <t>http://medical-beauty.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b7%d1%80%d0%be%d0%b1%d0%b8%d1%82%d0%b8-%d0%bc%d0%b0%d0%ba%d1%96%d1%8f%d0%b6/</t>
+  </si>
+  <si>
+    <t>http://medical-beauty.org.ua/%d1%8f%d0%ba%d0%b8%d0%b9-%d0%b4%d0%be%d0%b3%d0%bb%d1%8f%d0%b4-%d0%bf%d0%be%d1%82%d1%80%d1%96%d0%b1%d0%b5%d0%bd-%d0%b2%d1%96%d1%8f%d0%bc/</t>
+  </si>
+  <si>
+    <t>download.openlib.org.ua</t>
+  </si>
+  <si>
+    <t>http://download.openlib.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b2%d0%b8%d0%b1%d0%b8%d1%80%d0%b0%d1%82%d0%b8-%d1%88%d0%ba%d1%96%d1%80%d1%8f%d0%bd%d1%96-%d0%b2%d0%b8%d1%80%d0%be%d0%b1%d0%b8/</t>
+  </si>
+  <si>
+    <t>http://ekobil.com.ua/z-chogo-pochati-budivnitstvo-zamiskogo-budinku/</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%b1%d1%83%d1%82%d0%b8-%d0%b2-%d0%ba%d1%83%d1%80%d1%81%d1%96-%d0%bf%d0%be%d0%b4%d1%96%d0%b9-2/</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d1%81%d1%82%d0%b5%d0%b6%d0%b8%d1%82%d0%b8-%d0%b7%d0%b0-%d0%b7%d0%b4%d0%be%d1%80%d0%be%d0%b2%d1%8f%d0%bc/</t>
+  </si>
+  <si>
+    <t>http://zenit2.com.ua/yak-patsiyentam-pravilno-pidibrati-liki/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 12:04 a.m.</t>
+  </si>
+  <si>
+    <t>elites-montage.com.ua</t>
+  </si>
+  <si>
+    <t>http://elites-montage.com.ua/yak-pravilno-pidibrati-liki/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 12:06 a.m.</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d0%b2%d0%b8%d0%b1%d0%b8%d1%80%d0%b0%d1%94%d0%bc%d0%be-%d0%bb%d1%8e%d1%81%d1%82%d1%80%d1%83-%d0%b4%d0%bb%d1%8f-%d0%b7%d0%b0%d0%bb%d1%83/</t>
+  </si>
+  <si>
+    <t>http://www.topcatalog.com.ua/yak-pravilno-vibrati-advokata</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-vesty-oblik-vykorystannya-elektroenergiyi/</t>
+  </si>
+  <si>
+    <t>http://medical-beauty.org.ua/%d1%8f%d0%ba%d0%b8%d0%b9-%d1%96%d0%bd%d1%81%d1%82%d1%80%d1%83%d0%bc%d0%b5%d0%bd%d1%82-%d0%b2%d0%b8%d0%ba%d0%be%d1%80%d0%b8%d1%81%d1%82%d0%be%d0%b2%d1%83%d1%94%d1%82%d1%8c%d1%81%d1%8f-%d0%b2-%d0%bc/</t>
+  </si>
+  <si>
+    <t>http://da100let.dn.ua/yake-obladnannya-vikoristovuyetsya-dlya-masazhnogo-kabinetu/</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/yak-vlashtuvaty-den-narodzhennya-v-ofisi-2/</t>
+  </si>
+  <si>
+    <t>http://biscont.com.ua/yak-prykrasyty-tort-na-svyato/</t>
+  </si>
+  <si>
+    <t>http://opalkova.com.ua/yak-vlashtuvaty-den-narodzhennya-v-ofisi/</t>
+  </si>
+  <si>
+    <t>http://hdtv.net.ua/yak-prikrasiti-tort-na-svyato/</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-prykrasyty-tort-na-svyato/</t>
+  </si>
+  <si>
+    <t>http://betar.org.ua/yak-prykrasyty-tort-na-svyato/</t>
+  </si>
+  <si>
+    <t>http://buyheavenlyspot.com.ua/yak-prykrasyty-tort-na-svyato/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 12:01 a.m.</t>
+  </si>
+  <si>
+    <t>http://patriarh.in.ua/yak-vlashtuvati-svyato/</t>
+  </si>
+  <si>
+    <t>http://cugp.com.ua/yak-vlashtuvati-den-narodzhennya-v-ofisi/</t>
+  </si>
+  <si>
+    <t>linuxsam.org.ua</t>
+  </si>
+  <si>
+    <t>http://linuxsam.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b8%d0%ba%d1%80%d0%b0%d1%81%d0%b8%d1%82%d0%b8-%d1%82%d0%be%d1%80%d1%82-%d0%bd%d0%b0-%d1%81%d0%b2%d1%8f%d1%82%d0%be/</t>
+  </si>
+  <si>
+    <t>http://web-stroy.kharkov.ua/yak-prikrasiti-tort-na-svyato/</t>
+  </si>
+  <si>
+    <t>http://catalog-security.com.ua/yak-prikrasiti-tort-na-svyato/</t>
+  </si>
+  <si>
+    <t>http://tren.com.ua/yak-prikrasiti-tort-na-svyato/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 12:05 a.m.</t>
+  </si>
+  <si>
+    <t>http://feyhoa.org.ua/yak-spekti-garnij-tort/</t>
+  </si>
+  <si>
+    <t>http://programer.org.ua/yak-vlashtuvati-svyato/</t>
+  </si>
+  <si>
+    <t>http://yavtanke.org.ua/yak-prikrasiti-tort-na-svyato/</t>
+  </si>
+  <si>
+    <t>http://blackmetal.kiev.ua/yak-vybraty-garyachi-tury/</t>
+  </si>
+  <si>
+    <t>http://darkbluecat.net.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://patriarh.in.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://e-putivka.com.ua/yak-vibrati-garyachi-turi-2/</t>
+  </si>
+  <si>
+    <t>http://fbk.org.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://hodos.kharkov.ua/yak-vybraty-garyachi-tury-2/</t>
+  </si>
+  <si>
+    <t>http://mip-stroy.com.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/yak-vybraty-garyachi-tury/</t>
+  </si>
+  <si>
+    <t>http://oscar.donetsk.ua/yak-vibrati-garyachi-turi-2/</t>
+  </si>
+  <si>
+    <t>http://pravdu.com.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://web-city.org.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://zenit2.com.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://turtrans.net.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://tren.com.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://softik.net.ua/yak-vybraty-garyachi-tury/</t>
+  </si>
+  <si>
+    <t>http://slonoff.net.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://slaidik.com.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://shiva.net.ua/yak-vibrati-garyachi-turi/</t>
+  </si>
+  <si>
+    <t>http://umapalata.zp.ua/yak-pravilno-provoditi-dresiruvannya-sobak/</t>
+  </si>
+  <si>
+    <t>http://zvonkov.net.ua/yak-pravilno-provoditi-dresiruvannya-sobak/</t>
+  </si>
+  <si>
+    <t>http://buyheavenlyspot.com.ua/yak-provodytsya-hreshhennya-dytyny/</t>
+  </si>
+  <si>
+    <t>http://medical-beauty.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b7%d1%80%d0%be%d0%b1%d0%b8%d1%82%d0%b8-%d0%bc%d0%b0%d0%ba%d1%96%d1%8f%d0%b6-2/</t>
+  </si>
+  <si>
+    <t>http://tropic.od.ua/yak-doglyadati-za-gruntom-na-kvitnikah/</t>
+  </si>
+  <si>
+    <t>http://estdomain.com.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b8%d0%ba%d1%80%d0%b0%d1%81%d0%b8%d1%82%d0%b8-%d0%bb%d0%b0%d0%bd%d0%b4%d1%88%d0%b0%d1%84%d1%82-%d0%bd%d0%b0-%d0%b4%d0%b0%d1%87%d0%bd%d1%96%d0%b9-%d0%b4%d1%96%d0%bb%d1%8f/</t>
+  </si>
+  <si>
+    <t>http://telopa.com.ua/yak-pravylno-vybraty-elitni-godynnyky/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-pravylno-vybraty-elitni-godynnyky/</t>
+  </si>
+  <si>
+    <t>http://telopa.com.ua/yak-polipshyty-robotu-viddilu-prodazhiv/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 11:46 a.m.</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/yak-polipshyty-robotu-viddilu-prodazhiv/</t>
+  </si>
+  <si>
+    <t>http://linuxsam.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b7%d0%b0%d0%ba%d1%80%d1%96%d0%bf%d0%b8%d1%82%d0%b8-%d0%b2%d0%b0%d0%bd%d1%82%d0%b0%d0%b6/</t>
+  </si>
+  <si>
+    <t>http://opalkova.com.ua/de-zastosovuyutsya-ushhilnyuvalni-kiltsya/</t>
+  </si>
+  <si>
+    <t>http://ndua.org.ua/yak-staty-investorom/</t>
+  </si>
+  <si>
+    <t>http://mip-stroy.com.ua/yak-vlashtuvati-den-narodzhennya-v-ofisi-2/</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/yak-vlashtuvaty-den-narodzhennya-v-ofisi/</t>
+  </si>
+  <si>
+    <t>http://betar.org.ua/yak-vlashtuvaty-den-narodzhennya-v-ofisi/</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-vlashtuvaty-den-narodzhennya-v-ofisi/</t>
+  </si>
+  <si>
+    <t>Не поддерживается публикация</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 2:22 p.m.</t>
+  </si>
+  <si>
+    <t>http://buyheavenlyspot.com.ua/yak-pravylno-vybraty-smartfon/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 4:40 p.m.</t>
+  </si>
+  <si>
+    <t>http://pifagor.kiev.ua/yak-pravilno-vibrati-smartfon/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 4:42 p.m.</t>
+  </si>
+  <si>
+    <t>http://ukravtomobil.if.ua/yak-nedorogo-proyihati-ves-svit/</t>
+  </si>
+  <si>
+    <t>http://ukravtomobil.if.ua/yak-pravilno-vzyati-kredit/</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%be%d1%80%d0%b3%d0%b0%d0%bd%d1%96%d0%b7%d1%83%d0%b2%d0%b0%d1%82%d0%b8-%d1%83%d1%80%d0%be%d1%87%d0%b8%d1%81%d1%82%d0%b8%d0%b9-%d0%b7%d0%b0%d1%85%d1%96%d0%b4/</t>
+  </si>
+  <si>
+    <t>fuck-hack.com</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 3:20 p.m.</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/yak-vybraty-horoshu-kvartyru/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 4:41 p.m.</t>
+  </si>
+  <si>
+    <t>http://openlib.org.ua/yak-vikonati-prosuvannya-sajtu/</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/yak-vybraty-kvartyru-v-novobudovi-2/</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-pidibraty-kondytsioner-2/</t>
+  </si>
+  <si>
+    <t>http://seocoding.ru/yak-stvoriti-svij-sajt/</t>
+  </si>
+  <si>
+    <t>http://seoclan.ru/yak-stvoriti-sajt-dlya-svogo-biznesu</t>
+  </si>
+  <si>
+    <t>http://kpln.com.ua/yak-pravylno-vybraty-advokata/</t>
+  </si>
+  <si>
+    <t>http://freya.kiev.ua/yak-polipshyty-seksualni-vidnosyny</t>
+  </si>
+  <si>
+    <t>http://tropic.od.ua/yak-ukarasit-landshaft-zamiskogo-budinku/</t>
+  </si>
+  <si>
+    <t>http://estdomain.com.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b8%d0%ba%d1%80%d0%b0%d1%81%d0%b8%d1%82%d0%b8-%d0%bb%d0%b0%d0%bd%d0%b4%d1%88%d0%b0%d1%84%d1%82-%d0%bd%d0%b0-%d0%b4%d0%b0%d1%87%d0%bd%d1%96%d0%b9-%d0%b4%d1%96%d0%bb%d1%8f-2/</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/yak-stvoryty-domen-dlya-sajtu/</t>
+  </si>
+  <si>
+    <t>http://bf3.com.ua/osnovni-vyroby-metaloprokatnogo-vyrobnytstva/</t>
+  </si>
+  <si>
+    <t>http://blackmetal.kiev.ua/osnovni-vyroby-metaloprokatnogo-vyrobnytstva/</t>
+  </si>
+  <si>
+    <t>June 8, 2018, 4:53 p.m.</t>
+  </si>
+  <si>
+    <t>http://euro-m.kharkov.ua/yak-prikrasiti-inter-yer/</t>
+  </si>
+  <si>
+    <t>Нужна дорабка</t>
+  </si>
+  <si>
+    <t>Блокируется публикация Маккафи</t>
   </si>
 </sst>
 </file>
@@ -11216,8 +11565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13179,4 +13528,3290 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>23948889</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>23948893</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G3" t="s">
+        <v>601</v>
+      </c>
+      <c r="H3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>23954892</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>23966356</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>608</v>
+      </c>
+      <c r="G5" t="s">
+        <v>609</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>23969778</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>627</v>
+      </c>
+      <c r="G6" t="s">
+        <v>609</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>23970462</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G7" t="s">
+        <v>599</v>
+      </c>
+      <c r="H7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>23970492</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>631</v>
+      </c>
+      <c r="G8" t="s">
+        <v>609</v>
+      </c>
+      <c r="H8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>23970502</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>632</v>
+      </c>
+      <c r="G9" t="s">
+        <v>599</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>23970505</v>
+      </c>
+      <c r="C10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>633</v>
+      </c>
+      <c r="G10" t="s">
+        <v>609</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>23970507</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>634</v>
+      </c>
+      <c r="G11" t="s">
+        <v>609</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>23970521</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>635</v>
+      </c>
+      <c r="G12" t="s">
+        <v>609</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>23970527</v>
+      </c>
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>638</v>
+      </c>
+      <c r="G13" t="s">
+        <v>637</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>23970529</v>
+      </c>
+      <c r="C14" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>636</v>
+      </c>
+      <c r="G14" t="s">
+        <v>637</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>23970534</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>639</v>
+      </c>
+      <c r="G15" t="s">
+        <v>599</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>23970537</v>
+      </c>
+      <c r="C16" t="s">
+        <v>640</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>641</v>
+      </c>
+      <c r="G16" t="s">
+        <v>637</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>23970539</v>
+      </c>
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>642</v>
+      </c>
+      <c r="G17" t="s">
+        <v>637</v>
+      </c>
+      <c r="H17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>23970947</v>
+      </c>
+      <c r="C18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>669</v>
+      </c>
+      <c r="G18" t="s">
+        <v>637</v>
+      </c>
+      <c r="H18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>23971205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>673</v>
+      </c>
+      <c r="G19" t="s">
+        <v>609</v>
+      </c>
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>23971206</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>674</v>
+      </c>
+      <c r="G20" t="s">
+        <v>609</v>
+      </c>
+      <c r="H20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>23971233</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>675</v>
+      </c>
+      <c r="G21" t="s">
+        <v>676</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>23971234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>677</v>
+      </c>
+      <c r="G22" t="s">
+        <v>609</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>23971327</v>
+      </c>
+      <c r="C23" t="s">
+        <v>640</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>678</v>
+      </c>
+      <c r="G23" t="s">
+        <v>599</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23971904</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>679</v>
+      </c>
+      <c r="G24" t="s">
+        <v>609</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>23972739</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>681</v>
+      </c>
+      <c r="G25" t="s">
+        <v>599</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>23972743</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>682</v>
+      </c>
+      <c r="G26" t="s">
+        <v>599</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>23972774</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>683</v>
+      </c>
+      <c r="G27" t="s">
+        <v>599</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>23972777</v>
+      </c>
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>684</v>
+      </c>
+      <c r="G28" t="s">
+        <v>599</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28697464</v>
+      </c>
+      <c r="C29" t="s">
+        <v>568</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>599</v>
+      </c>
+      <c r="H29" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>28698029</v>
+      </c>
+      <c r="C30" t="s">
+        <v>491</v>
+      </c>
+      <c r="D30" t="s">
+        <v>404</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>599</v>
+      </c>
+      <c r="H30" t="s">
+        <v>228</v>
+      </c>
+      <c r="I30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>28698276</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>604</v>
+      </c>
+      <c r="G31" t="s">
+        <v>599</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>28698393</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>599</v>
+      </c>
+      <c r="H32" t="s">
+        <v>228</v>
+      </c>
+      <c r="I32" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>28698521</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>599</v>
+      </c>
+      <c r="H33" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>28698620</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>599</v>
+      </c>
+      <c r="H34" t="s">
+        <v>228</v>
+      </c>
+      <c r="I34" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>28698634</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>605</v>
+      </c>
+      <c r="G35" t="s">
+        <v>599</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>28698646</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>599</v>
+      </c>
+      <c r="H36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>28698669</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>606</v>
+      </c>
+      <c r="G37" t="s">
+        <v>599</v>
+      </c>
+      <c r="H37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>28698689</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>599</v>
+      </c>
+      <c r="H38" t="s">
+        <v>228</v>
+      </c>
+      <c r="I38" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>28698704</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>607</v>
+      </c>
+      <c r="G39" t="s">
+        <v>599</v>
+      </c>
+      <c r="H39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>28698711</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>599</v>
+      </c>
+      <c r="H40" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>28698770</v>
+      </c>
+      <c r="C41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>612</v>
+      </c>
+      <c r="G41" t="s">
+        <v>611</v>
+      </c>
+      <c r="H41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>28698773</v>
+      </c>
+      <c r="C42" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>610</v>
+      </c>
+      <c r="G42" t="s">
+        <v>611</v>
+      </c>
+      <c r="H42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>28698774</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>613</v>
+      </c>
+      <c r="G43" t="s">
+        <v>599</v>
+      </c>
+      <c r="H43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>28698775</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>614</v>
+      </c>
+      <c r="G44" t="s">
+        <v>609</v>
+      </c>
+      <c r="H44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>28699177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>615</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>616</v>
+      </c>
+      <c r="G45" t="s">
+        <v>599</v>
+      </c>
+      <c r="H45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>28699353</v>
+      </c>
+      <c r="C46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>617</v>
+      </c>
+      <c r="G46" t="s">
+        <v>599</v>
+      </c>
+      <c r="H46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>28699533</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>618</v>
+      </c>
+      <c r="G47" t="s">
+        <v>599</v>
+      </c>
+      <c r="H47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>28699534</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>619</v>
+      </c>
+      <c r="G48" t="s">
+        <v>599</v>
+      </c>
+      <c r="H48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>28699535</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>620</v>
+      </c>
+      <c r="G49" t="s">
+        <v>621</v>
+      </c>
+      <c r="H49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>28699537</v>
+      </c>
+      <c r="C50" t="s">
+        <v>622</v>
+      </c>
+      <c r="D50" t="s">
+        <v>404</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>623</v>
+      </c>
+      <c r="G50" t="s">
+        <v>624</v>
+      </c>
+      <c r="H50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>28699686</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>625</v>
+      </c>
+      <c r="G51" t="s">
+        <v>611</v>
+      </c>
+      <c r="H51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>28699897</v>
+      </c>
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>626</v>
+      </c>
+      <c r="G52" t="s">
+        <v>599</v>
+      </c>
+      <c r="H52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>28699994</v>
+      </c>
+      <c r="C53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>629</v>
+      </c>
+      <c r="G53" t="s">
+        <v>611</v>
+      </c>
+      <c r="H53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>28699995</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>628</v>
+      </c>
+      <c r="G54" t="s">
+        <v>611</v>
+      </c>
+      <c r="H54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>28700367</v>
+      </c>
+      <c r="C55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>643</v>
+      </c>
+      <c r="G55" t="s">
+        <v>621</v>
+      </c>
+      <c r="H55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>28700368</v>
+      </c>
+      <c r="C56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>644</v>
+      </c>
+      <c r="G56" t="s">
+        <v>645</v>
+      </c>
+      <c r="H56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>28700370</v>
+      </c>
+      <c r="C57" t="s">
+        <v>416</v>
+      </c>
+      <c r="D57" t="s">
+        <v>404</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>646</v>
+      </c>
+      <c r="G57" t="s">
+        <v>624</v>
+      </c>
+      <c r="H57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>28700372</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>647</v>
+      </c>
+      <c r="G58" t="s">
+        <v>645</v>
+      </c>
+      <c r="H58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>28700373</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>648</v>
+      </c>
+      <c r="G59" t="s">
+        <v>645</v>
+      </c>
+      <c r="H59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>28700384</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>649</v>
+      </c>
+      <c r="G60" t="s">
+        <v>599</v>
+      </c>
+      <c r="H60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>28700385</v>
+      </c>
+      <c r="C61" t="s">
+        <v>561</v>
+      </c>
+      <c r="D61" t="s">
+        <v>404</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>650</v>
+      </c>
+      <c r="G61" t="s">
+        <v>645</v>
+      </c>
+      <c r="H61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>28700387</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>652</v>
+      </c>
+      <c r="G62" t="s">
+        <v>599</v>
+      </c>
+      <c r="H62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>28700388</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>653</v>
+      </c>
+      <c r="G63" t="s">
+        <v>599</v>
+      </c>
+      <c r="H63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>28700389</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>654</v>
+      </c>
+      <c r="G64" t="s">
+        <v>599</v>
+      </c>
+      <c r="H64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>28700391</v>
+      </c>
+      <c r="C65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>655</v>
+      </c>
+      <c r="G65" t="s">
+        <v>599</v>
+      </c>
+      <c r="H65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>28700392</v>
+      </c>
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>656</v>
+      </c>
+      <c r="G66" t="s">
+        <v>599</v>
+      </c>
+      <c r="H66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>28700393</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>657</v>
+      </c>
+      <c r="G67" t="s">
+        <v>599</v>
+      </c>
+      <c r="H67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>28700395</v>
+      </c>
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>651</v>
+      </c>
+      <c r="G68" t="s">
+        <v>599</v>
+      </c>
+      <c r="H68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>28700397</v>
+      </c>
+      <c r="C69" t="s">
+        <v>409</v>
+      </c>
+      <c r="D69" t="s">
+        <v>404</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>658</v>
+      </c>
+      <c r="G69" t="s">
+        <v>645</v>
+      </c>
+      <c r="H69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>28700399</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>666</v>
+      </c>
+      <c r="G70" t="s">
+        <v>599</v>
+      </c>
+      <c r="H70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>28700400</v>
+      </c>
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>665</v>
+      </c>
+      <c r="G71" t="s">
+        <v>599</v>
+      </c>
+      <c r="H71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>28700401</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>664</v>
+      </c>
+      <c r="G72" t="s">
+        <v>599</v>
+      </c>
+      <c r="H72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>28700402</v>
+      </c>
+      <c r="C73" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>663</v>
+      </c>
+      <c r="G73" t="s">
+        <v>599</v>
+      </c>
+      <c r="H73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>28700403</v>
+      </c>
+      <c r="C74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>662</v>
+      </c>
+      <c r="G74" t="s">
+        <v>599</v>
+      </c>
+      <c r="H74" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>28700404</v>
+      </c>
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>661</v>
+      </c>
+      <c r="G75" t="s">
+        <v>599</v>
+      </c>
+      <c r="H75" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>28700406</v>
+      </c>
+      <c r="C76" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>659</v>
+      </c>
+      <c r="G76" t="s">
+        <v>599</v>
+      </c>
+      <c r="H76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>28700407</v>
+      </c>
+      <c r="C77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>660</v>
+      </c>
+      <c r="G77" t="s">
+        <v>599</v>
+      </c>
+      <c r="H77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>28700418</v>
+      </c>
+      <c r="C78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>667</v>
+      </c>
+      <c r="G78" t="s">
+        <v>599</v>
+      </c>
+      <c r="H78" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>28700422</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>668</v>
+      </c>
+      <c r="G79" t="s">
+        <v>599</v>
+      </c>
+      <c r="H79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>28700452</v>
+      </c>
+      <c r="C80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>670</v>
+      </c>
+      <c r="G80" t="s">
+        <v>599</v>
+      </c>
+      <c r="H80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>28700465</v>
+      </c>
+      <c r="C81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>671</v>
+      </c>
+      <c r="G81" t="s">
+        <v>611</v>
+      </c>
+      <c r="H81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>28700466</v>
+      </c>
+      <c r="C82" t="s">
+        <v>403</v>
+      </c>
+      <c r="D82" t="s">
+        <v>404</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>672</v>
+      </c>
+      <c r="G82" t="s">
+        <v>645</v>
+      </c>
+      <c r="H82" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>28700766</v>
+      </c>
+      <c r="C83" t="s">
+        <v>460</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>680</v>
+      </c>
+      <c r="G83" t="s">
+        <v>599</v>
+      </c>
+      <c r="H83" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:I98">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>23928873</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>686</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>28698029</v>
+      </c>
+      <c r="C3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>686</v>
+      </c>
+      <c r="H3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>28698393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>686</v>
+      </c>
+      <c r="H4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>28698521</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>686</v>
+      </c>
+      <c r="H5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>28698620</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>686</v>
+      </c>
+      <c r="H6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>28698646</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>686</v>
+      </c>
+      <c r="H7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>28698689</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>686</v>
+      </c>
+      <c r="H8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>28698711</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>686</v>
+      </c>
+      <c r="H9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>28700395</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>686</v>
+      </c>
+      <c r="H10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>28700402</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>686</v>
+      </c>
+      <c r="H11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>28700403</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>686</v>
+      </c>
+      <c r="H12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>28700921</v>
+      </c>
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>686</v>
+      </c>
+      <c r="H13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>28701046</v>
+      </c>
+      <c r="C14" t="s">
+        <v>495</v>
+      </c>
+      <c r="D14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>686</v>
+      </c>
+      <c r="H14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>28701610</v>
+      </c>
+      <c r="C15" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>686</v>
+      </c>
+      <c r="H15" t="s">
+        <v>228</v>
+      </c>
+      <c r="I15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>28702590</v>
+      </c>
+      <c r="C16" t="s">
+        <v>491</v>
+      </c>
+      <c r="D16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>686</v>
+      </c>
+      <c r="H16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>28702762</v>
+      </c>
+      <c r="C17" t="s">
+        <v>491</v>
+      </c>
+      <c r="D17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>686</v>
+      </c>
+      <c r="H17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>28702855</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>686</v>
+      </c>
+      <c r="H18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>23981463</v>
+      </c>
+      <c r="C19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>687</v>
+      </c>
+      <c r="G19" t="s">
+        <v>688</v>
+      </c>
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>28702969</v>
+      </c>
+      <c r="C20" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" t="s">
+        <v>404</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>689</v>
+      </c>
+      <c r="G20" t="s">
+        <v>690</v>
+      </c>
+      <c r="H20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>23981696</v>
+      </c>
+      <c r="C21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>691</v>
+      </c>
+      <c r="G21" t="s">
+        <v>688</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>23981740</v>
+      </c>
+      <c r="C22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>692</v>
+      </c>
+      <c r="G22" t="s">
+        <v>688</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>23981897</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>693</v>
+      </c>
+      <c r="G23" t="s">
+        <v>688</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>23982073</v>
+      </c>
+      <c r="C24" t="s">
+        <v>694</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>695</v>
+      </c>
+      <c r="H24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>28703227</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>696</v>
+      </c>
+      <c r="G25" t="s">
+        <v>697</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>28703236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>698</v>
+      </c>
+      <c r="G26" t="s">
+        <v>697</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>28703260</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>699</v>
+      </c>
+      <c r="G27" t="s">
+        <v>697</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>23982714</v>
+      </c>
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>700</v>
+      </c>
+      <c r="G28" t="s">
+        <v>688</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>28703521</v>
+      </c>
+      <c r="C29" t="s">
+        <v>448</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>701</v>
+      </c>
+      <c r="G29" t="s">
+        <v>697</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>28703662</v>
+      </c>
+      <c r="C30" t="s">
+        <v>568</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>702</v>
+      </c>
+      <c r="G30" t="s">
+        <v>697</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>23983616</v>
+      </c>
+      <c r="C31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>703</v>
+      </c>
+      <c r="G31" t="s">
+        <v>688</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>28703746</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>704</v>
+      </c>
+      <c r="G32" t="s">
+        <v>697</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>28703800</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>705</v>
+      </c>
+      <c r="G33" t="s">
+        <v>697</v>
+      </c>
+      <c r="H33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>28703833</v>
+      </c>
+      <c r="C34" t="s">
+        <v>403</v>
+      </c>
+      <c r="D34" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>706</v>
+      </c>
+      <c r="G34" t="s">
+        <v>697</v>
+      </c>
+      <c r="H34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>23983933</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>707</v>
+      </c>
+      <c r="G35" t="s">
+        <v>688</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>28704265</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>708</v>
+      </c>
+      <c r="G36" t="s">
+        <v>697</v>
+      </c>
+      <c r="H36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>28704266</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>709</v>
+      </c>
+      <c r="G37" t="s">
+        <v>710</v>
+      </c>
+      <c r="H37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>23985632</v>
+      </c>
+      <c r="C38" t="s">
+        <v>573</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>711</v>
+      </c>
+      <c r="G38" t="s">
+        <v>688</v>
+      </c>
+      <c r="H38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K39"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,15 @@
     <sheet name="04.06.2018" sheetId="6" r:id="rId6"/>
     <sheet name="07.06.2018" sheetId="7" r:id="rId7"/>
     <sheet name="08.06.2018" sheetId="8" r:id="rId8"/>
+    <sheet name="10.06.2018" sheetId="9" r:id="rId9"/>
+    <sheet name="12.06.2018" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.06.2018'!$A$1:$J$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'07.06.2018'!$A$1:$J$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'08.06.2018'!$A$1:$K$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'10.06.2018'!$A$1:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'12.06.2018'!$A$1:$J$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="758">
   <si>
     <t>№</t>
   </si>
@@ -2176,6 +2180,138 @@
   </si>
   <si>
     <t>Блокируется публикация Маккафи</t>
+  </si>
+  <si>
+    <t>http://telopa.com.ua/yak-doglyadaty-za-shkiroyu-oblychchya/</t>
+  </si>
+  <si>
+    <t>June 11, 2018, 4:35 p.m.</t>
+  </si>
+  <si>
+    <t>http://openlib.org.ua/yak-doglyadati-za-shkiroyu-oblichchya/</t>
+  </si>
+  <si>
+    <t>June 11, 2018, 4:31 p.m.</t>
+  </si>
+  <si>
+    <t>http://it-shop.donetsk.ua/yak-vidbuvayetsya-indeksatsiya-sajtiv/</t>
+  </si>
+  <si>
+    <t>June 11, 2018, 4:30 p.m.</t>
+  </si>
+  <si>
+    <t>http://salfetki.org.ua/yak-pravilno-koristuvatisya-kontaktnimi-linzami/</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/vybyrayemo-naruchnyj-godynnyk-6/</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-vesty-oblik-spozhyvannya-energonosiyiv-v-budynku/</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d0%b2%d0%b8%d0%b1%d0%b8%d1%80%d0%b0%d1%94%d0%bc%d0%be-%d0%be%d0%bf%d1%82%d0%b8%d0%ba%d1%83-%d0%b4%d0%bb%d1%8f-%d0%bf%d1%80%d0%be%d1%84%d1%84%d0%b5%d1%81%d0%b8%d0%be%d0%bd%d0%b0%d0%bb%d1%8c%d0%bd/</t>
+  </si>
+  <si>
+    <t>http://browncat.net.ua/yak-vykonuyetsya-otsinka-nadijnosti-kompaniyi/</t>
+  </si>
+  <si>
+    <t>http://ypag.com.ua/yak-vesti-oblik-energonosiyiv-v-budinku/</t>
+  </si>
+  <si>
+    <t>http://cugp.com.ua/yak-vesti-oblik-energonosiyiv-v-budinku/</t>
+  </si>
+  <si>
+    <t>http://lightdesign.od.ua/yak-znajty-nadijnu-robotu-v-interneti/</t>
+  </si>
+  <si>
+    <t>http://patriarh.in.ua/yak-vikonuyetsya-otsinka-nadijnosti-kompaniyi/</t>
+  </si>
+  <si>
+    <t>June 9, 2018, 10:53 p.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2018, 10:52 p.m.</t>
+  </si>
+  <si>
+    <t>Нужна  статья</t>
+  </si>
+  <si>
+    <t>June 11, 2018, 5 p.m.</t>
+  </si>
+  <si>
+    <t>chvv.com.ua</t>
+  </si>
+  <si>
+    <t>June 12, 2018, 1:39 p.m.</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-orgnazovyvaat-vesillya/</t>
+  </si>
+  <si>
+    <t>June 12, 2018, 4:56 p.m.</t>
+  </si>
+  <si>
+    <t>http://gv.org.ua/yaki-virobi-vigotovlyayut-z-metalu/</t>
+  </si>
+  <si>
+    <t>http://hdtv.net.ua/yaki-virobi-vigotovlyayut-z-metalu/</t>
+  </si>
+  <si>
+    <t>msmirnova.ru</t>
+  </si>
+  <si>
+    <t>http://msmirnova.ru/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b4%d0%be%d0%b3%d0%bb%d1%8f%d0%b4%d0%b0%d1%82%d0%b8-%d0%b7%d0%b0-%d0%b4%d0%be%d0%bc%d0%b0%d1%88%d0%bd%d1%96%d0%bc%d0%b8-%d1%83/</t>
+  </si>
+  <si>
+    <t>June 12, 2018, 4:57 p.m.</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%b2%d0%b8%d0%b1%d0%b8%d1%80%d0%b0%d1%82%d0%b8-%d0%ba%d0%b0%d0%bd%d1%86%d1%82%d0%be%d0%b2%d0%b0%d1%80%d0%b8/</t>
+  </si>
+  <si>
+    <t>http://e-putivka.com.ua/z-chogo-pobuduvati-ogorozhu-na-dachnij-dilyantsi/</t>
+  </si>
+  <si>
+    <t>http://ekobil.com.ua/yakoyu-povinna-buti-shodi-v-budinku/</t>
+  </si>
+  <si>
+    <t>http://apples-web.org.ua/yak-vikonati-prosuvannya-sajtu-2/</t>
+  </si>
+  <si>
+    <t>http://yavtanke.org.ua/yak-patsiyentam-pravilno-pidibrati-liki/</t>
+  </si>
+  <si>
+    <t>http://tren.com.ua/yak-pobuduvati-lavku-v-sadu/</t>
+  </si>
+  <si>
+    <t>http://catalog-security.com.ua/yak-pobuduvati-lavku-v-sadu/</t>
+  </si>
+  <si>
+    <t>http://zvonkov.net.ua/yak-pobuduvati-lavku-v-sadu/</t>
+  </si>
+  <si>
+    <t>http://estdomain.com.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b7%d1%80%d0%be%d0%b1%d0%b8%d1%82%d0%b8-%d1%88%d0%b0%d1%88%d0%bb%d0%b8%d0%ba/</t>
+  </si>
+  <si>
+    <t>Блокировка маккафи</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%ba%d1%80%d0%b0%d1%89%d0%b5-%d0%be%d1%84%d0%be%d1%80%d0%bc%d0%b8%d1%82%d0%b8-%d0%b2%d1%96%d0%b7%d0%b8%d1%82%d0%bd%d1%83-%d0%ba%d0%b0%d1%80%d1%82%d0%ba%d1%83/</t>
+  </si>
+  <si>
+    <t>June 12, 2018, 6:02 p.m.</t>
+  </si>
+  <si>
+    <t>Как лучше оформить визитную карту.</t>
+  </si>
+  <si>
+    <t>http://freya.kiev.ua/yak-polipshyty-intymni-stosunky</t>
+  </si>
+  <si>
+    <t>June 12, 2018, 6:01 p.m.</t>
+  </si>
+  <si>
+    <t>Как улучшить интимные отношения.</t>
   </si>
 </sst>
 </file>
@@ -3689,6 +3825,746 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28701046</v>
+      </c>
+      <c r="C2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>732</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28706166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>23992476</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>735</v>
+      </c>
+      <c r="G4" t="s">
+        <v>736</v>
+      </c>
+      <c r="H4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>23991282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>737</v>
+      </c>
+      <c r="G5" t="s">
+        <v>736</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>23991280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>738</v>
+      </c>
+      <c r="G6" t="s">
+        <v>736</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>23990964</v>
+      </c>
+      <c r="C7" t="s">
+        <v>739</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>740</v>
+      </c>
+      <c r="G7" t="s">
+        <v>741</v>
+      </c>
+      <c r="H7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>23988239</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>742</v>
+      </c>
+      <c r="G8" t="s">
+        <v>741</v>
+      </c>
+      <c r="H8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>23991252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>743</v>
+      </c>
+      <c r="G9" t="s">
+        <v>741</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>23991250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>744</v>
+      </c>
+      <c r="G10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>28706344</v>
+      </c>
+      <c r="C11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>745</v>
+      </c>
+      <c r="G11" t="s">
+        <v>741</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>28705703</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>746</v>
+      </c>
+      <c r="G12" t="s">
+        <v>741</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>28706161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>747</v>
+      </c>
+      <c r="G13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>28706162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>748</v>
+      </c>
+      <c r="G14" t="s">
+        <v>741</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>28706164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>749</v>
+      </c>
+      <c r="G15" t="s">
+        <v>741</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>28706165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>750</v>
+      </c>
+      <c r="G16" t="s">
+        <v>741</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>28700395</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>732</v>
+      </c>
+      <c r="H17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>28702855</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>732</v>
+      </c>
+      <c r="H18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>28703436</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>732</v>
+      </c>
+      <c r="H19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>28701610</v>
+      </c>
+      <c r="C20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>732</v>
+      </c>
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>28700402</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>732</v>
+      </c>
+      <c r="H21" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>28700403</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>732</v>
+      </c>
+      <c r="H22" t="s">
+        <v>228</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>28702762</v>
+      </c>
+      <c r="C23" t="s">
+        <v>491</v>
+      </c>
+      <c r="D23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>732</v>
+      </c>
+      <c r="H23" t="s">
+        <v>228</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>28702590</v>
+      </c>
+      <c r="C24" t="s">
+        <v>491</v>
+      </c>
+      <c r="D24" t="s">
+        <v>404</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>732</v>
+      </c>
+      <c r="H24" t="s">
+        <v>228</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>28694828</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>752</v>
+      </c>
+      <c r="G25" t="s">
+        <v>753</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>28703746</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>755</v>
+      </c>
+      <c r="G26" t="s">
+        <v>756</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" t="s">
+        <v>757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
@@ -15748,8 +16624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16811,7 +17687,721 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K39"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28705648</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>714</v>
+      </c>
+      <c r="G2" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>28705645</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G3" t="s">
+        <v>717</v>
+      </c>
+      <c r="H3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>23988980</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>718</v>
+      </c>
+      <c r="G4" t="s">
+        <v>719</v>
+      </c>
+      <c r="H4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>23989347</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G5" t="s">
+        <v>719</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>23986070</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>721</v>
+      </c>
+      <c r="G6" t="s">
+        <v>719</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>23986525</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G7" t="s">
+        <v>719</v>
+      </c>
+      <c r="H7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>23986761</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>723</v>
+      </c>
+      <c r="G8" t="s">
+        <v>719</v>
+      </c>
+      <c r="H8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>23988971</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>724</v>
+      </c>
+      <c r="G9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>23986529</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>725</v>
+      </c>
+      <c r="G10" t="s">
+        <v>719</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>23986567</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>726</v>
+      </c>
+      <c r="G11" t="s">
+        <v>719</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>23988940</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G12" t="s">
+        <v>719</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>23988950</v>
+      </c>
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>728</v>
+      </c>
+      <c r="G13" t="s">
+        <v>719</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>28702590</v>
+      </c>
+      <c r="C14" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>729</v>
+      </c>
+      <c r="H14" t="s">
+        <v>228</v>
+      </c>
+      <c r="I14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>28702762</v>
+      </c>
+      <c r="C15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>729</v>
+      </c>
+      <c r="H15" t="s">
+        <v>228</v>
+      </c>
+      <c r="I15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>28700921</v>
+      </c>
+      <c r="C16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>729</v>
+      </c>
+      <c r="H16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>28700403</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>729</v>
+      </c>
+      <c r="H17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>28700402</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>729</v>
+      </c>
+      <c r="H18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>28701610</v>
+      </c>
+      <c r="C19" t="s">
+        <v>518</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>729</v>
+      </c>
+      <c r="H19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>28703436</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>729</v>
+      </c>
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>28698689</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>729</v>
+      </c>
+      <c r="H21" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>28698711</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>729</v>
+      </c>
+      <c r="H22" t="s">
+        <v>228</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>28702855</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>729</v>
+      </c>
+      <c r="H23" t="s">
+        <v>228</v>
+      </c>
+      <c r="I23" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>28700395</v>
+      </c>
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>729</v>
+      </c>
+      <c r="H24" t="s">
+        <v>228</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>28701046</v>
+      </c>
+      <c r="C25" t="s">
+        <v>495</v>
+      </c>
+      <c r="D25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>730</v>
+      </c>
+      <c r="H25" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="08.06.2018" sheetId="8" r:id="rId8"/>
     <sheet name="10.06.2018" sheetId="9" r:id="rId9"/>
     <sheet name="12.06.2018" sheetId="10" r:id="rId10"/>
+    <sheet name="13.06.2018" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.06.2018'!$A$1:$J$64</definedName>
@@ -24,6 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'08.06.2018'!$A$1:$K$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'10.06.2018'!$A$1:$J$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'12.06.2018'!$A$1:$J$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'13.06.2018'!$A$1:$I$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3986" uniqueCount="801">
   <si>
     <t>№</t>
   </si>
@@ -2312,6 +2314,135 @@
   </si>
   <si>
     <t>Как улучшить интимные отношения.</t>
+  </si>
+  <si>
+    <t>June 13, 2018, 12:53 p.m.</t>
+  </si>
+  <si>
+    <t>amidi.com.ua</t>
+  </si>
+  <si>
+    <t>June 13, 2018, 11:50 p.m.</t>
+  </si>
+  <si>
+    <t>June 13, 2018, 5:58 p.m.</t>
+  </si>
+  <si>
+    <t>June 13, 2018, 11:41 p.m.</t>
+  </si>
+  <si>
+    <t>http://chvv.com.ua/yak-prikrasiti-vhid-do-budinku/</t>
+  </si>
+  <si>
+    <t>June 14, 2018, 11:12 a.m.</t>
+  </si>
+  <si>
+    <t>http://ukravtomobil.if.ua/yak-ubezpechiti-svij-avtomobil/</t>
+  </si>
+  <si>
+    <t>June 14, 2018, 11:13 a.m.</t>
+  </si>
+  <si>
+    <t>http://pifagor.kiev.ua/yak-nedorogo-proyihati-ves-svit/</t>
+  </si>
+  <si>
+    <t>June 14, 2018, 11:14 a.m.</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%b1%d1%8b%d1%81%d1%82%d0%b5%d1%80%d0%b5-%d0%b2%d1%81%d0%b5-%d0%bf%d1%80%d0%be%d0%b4%d0%b0%d1%82%d0%b8-%d1%82%d0%be%d0%b2%d0%b0%d1%80-2/</t>
+  </si>
+  <si>
+    <t>http://bf3.com.ua/yak-vybraty-prystrij-flesh-pam-yati/</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-vybraty-zapam-yatovuyuchyj-prystrij-flesh/</t>
+  </si>
+  <si>
+    <t>June 14, 2018, 12:01 p.m.</t>
+  </si>
+  <si>
+    <t>http://kpln.com.ua/osnovni-sposoby-polipshennya-pam-yati/</t>
+  </si>
+  <si>
+    <t>http://komitet.kiev.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%bf%d1%96%d0%b4%d1%96%d0%b1%d1%80%d0%b0%d1%82%d0%b8-%d0%b7%d0%b0%d0%bf%d1%87%d0%b0%d1%81%d1%82%d0%b8%d0%bd%d0%b8-%d0%b4%d0%bb/</t>
+  </si>
+  <si>
+    <t>http://programer.org.ua/yak-patsiyentam-pravilno-pidibrati-liki/</t>
+  </si>
+  <si>
+    <t>http://tren.com.ua/yak-patsiyentam-pravilno-pidibrati-liki/</t>
+  </si>
+  <si>
+    <t>http://buyheavenlyspot.com.ua/yak-vstanovyty-vytyazhku-na-vyrobnytstvi/</t>
+  </si>
+  <si>
+    <t>odissey.net.ua</t>
+  </si>
+  <si>
+    <t>http://odissey.net.ua/yak-krashhe-pryjmaty-televizijnyj-sygnal/</t>
+  </si>
+  <si>
+    <t>http://betar.org.ua/yak-krashhe-pryjmaty-televizijnyj-sygnal/</t>
+  </si>
+  <si>
+    <t>http://smartx.kiev.ua/de-neobhidno-vikoristovuvati-diplom/</t>
+  </si>
+  <si>
+    <t>http://da100let.dn.ua/yak-rozibratisya-v-sortah-chayu/</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yake-obladnannya-vykorystovuyetsya-dlya-obrobky-metalu/</t>
+  </si>
+  <si>
+    <t>http://e-putivka.com.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://hodos.kharkov.ua/yak-vygidnishe-podorozhuvaty-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://programer.org.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://tropic.od.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://zvonkov.net.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://yoip.com.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://web-city.org.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>June 14, 2018, 11:15 a.m.</t>
+  </si>
+  <si>
+    <t>http://fbk.org.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://zenit2.com.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://estdomain.com.ua/%d1%8f%d0%ba-%d0%b2%d0%b8%d0%b3%d1%96%d0%b4%d0%bd%d1%96%d1%88%d0%b5-%d0%bf%d0%be%d0%b4%d0%be%d1%80%d0%be%d0%b6%d1%83%d0%b2%d0%b0%d1%82%d0%b8-%d0%bf%d0%be-%d1%94%d0%b2%d1%80%d0%be%d0%bf%d1%96/</t>
+  </si>
+  <si>
+    <t>June 14, 2018, 12:18 p.m.</t>
+  </si>
+  <si>
+    <t>http://24zp.org.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://pravdu.com.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://3das.com.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://darkbluecat.net.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>Публикация невозможна</t>
   </si>
 </sst>
 </file>
@@ -3829,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4562,6 +4693,1219 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>28701046</v>
+      </c>
+      <c r="C2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>758</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>28706401</v>
+      </c>
+      <c r="C3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>760</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>28706427</v>
+      </c>
+      <c r="C4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>761</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>28706758</v>
+      </c>
+      <c r="C5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>762</v>
+      </c>
+      <c r="H5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>28706166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G6" t="s">
+        <v>764</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>23993058</v>
+      </c>
+      <c r="C7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>765</v>
+      </c>
+      <c r="G7" t="s">
+        <v>766</v>
+      </c>
+      <c r="H7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>28706734</v>
+      </c>
+      <c r="C8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>767</v>
+      </c>
+      <c r="G8" t="s">
+        <v>768</v>
+      </c>
+      <c r="H8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>23993790</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>769</v>
+      </c>
+      <c r="G9" t="s">
+        <v>766</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>23994402</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>770</v>
+      </c>
+      <c r="G10" t="s">
+        <v>766</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>23994414</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>771</v>
+      </c>
+      <c r="G11" t="s">
+        <v>772</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>28707173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>773</v>
+      </c>
+      <c r="G12" t="s">
+        <v>766</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>23994653</v>
+      </c>
+      <c r="C13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>774</v>
+      </c>
+      <c r="G13" t="s">
+        <v>766</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>28707428</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>775</v>
+      </c>
+      <c r="G14" t="s">
+        <v>772</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>28707429</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>776</v>
+      </c>
+      <c r="G15" t="s">
+        <v>768</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>28707438</v>
+      </c>
+      <c r="C16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>777</v>
+      </c>
+      <c r="G16" t="s">
+        <v>766</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>23995640</v>
+      </c>
+      <c r="C17" t="s">
+        <v>778</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>779</v>
+      </c>
+      <c r="G17" t="s">
+        <v>766</v>
+      </c>
+      <c r="H17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>23995692</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>780</v>
+      </c>
+      <c r="G18" t="s">
+        <v>766</v>
+      </c>
+      <c r="H18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>23996176</v>
+      </c>
+      <c r="C19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>781</v>
+      </c>
+      <c r="G19" t="s">
+        <v>766</v>
+      </c>
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>28707890</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>782</v>
+      </c>
+      <c r="G20" t="s">
+        <v>768</v>
+      </c>
+      <c r="H20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>23998151</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>783</v>
+      </c>
+      <c r="G21" t="s">
+        <v>768</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>28706708</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>784</v>
+      </c>
+      <c r="G22" t="s">
+        <v>768</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>28706709</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>785</v>
+      </c>
+      <c r="G23" t="s">
+        <v>768</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>28706711</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>786</v>
+      </c>
+      <c r="G24" t="s">
+        <v>768</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>28706712</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>787</v>
+      </c>
+      <c r="G25" t="s">
+        <v>768</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>28706713</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>788</v>
+      </c>
+      <c r="G26" t="s">
+        <v>768</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>28706773</v>
+      </c>
+      <c r="C27" t="s">
+        <v>456</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>789</v>
+      </c>
+      <c r="G27" t="s">
+        <v>768</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>28706704</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>790</v>
+      </c>
+      <c r="G28" t="s">
+        <v>791</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>28706694</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>792</v>
+      </c>
+      <c r="G29" t="s">
+        <v>791</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>28706705</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>793</v>
+      </c>
+      <c r="G30" t="s">
+        <v>791</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>28706729</v>
+      </c>
+      <c r="C31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D31" t="s">
+        <v>404</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>794</v>
+      </c>
+      <c r="G31" t="s">
+        <v>795</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>28706706</v>
+      </c>
+      <c r="C32" t="s">
+        <v>563</v>
+      </c>
+      <c r="D32" t="s">
+        <v>404</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>796</v>
+      </c>
+      <c r="G32" t="s">
+        <v>791</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>28706698</v>
+      </c>
+      <c r="C33" t="s">
+        <v>409</v>
+      </c>
+      <c r="D33" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>797</v>
+      </c>
+      <c r="G33" t="s">
+        <v>791</v>
+      </c>
+      <c r="H33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>28706691</v>
+      </c>
+      <c r="C34" t="s">
+        <v>558</v>
+      </c>
+      <c r="D34" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>798</v>
+      </c>
+      <c r="G34" t="s">
+        <v>791</v>
+      </c>
+      <c r="H34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>28706693</v>
+      </c>
+      <c r="C35" t="s">
+        <v>561</v>
+      </c>
+      <c r="D35" t="s">
+        <v>404</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>799</v>
+      </c>
+      <c r="G35" t="s">
+        <v>791</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>28700395</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>758</v>
+      </c>
+      <c r="H36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>28700402</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>758</v>
+      </c>
+      <c r="H37" t="s">
+        <v>228</v>
+      </c>
+      <c r="I37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>28700403</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>758</v>
+      </c>
+      <c r="H38" t="s">
+        <v>228</v>
+      </c>
+      <c r="I38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>28701610</v>
+      </c>
+      <c r="C39" t="s">
+        <v>518</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>758</v>
+      </c>
+      <c r="H39" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>28702590</v>
+      </c>
+      <c r="C40" t="s">
+        <v>491</v>
+      </c>
+      <c r="D40" t="s">
+        <v>404</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>758</v>
+      </c>
+      <c r="H40" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>28702762</v>
+      </c>
+      <c r="C41" t="s">
+        <v>491</v>
+      </c>
+      <c r="D41" t="s">
+        <v>404</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>758</v>
+      </c>
+      <c r="H41" t="s">
+        <v>228</v>
+      </c>
+      <c r="I41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>28702855</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>758</v>
+      </c>
+      <c r="H42" t="s">
+        <v>228</v>
+      </c>
+      <c r="I42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>28703436</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>758</v>
+      </c>
+      <c r="H43" t="s">
+        <v>228</v>
+      </c>
+      <c r="I43" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>28703746</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>758</v>
+      </c>
+      <c r="H44" t="s">
+        <v>228</v>
+      </c>
+      <c r="I44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="10.06.2018" sheetId="9" r:id="rId9"/>
     <sheet name="12.06.2018" sheetId="10" r:id="rId10"/>
     <sheet name="13.06.2018" sheetId="11" r:id="rId11"/>
+    <sheet name="15.06.2018" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.06.2018'!$A$1:$J$64</definedName>
@@ -26,11 +27,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'10.06.2018'!$A$1:$J$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'12.06.2018'!$A$1:$J$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'13.06.2018'!$A$1:$I$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'15.06.2018'!$A$1:$K$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3986" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="847">
   <si>
     <t>№</t>
   </si>
@@ -2443,12 +2445,150 @@
   </si>
   <si>
     <t>Публикация невозможна</t>
+  </si>
+  <si>
+    <t>http://hopka.org.ua/yak-vlashtuvati-den-narodzhennya-v-ofisi/</t>
+  </si>
+  <si>
+    <t>June 16, 2018, 11:24 p.m.</t>
+  </si>
+  <si>
+    <t>June 16, 2018, 11:21 p.m.</t>
+  </si>
+  <si>
+    <t>June 14, 2018, 12:59 p.m.</t>
+  </si>
+  <si>
+    <t>http://foxtrot-auto.com.ua/%d1%8f%d0%ba-%d0%b2%d0%b8%d0%b3%d1%96%d0%b4%d0%bd%d1%96%d1%88%d0%b5-%d0%bf%d0%be%d0%b4%d0%be%d1%80%d0%be%d0%b6%d1%83%d0%b2%d0%b0%d1%82%d0%b8-%d0%bf%d0%be-%d1%94%d0%b2%d1%80%d0%be%d0%bf%d1%96/</t>
+  </si>
+  <si>
+    <t>http://lightdesign.od.ua/osnovni-zahvoryuvannya-pechinky/</t>
+  </si>
+  <si>
+    <t>June 15, 2018, 11:52 a.m.</t>
+  </si>
+  <si>
+    <t>http://smartx.kiev.ua/v-yakih-tsilyah-zastosovuyut-narkotichni-roslini/</t>
+  </si>
+  <si>
+    <t>http://upu.org.ua/%d0%be%d1%81%d0%bd%d0%be%d0%b2%d0%bd%d1%96-%d0%b7%d0%b0%d1%85%d0%b2%d0%be%d1%80%d1%8e%d0%b2%d0%b0%d0%bd%d0%bd%d1%8f-%d0%bf%d0%b5%d1%87%d1%96%d0%bd%d0%ba%d0%b8/</t>
+  </si>
+  <si>
+    <t>http://linq.kiev.ua/yak-pravylno-stezhyty-za-svoyim-zdorov-yam/</t>
+  </si>
+  <si>
+    <t>June 14, 2018, 1 p.m.</t>
+  </si>
+  <si>
+    <t>e-knigka.org.ua</t>
+  </si>
+  <si>
+    <t>http://e-knigka.org.ua/%d1%8f%d0%ba-%d0%b2%d0%b8%d0%b3%d1%96%d0%b4%d0%bd%d1%96%d1%88%d0%b5-%d0%bf%d0%be%d0%b4%d0%be%d1%80%d0%be%d0%b6%d1%83%d0%b2%d0%b0%d1%82%d0%b8-%d0%bf%d0%be-%d1%83%d0%ba%d1%80%d0%b0%d1%97%d0%bd%d1%96/</t>
+  </si>
+  <si>
+    <t>June 16, 2018, 11:18 p.m.</t>
+  </si>
+  <si>
+    <t>http://lightdesign.od.ua/yak-vygidnishe-podorozhuvaty-po-yevropi/</t>
+  </si>
+  <si>
+    <t>June 15, 2018, 11:53 a.m.</t>
+  </si>
+  <si>
+    <t>http://freya.kiev.ua/yak-prykrasyty-spalnyu</t>
+  </si>
+  <si>
+    <t>http://smolianoy.com.ua/%d1%8f%d0%ba-%d0%b2%d0%b8%d0%b3%d1%96%d0%b4%d0%bd%d1%96%d1%88%d0%b5-%d0%bf%d0%be%d0%b4%d0%be%d1%80%d0%be%d0%b6%d1%83%d0%b2%d0%b0%d1%82%d0%b8-%d0%bf%d0%be-%d1%94%d0%b2%d1%80%d0%be%d0%bf%d1%96/</t>
+  </si>
+  <si>
+    <t>http://seocoding.ru/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>frontier.net.ua</t>
+  </si>
+  <si>
+    <t>http://frontier.net.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://ahumor.org.ua/yak-vygidnishe-podorozhuvaty-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://quickest.com.ua/de-zastosovuyutsya-tekstylni-stropy-vantazhni/</t>
+  </si>
+  <si>
+    <t>http://animan.kiev.ua/osnovni-pravili-pri-roboti-zi-stropami/</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%83-%d1%87%d0%be%d0%bc%d1%83-%d0%bf%d0%be%d0%bb%d1%8f%d0%b3%d0%b0%d1%94-%d0%bf%d1%80%d0%be%d1%84%d0%b5%d1%81%d1%96%d1%8f-%d1%81%d1%82%d1%80%d0%be%d0%bf%d0%b0%d0%bb%d1%8c%d0%bd%d0%b8%d0%ba%d0%b0/</t>
+  </si>
+  <si>
+    <t>webcapitalist.ru</t>
+  </si>
+  <si>
+    <t>http://webcapitalist.ru/yak-vikonati-prosuvannya-sajtu</t>
+  </si>
+  <si>
+    <t>http://seovin.ru/yak-vikonati-prosuvannya-sajtu</t>
+  </si>
+  <si>
+    <t>nutscn.com</t>
+  </si>
+  <si>
+    <t>http://nutscn.com/modni-zachiski-tsogo-sezonu/</t>
+  </si>
+  <si>
+    <t>June 15, 2018, 11:54 a.m.</t>
+  </si>
+  <si>
+    <t>http://slonoff.net.ua/u-chomu-polyagaye-profesiya-stropalnika/</t>
+  </si>
+  <si>
+    <t>http://mip-stroy.com.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://slaidik.com.ua/yak-vigidnishe-podorozhuvati-po-ukrayini/</t>
+  </si>
+  <si>
+    <t>http://tren.com.ua/yak-vigidnishe-podorozhuvati-po-yevropi/</t>
+  </si>
+  <si>
+    <t>http://turtrans.net.ua/yak-vigidnishe-podorozhuvati-po-ukrayini/</t>
+  </si>
+  <si>
+    <t>June 16, 2018, 11:27 p.m.</t>
+  </si>
+  <si>
+    <t>http://thetech.com.ua/yak-vigidnishe-podorozhuvati-po-ukrayini/</t>
+  </si>
+  <si>
+    <t>http://bigmoney.kiev.ua/%d1%8f%d0%ba-%d0%b2%d0%b8%d0%b3%d1%96%d0%b4%d0%bd%d1%96%d1%88%d0%b5-%d0%bf%d0%be%d0%b4%d0%be%d1%80%d0%be%d0%b6%d1%83%d0%b2%d0%b0%d1%82%d0%b8-%d0%bf%d0%be-%d1%83%d0%ba%d1%80%d0%b0%d1%97%d0%bd%d1%96/</t>
+  </si>
+  <si>
+    <t>http://valiza-tour.kiev.ua/yak-vigidnishe-podorozhuvati-po-ukrayini/</t>
+  </si>
+  <si>
+    <t>June 16, 2018, 11:19 p.m.</t>
+  </si>
+  <si>
+    <t>http://da100let.dn.ua/modni-zachiski-tsogo-sezonu/</t>
+  </si>
+  <si>
+    <t>http://tropic.od.ua/na-yakomu-mori-krashhe-provesti-vidpustku/</t>
+  </si>
+  <si>
+    <t>http://elites-montage.com.ua/yak-vigidnishe-podorozhuvati-po-ukrayini/</t>
+  </si>
+  <si>
+    <t>http://chvv.com.ua/vikoristovuyemo-tekstil-v-nashomu-domi/</t>
+  </si>
+  <si>
+    <t>Не работает публикация</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2804,20 +2944,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +2986,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2875,7 +3015,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2904,7 +3044,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2933,7 +3073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2962,7 +3102,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2991,7 +3131,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3020,7 +3160,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3049,7 +3189,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3078,7 +3218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3107,7 +3247,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3136,7 +3276,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3165,7 +3305,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3194,7 +3334,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3223,7 +3363,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3252,7 +3392,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3281,7 +3421,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3310,7 +3450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3339,7 +3479,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3368,7 +3508,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3397,7 +3537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3426,7 +3566,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3455,7 +3595,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3484,7 +3624,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3513,7 +3653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3542,7 +3682,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3571,7 +3711,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3600,7 +3740,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3629,7 +3769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3658,7 +3798,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3687,7 +3827,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3716,7 +3856,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3745,7 +3885,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3774,7 +3914,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3803,7 +3943,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3832,7 +3972,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3861,7 +4001,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3890,7 +4030,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3919,7 +4059,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3964,19 +4104,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +4145,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4034,7 +4174,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4063,7 +4203,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4089,7 +4229,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4115,7 +4255,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4141,7 +4281,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4167,7 +4307,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4193,7 +4333,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4219,7 +4359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4245,7 +4385,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4271,7 +4411,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4297,7 +4437,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4323,7 +4463,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4349,7 +4489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4375,7 +4515,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4401,7 +4541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4430,7 +4570,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4459,7 +4599,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4488,7 +4628,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4517,7 +4657,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4546,7 +4686,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4575,7 +4715,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4604,7 +4744,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4633,7 +4773,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4662,7 +4802,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4700,24 +4840,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4746,7 +4886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4775,7 +4915,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -4804,7 +4944,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -4833,7 +4973,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>49</v>
       </c>
@@ -4862,7 +5002,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -4888,7 +5028,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -4914,7 +5054,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -4940,7 +5080,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -4966,7 +5106,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -4992,7 +5132,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -5018,7 +5158,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -5044,7 +5184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -5070,7 +5210,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -5096,7 +5236,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -5122,7 +5262,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -5148,7 +5288,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -5174,7 +5314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
@@ -5200,7 +5340,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -5226,7 +5366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27</v>
       </c>
@@ -5252,7 +5392,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -5278,7 +5418,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>35</v>
       </c>
@@ -5304,7 +5444,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>36</v>
       </c>
@@ -5330,7 +5470,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>37</v>
       </c>
@@ -5356,7 +5496,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>38</v>
       </c>
@@ -5382,7 +5522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>39</v>
       </c>
@@ -5408,7 +5548,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>40</v>
       </c>
@@ -5434,7 +5574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>41</v>
       </c>
@@ -5460,7 +5600,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>42</v>
       </c>
@@ -5486,7 +5626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>43</v>
       </c>
@@ -5512,7 +5652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>44</v>
       </c>
@@ -5538,7 +5678,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>45</v>
       </c>
@@ -5564,7 +5704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>46</v>
       </c>
@@ -5590,7 +5730,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>47</v>
       </c>
@@ -5616,7 +5756,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>48</v>
       </c>
@@ -5642,7 +5782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5671,7 +5811,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -5700,7 +5840,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -5729,7 +5869,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -5758,7 +5898,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -5787,7 +5927,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
@@ -5816,7 +5956,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -5845,7 +5985,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -5874,7 +6014,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
@@ -5906,6 +6046,1186 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28701046</v>
+      </c>
+      <c r="C2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>801</v>
+      </c>
+      <c r="G2" t="s">
+        <v>802</v>
+      </c>
+      <c r="H2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28706401</v>
+      </c>
+      <c r="C3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>28706427</v>
+      </c>
+      <c r="C4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>804</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>28706758</v>
+      </c>
+      <c r="C5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>805</v>
+      </c>
+      <c r="G5" t="s">
+        <v>802</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>23999491</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>806</v>
+      </c>
+      <c r="G6" t="s">
+        <v>807</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>24001736</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>808</v>
+      </c>
+      <c r="G7" t="s">
+        <v>807</v>
+      </c>
+      <c r="H7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>23999492</v>
+      </c>
+      <c r="C8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>809</v>
+      </c>
+      <c r="G8" t="s">
+        <v>807</v>
+      </c>
+      <c r="H8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>23998289</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>810</v>
+      </c>
+      <c r="G9" t="s">
+        <v>807</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>28706764</v>
+      </c>
+      <c r="C10" t="s">
+        <v>812</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>813</v>
+      </c>
+      <c r="G10" t="s">
+        <v>814</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>28706696</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>815</v>
+      </c>
+      <c r="G11" t="s">
+        <v>816</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>28703746</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>811</v>
+      </c>
+      <c r="H12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>28708254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>817</v>
+      </c>
+      <c r="G13" t="s">
+        <v>816</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>28708357</v>
+      </c>
+      <c r="C14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>818</v>
+      </c>
+      <c r="G14" t="s">
+        <v>816</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>28708360</v>
+      </c>
+      <c r="C15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>819</v>
+      </c>
+      <c r="G15" t="s">
+        <v>816</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>28708366</v>
+      </c>
+      <c r="C16" t="s">
+        <v>820</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>821</v>
+      </c>
+      <c r="G16" t="s">
+        <v>816</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>28708367</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>822</v>
+      </c>
+      <c r="G17" t="s">
+        <v>816</v>
+      </c>
+      <c r="H17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>28708517</v>
+      </c>
+      <c r="C18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>823</v>
+      </c>
+      <c r="G18" t="s">
+        <v>814</v>
+      </c>
+      <c r="H18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>28703436</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>811</v>
+      </c>
+      <c r="H19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>28701610</v>
+      </c>
+      <c r="C20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>811</v>
+      </c>
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>28708392</v>
+      </c>
+      <c r="C21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>811</v>
+      </c>
+      <c r="H21" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>28708504</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>824</v>
+      </c>
+      <c r="G22" t="s">
+        <v>816</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>28708510</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>825</v>
+      </c>
+      <c r="G23" t="s">
+        <v>816</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>28708878</v>
+      </c>
+      <c r="C24" t="s">
+        <v>826</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>827</v>
+      </c>
+      <c r="G24" t="s">
+        <v>816</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>28708879</v>
+      </c>
+      <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>828</v>
+      </c>
+      <c r="G25" t="s">
+        <v>816</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>28709013</v>
+      </c>
+      <c r="C26" t="s">
+        <v>829</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>830</v>
+      </c>
+      <c r="G26" t="s">
+        <v>831</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>28709063</v>
+      </c>
+      <c r="C27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>811</v>
+      </c>
+      <c r="H27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>28700402</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>811</v>
+      </c>
+      <c r="H28" t="s">
+        <v>228</v>
+      </c>
+      <c r="I28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>28700403</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>811</v>
+      </c>
+      <c r="H29" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>28708518</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>832</v>
+      </c>
+      <c r="G30" t="s">
+        <v>831</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>28706697</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>833</v>
+      </c>
+      <c r="G31" t="s">
+        <v>802</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>28706700</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>834</v>
+      </c>
+      <c r="G32" t="s">
+        <v>814</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>28706702</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>835</v>
+      </c>
+      <c r="G33" t="s">
+        <v>831</v>
+      </c>
+      <c r="H33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>28706703</v>
+      </c>
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>836</v>
+      </c>
+      <c r="G34" t="s">
+        <v>837</v>
+      </c>
+      <c r="H34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>28708355</v>
+      </c>
+      <c r="C35" t="s">
+        <v>467</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>838</v>
+      </c>
+      <c r="G35" t="s">
+        <v>814</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>28708356</v>
+      </c>
+      <c r="C36" t="s">
+        <v>458</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>839</v>
+      </c>
+      <c r="G36" t="s">
+        <v>814</v>
+      </c>
+      <c r="H36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>28708401</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>840</v>
+      </c>
+      <c r="G37" t="s">
+        <v>841</v>
+      </c>
+      <c r="H37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>28709005</v>
+      </c>
+      <c r="C38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>842</v>
+      </c>
+      <c r="G38" t="s">
+        <v>831</v>
+      </c>
+      <c r="H38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>28709019</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>843</v>
+      </c>
+      <c r="G39" t="s">
+        <v>831</v>
+      </c>
+      <c r="H39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>28702762</v>
+      </c>
+      <c r="C40" t="s">
+        <v>491</v>
+      </c>
+      <c r="D40" t="s">
+        <v>404</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>811</v>
+      </c>
+      <c r="H40" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>28702590</v>
+      </c>
+      <c r="C41" t="s">
+        <v>491</v>
+      </c>
+      <c r="D41" t="s">
+        <v>404</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>811</v>
+      </c>
+      <c r="H41" t="s">
+        <v>228</v>
+      </c>
+      <c r="I41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>28708381</v>
+      </c>
+      <c r="C42" t="s">
+        <v>622</v>
+      </c>
+      <c r="D42" t="s">
+        <v>404</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>844</v>
+      </c>
+      <c r="G42" t="s">
+        <v>841</v>
+      </c>
+      <c r="H42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>28708507</v>
+      </c>
+      <c r="C43" t="s">
+        <v>733</v>
+      </c>
+      <c r="D43" t="s">
+        <v>404</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>845</v>
+      </c>
+      <c r="G43" t="s">
+        <v>802</v>
+      </c>
+      <c r="H43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5917,20 +7237,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5959,7 +7279,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5988,7 +7308,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6017,7 +7337,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6046,7 +7366,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6075,7 +7395,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6104,7 +7424,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6133,7 +7453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6162,7 +7482,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6191,7 +7511,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6220,7 +7540,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6249,7 +7569,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6278,7 +7598,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6307,7 +7627,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6336,7 +7656,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6365,7 +7685,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6394,7 +7714,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6423,7 +7743,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6452,7 +7772,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6481,7 +7801,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6510,7 +7830,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6539,7 +7859,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6568,7 +7888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6597,7 +7917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6626,7 +7946,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6655,7 +7975,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6684,7 +8004,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6713,7 +8033,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6742,7 +8062,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -6771,7 +8091,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -6800,7 +8120,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>34</v>
       </c>
@@ -6829,7 +8149,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>35</v>
       </c>
@@ -6858,7 +8178,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>36</v>
       </c>
@@ -6887,7 +8207,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>37</v>
       </c>
@@ -6916,7 +8236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>38</v>
       </c>
@@ -6945,7 +8265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>39</v>
       </c>
@@ -6974,7 +8294,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>40</v>
       </c>
@@ -7003,7 +8323,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>41</v>
       </c>
@@ -7032,7 +8352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>42</v>
       </c>
@@ -7061,7 +8381,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>43</v>
       </c>
@@ -7090,7 +8410,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>44</v>
       </c>
@@ -7119,7 +8439,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>45</v>
       </c>
@@ -7148,7 +8468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>46</v>
       </c>
@@ -7177,7 +8497,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>47</v>
       </c>
@@ -7206,7 +8526,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>48</v>
       </c>
@@ -7235,7 +8555,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>49</v>
       </c>
@@ -7264,7 +8584,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50</v>
       </c>
@@ -7293,7 +8613,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>51</v>
       </c>
@@ -7322,7 +8642,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>52</v>
       </c>
@@ -7351,7 +8671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>53</v>
       </c>
@@ -7380,7 +8700,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>54</v>
       </c>
@@ -7409,7 +8729,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>55</v>
       </c>
@@ -7438,7 +8758,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>56</v>
       </c>
@@ -7467,7 +8787,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>57</v>
       </c>
@@ -7496,7 +8816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>58</v>
       </c>
@@ -7525,7 +8845,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>59</v>
       </c>
@@ -7554,7 +8874,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>60</v>
       </c>
@@ -7583,7 +8903,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>61</v>
       </c>
@@ -7612,7 +8932,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>62</v>
       </c>
@@ -7641,7 +8961,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>63</v>
       </c>
@@ -7670,7 +8990,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>64</v>
       </c>
@@ -7699,7 +9019,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>65</v>
       </c>
@@ -7728,7 +9048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>66</v>
       </c>
@@ -7757,7 +9077,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>67</v>
       </c>
@@ -7786,7 +9106,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>68</v>
       </c>
@@ -7815,7 +9135,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>69</v>
       </c>
@@ -7844,7 +9164,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>70</v>
       </c>
@@ -7873,7 +9193,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>71</v>
       </c>
@@ -7902,7 +9222,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>72</v>
       </c>
@@ -7931,7 +9251,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>73</v>
       </c>
@@ -7960,7 +9280,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>74</v>
       </c>
@@ -8003,19 +9323,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8044,7 +9364,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8073,7 +9393,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8102,7 +9422,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8131,7 +9451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8160,7 +9480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8189,7 +9509,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8218,7 +9538,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8247,7 +9567,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8276,7 +9596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8305,7 +9625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8334,7 +9654,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8363,7 +9683,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8392,7 +9712,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8421,7 +9741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8450,7 +9770,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8479,7 +9799,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8508,7 +9828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8537,7 +9857,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8566,7 +9886,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8595,7 +9915,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8624,7 +9944,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8653,7 +9973,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8682,7 +10002,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8711,7 +10031,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8740,7 +10060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8769,7 +10089,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8798,7 +10118,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8827,7 +10147,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8856,7 +10176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8885,7 +10205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8914,7 +10234,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8943,7 +10263,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8972,7 +10292,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9001,7 +10321,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9030,7 +10350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9059,7 +10379,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9088,7 +10408,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9117,7 +10437,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9146,7 +10466,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9175,7 +10495,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9204,7 +10524,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9233,7 +10553,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9275,20 +10595,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9317,7 +10637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9346,7 +10666,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9375,7 +10695,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9404,7 +10724,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9433,7 +10753,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9462,7 +10782,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9491,7 +10811,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9520,7 +10840,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9549,7 +10869,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9578,7 +10898,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9607,7 +10927,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9636,7 +10956,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9665,7 +10985,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9694,7 +11014,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9723,7 +11043,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9752,7 +11072,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9781,7 +11101,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9810,7 +11130,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9839,7 +11159,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9868,7 +11188,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9897,7 +11217,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9926,7 +11246,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9955,7 +11275,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9984,7 +11304,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10013,7 +11333,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10042,7 +11362,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10071,7 +11391,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10100,7 +11420,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10129,7 +11449,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10158,7 +11478,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10187,7 +11507,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10216,7 +11536,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10245,7 +11565,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10274,7 +11594,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10303,7 +11623,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10332,7 +11652,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10361,7 +11681,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10390,7 +11710,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10419,7 +11739,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10448,7 +11768,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10477,7 +11797,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10506,7 +11826,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10535,7 +11855,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10564,7 +11884,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10593,7 +11913,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10622,7 +11942,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10651,7 +11971,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10680,7 +12000,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10709,7 +12029,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10738,7 +12058,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10767,7 +12087,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10796,7 +12116,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10825,7 +12145,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10854,7 +12174,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10883,7 +12203,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10912,7 +12232,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10941,7 +12261,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10970,7 +12290,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10999,7 +12319,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11028,7 +12348,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11057,7 +12377,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11086,7 +12406,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11115,7 +12435,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11144,7 +12464,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11173,7 +12493,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11202,7 +12522,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11231,7 +12551,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11260,7 +12580,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11289,7 +12609,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11318,7 +12638,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11347,7 +12667,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11376,7 +12696,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11405,7 +12725,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11434,7 +12754,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -11463,7 +12783,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -11492,7 +12812,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -11521,7 +12841,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -11550,7 +12870,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -11579,7 +12899,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -11608,7 +12928,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -11637,7 +12957,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -11666,7 +12986,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -11695,7 +13015,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -11724,7 +13044,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -11753,7 +13073,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -11782,7 +13102,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -11811,7 +13131,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -11840,7 +13160,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -11869,7 +13189,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -11898,7 +13218,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -11927,7 +13247,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -11970,20 +13290,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12012,7 +13332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
@@ -12041,7 +13361,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>77</v>
       </c>
@@ -12070,7 +13390,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>79</v>
       </c>
@@ -12099,7 +13419,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>94</v>
       </c>
@@ -12128,7 +13448,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -12157,7 +13477,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>35</v>
       </c>
@@ -12186,7 +13506,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -12215,7 +13535,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -12241,7 +13561,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -12267,7 +13587,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -12293,7 +13613,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33</v>
       </c>
@@ -12319,7 +13639,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>47</v>
       </c>
@@ -12345,7 +13665,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
@@ -12371,7 +13691,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>52</v>
       </c>
@@ -12397,7 +13717,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>40</v>
       </c>
@@ -12423,7 +13743,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>45</v>
       </c>
@@ -12449,7 +13769,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>46</v>
       </c>
@@ -12475,7 +13795,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>48</v>
       </c>
@@ -12501,7 +13821,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>49</v>
       </c>
@@ -12527,7 +13847,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>80</v>
       </c>
@@ -12553,7 +13873,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>98</v>
       </c>
@@ -12579,7 +13899,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>36</v>
       </c>
@@ -12605,7 +13925,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>39</v>
       </c>
@@ -12631,7 +13951,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>60</v>
       </c>
@@ -12657,7 +13977,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>66</v>
       </c>
@@ -12683,7 +14003,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>68</v>
       </c>
@@ -12709,7 +14029,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>69</v>
       </c>
@@ -12735,7 +14055,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>70</v>
       </c>
@@ -12761,7 +14081,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>73</v>
       </c>
@@ -12787,7 +14107,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>74</v>
       </c>
@@ -12813,7 +14133,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>75</v>
       </c>
@@ -12839,7 +14159,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>76</v>
       </c>
@@ -12865,7 +14185,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>78</v>
       </c>
@@ -12891,7 +14211,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>82</v>
       </c>
@@ -12917,7 +14237,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>95</v>
       </c>
@@ -12943,7 +14263,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>96</v>
       </c>
@@ -12969,7 +14289,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>99</v>
       </c>
@@ -12995,7 +14315,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -13021,7 +14341,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>42</v>
       </c>
@@ -13047,7 +14367,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>43</v>
       </c>
@@ -13073,7 +14393,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>53</v>
       </c>
@@ -13099,7 +14419,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>54</v>
       </c>
@@ -13125,7 +14445,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>55</v>
       </c>
@@ -13151,7 +14471,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>56</v>
       </c>
@@ -13177,7 +14497,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>57</v>
       </c>
@@ -13203,7 +14523,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>58</v>
       </c>
@@ -13229,7 +14549,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>61</v>
       </c>
@@ -13255,7 +14575,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>62</v>
       </c>
@@ -13281,7 +14601,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>63</v>
       </c>
@@ -13307,7 +14627,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>64</v>
       </c>
@@ -13333,7 +14653,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>65</v>
       </c>
@@ -13359,7 +14679,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>67</v>
       </c>
@@ -13385,7 +14705,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71</v>
       </c>
@@ -13411,7 +14731,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>72</v>
       </c>
@@ -13437,7 +14757,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>81</v>
       </c>
@@ -13463,7 +14783,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>83</v>
       </c>
@@ -13489,7 +14809,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>84</v>
       </c>
@@ -13515,7 +14835,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>85</v>
       </c>
@@ -13541,7 +14861,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>86</v>
       </c>
@@ -13567,7 +14887,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>87</v>
       </c>
@@ -13593,7 +14913,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>88</v>
       </c>
@@ -13619,7 +14939,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>89</v>
       </c>
@@ -13645,7 +14965,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>90</v>
       </c>
@@ -13671,7 +14991,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>91</v>
       </c>
@@ -13697,7 +15017,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>92</v>
       </c>
@@ -13723,7 +15043,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>93</v>
       </c>
@@ -13749,7 +15069,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>97</v>
       </c>
@@ -13789,20 +15109,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13831,7 +15151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13860,7 +15180,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13889,7 +15209,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13918,7 +15238,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13947,7 +15267,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13976,7 +15296,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14005,7 +15325,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14034,7 +15354,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14063,7 +15383,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14092,7 +15412,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14121,7 +15441,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14150,7 +15470,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14179,7 +15499,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14208,7 +15528,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14237,7 +15557,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14266,7 +15586,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14295,7 +15615,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14324,7 +15644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14353,7 +15673,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14382,7 +15702,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14411,7 +15731,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14440,7 +15760,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14469,7 +15789,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14498,7 +15818,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14527,7 +15847,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14556,7 +15876,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14585,7 +15905,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14614,7 +15934,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14643,7 +15963,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -14672,7 +15992,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -14701,7 +16021,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -14730,7 +16050,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -14759,7 +16079,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -14788,7 +16108,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -14817,7 +16137,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -14846,7 +16166,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -14875,7 +16195,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -14904,7 +16224,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -14933,7 +16253,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -14962,7 +16282,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -14991,7 +16311,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -15020,7 +16340,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -15049,7 +16369,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -15078,7 +16398,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -15107,7 +16427,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -15136,7 +16456,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -15165,7 +16485,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -15194,7 +16514,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -15223,7 +16543,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -15252,7 +16572,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -15281,7 +16601,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -15310,7 +16630,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -15339,7 +16659,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -15368,7 +16688,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -15397,7 +16717,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -15426,7 +16746,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -15455,7 +16775,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -15484,7 +16804,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -15513,7 +16833,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -15542,7 +16862,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -15571,7 +16891,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -15600,7 +16920,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -15629,7 +16949,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -15658,7 +16978,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -15687,7 +17007,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -15716,7 +17036,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -15758,20 +17078,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15800,7 +17120,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15826,7 +17146,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15852,7 +17172,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15878,7 +17198,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15904,7 +17224,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15930,7 +17250,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15956,7 +17276,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15982,7 +17302,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16008,7 +17328,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16034,7 +17354,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16060,7 +17380,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16086,7 +17406,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16112,7 +17432,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16138,7 +17458,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16164,7 +17484,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16190,7 +17510,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16216,7 +17536,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16242,7 +17562,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16268,7 +17588,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16294,7 +17614,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16320,7 +17640,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16346,7 +17666,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16372,7 +17692,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -16398,7 +17718,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16424,7 +17744,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -16450,7 +17770,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -16476,7 +17796,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16502,7 +17822,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16531,7 +17851,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16560,7 +17880,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16586,7 +17906,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16615,7 +17935,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -16644,7 +17964,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -16673,7 +17993,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -16699,7 +18019,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -16728,7 +18048,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -16754,7 +18074,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -16783,7 +18103,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16809,7 +18129,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16838,7 +18158,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -16864,7 +18184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -16890,7 +18210,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -16916,7 +18236,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -16942,7 +18262,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -16968,7 +18288,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -16994,7 +18314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17020,7 +18340,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17046,7 +18366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17072,7 +18392,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17098,7 +18418,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17124,7 +18444,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -17150,7 +18470,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -17176,7 +18496,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17202,7 +18522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17228,7 +18548,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17254,7 +18574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17280,7 +18600,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17306,7 +18626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -17332,7 +18652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -17358,7 +18678,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -17384,7 +18704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -17410,7 +18730,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -17436,7 +18756,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -17462,7 +18782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -17488,7 +18808,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -17514,7 +18834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -17540,7 +18860,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -17566,7 +18886,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -17592,7 +18912,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -17618,7 +18938,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -17644,7 +18964,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -17670,7 +18990,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -17696,7 +19016,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -17722,7 +19042,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -17748,7 +19068,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -17774,7 +19094,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -17800,7 +19120,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -17826,7 +19146,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -17852,7 +19172,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -17878,7 +19198,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -17904,7 +19224,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -17930,7 +19250,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -17972,20 +19292,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18014,7 +19334,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18043,7 +19363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -18072,7 +19392,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -18101,7 +19421,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -18130,7 +19450,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -18159,7 +19479,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -18188,7 +19508,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -18217,7 +19537,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -18246,7 +19566,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -18275,7 +19595,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -18304,7 +19624,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -18333,7 +19653,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -18362,7 +19682,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -18391,7 +19711,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -18420,7 +19740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -18449,7 +19769,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
@@ -18478,7 +19798,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22</v>
       </c>
@@ -18507,7 +19827,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
@@ -18533,7 +19853,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24</v>
       </c>
@@ -18559,7 +19879,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -18585,7 +19905,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -18611,7 +19931,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28</v>
       </c>
@@ -18637,7 +19957,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>29</v>
       </c>
@@ -18666,7 +19986,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
@@ -18692,7 +20012,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -18718,7 +20038,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -18744,7 +20064,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>33</v>
       </c>
@@ -18770,7 +20090,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
@@ -18796,7 +20116,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36</v>
       </c>
@@ -18822,7 +20142,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
@@ -18848,7 +20168,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
@@ -18874,7 +20194,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -18900,7 +20220,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
@@ -18926,7 +20246,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>41</v>
       </c>
@@ -18952,7 +20272,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42</v>
       </c>
@@ -18978,7 +20298,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>43</v>
       </c>
@@ -19004,7 +20324,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
@@ -19043,20 +20363,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19085,7 +20405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19111,7 +20431,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22</v>
       </c>
@@ -19137,7 +20457,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -19163,7 +20483,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -19189,7 +20509,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -19215,7 +20535,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -19241,7 +20561,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19267,7 +20587,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -19293,7 +20613,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -19319,7 +20639,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -19345,7 +20665,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -19371,7 +20691,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -19397,7 +20717,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
@@ -19426,7 +20746,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28</v>
       </c>
@@ -19455,7 +20775,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>27</v>
       </c>
@@ -19484,7 +20804,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -19513,7 +20833,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -19542,7 +20862,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
@@ -19571,7 +20891,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -19600,7 +20920,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -19629,7 +20949,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -19658,7 +20978,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -19687,7 +21007,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -19716,7 +21036,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>

--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="12.06.2018" sheetId="10" r:id="rId10"/>
     <sheet name="13.06.2018" sheetId="11" r:id="rId11"/>
     <sheet name="15.06.2018" sheetId="12" r:id="rId12"/>
+    <sheet name="Лист1" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.06.2018'!$A$1:$J$64</definedName>
@@ -31,6 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Лист1!$A$1:$I$50</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4565" uniqueCount="881">
   <si>
     <t>№</t>
   </si>
@@ -2583,12 +2585,114 @@
   </si>
   <si>
     <t>Не работает публикация</t>
+  </si>
+  <si>
+    <t>June 18, 2018, 12:12 p.m.</t>
+  </si>
+  <si>
+    <t>June 18, 2018, 2:54 p.m.</t>
+  </si>
+  <si>
+    <t>June 18, 2018, 2:56 p.m.</t>
+  </si>
+  <si>
+    <t>June 18, 2018, 5:12 p.m.</t>
+  </si>
+  <si>
+    <t>http://tropic.od.ua/yak-poznajomitisya-v-interneti-2/</t>
+  </si>
+  <si>
+    <t>June 18, 2018, 3:29 p.m.</t>
+  </si>
+  <si>
+    <t>http://tropic.od.ua/yak-organizuvati-opalennya-v-budinku/</t>
+  </si>
+  <si>
+    <t>http://ypag.com.ua/yak-oblashtuvati-ventilovanij-fasad-budinku/</t>
+  </si>
+  <si>
+    <t>June 18, 2018, 5:39 p.m.</t>
+  </si>
+  <si>
+    <t>http://ukravtomobil.if.ua/yak-vibrati-shini-dlya-avtomobilya/</t>
+  </si>
+  <si>
+    <t>June 18, 2018, 3:30 p.m.</t>
+  </si>
+  <si>
+    <t>http://smartx.kiev.ua/vibirayemo-podarunki-dlya-spivrobitnikiv/</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/de-prymyanyayutsya-reduktory-u-vyrobnytstvi/</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-vybraty-tur-dlya-vidpochynku/</t>
+  </si>
+  <si>
+    <t>sharabt.com.ua</t>
+  </si>
+  <si>
+    <t>http://sharabt.com.ua/yak-prykrasyty-landshaft-svoyeyi-dilyanky/</t>
+  </si>
+  <si>
+    <t>http://salfetki.org.ua/yak-vidbuvayetsya-druk-poligrafiyi/</t>
+  </si>
+  <si>
+    <t>http://sharabt.com.ua/yak-pravylno-zrobyty-makiyazh/</t>
+  </si>
+  <si>
+    <t>http://buyheavenlyspot.com.ua/yak-vybraty-nerzhaviyuchu-sitku/</t>
+  </si>
+  <si>
+    <t>http://4da.org.ua/yak-nalashtuvaty-kondytsionuvannya-povitrya-v-budynku</t>
+  </si>
+  <si>
+    <t>http://adonaidenver.org/%d0%ba%d0%bb%d1%8e%d1%87%d0%be%d0%b2%d1%96-%d0%bc%d1%96%d1%81%d1%86%d1%8f-%d0%b4%d0%bb%d1%8f-%d1%82%d1%83%d1%80%d0%b8%d0%b7%d0%bc%d1%83-%d0%b2-%d0%b0%d0%b7%d0%b5%d1%80%d0%b1%d0%b0%d0%b9%d0%b4%d0%b6/</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d0%b4%d0%b5-%d0%b7%d0%b0%d1%81%d1%82%d0%be%d1%81%d0%be%d0%b2%d1%83%d1%94%d1%82%d1%8c%d1%81%d1%8f-%d0%bf%d0%be%d1%80%d0%be%d1%88%d0%ba%d0%be%d0%b2%d0%b5-%d1%84%d0%b0%d1%80%d0%b1%d1%83%d0%b2%d0%b0/</t>
+  </si>
+  <si>
+    <t>http://redcat.net.ua/osnovni-vyznachni-pam-yatky-odesy/</t>
+  </si>
+  <si>
+    <t>June 18, 2018, 5:47 p.m.</t>
+  </si>
+  <si>
+    <t>http://yavtanke.org.ua/yak-poznajomitisya-z-divchinoyu-v-interneti/</t>
+  </si>
+  <si>
+    <t>http://europarfum.net.ua/yak-vigidnishe-podorozhuvati-po-ukrayini/</t>
+  </si>
+  <si>
+    <t>http://da100let.dn.ua/yak-vigidnishe-podorozhuvati-po-ukrayini/</t>
+  </si>
+  <si>
+    <t>http://mylink.org.ua/yaki-lampy-vykorystovuyutsya-dlya-far-avtomobilya/</t>
+  </si>
+  <si>
+    <t>http://savelink.org.ua/yak-vikonati-tyuning-gabaritnih-vogniv-avtomobilya/</t>
+  </si>
+  <si>
+    <t>June 18, 2018, 3:31 p.m.</t>
+  </si>
+  <si>
+    <t>http://europarfum.net.ua/osnovni-viznachni-pam-yatki-londona/</t>
+  </si>
+  <si>
+    <t>http://24zp.org.ua/yak-pobuduvati-teplitsyu/</t>
+  </si>
+  <si>
+    <t>http://feyhoa.org.ua/yaki-lampi-vikoristovuyutsya-v-farah-avtomobilya/</t>
+  </si>
+  <si>
+    <t>http://24zp.org.ua/yaki-lampi-vikoristovuyutsya-v-farah-avtomobilya/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2944,20 +3048,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +3090,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3015,7 +3119,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3044,7 +3148,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3073,7 +3177,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3102,7 +3206,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3131,7 +3235,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3160,7 +3264,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3189,7 +3293,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3218,7 +3322,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3247,7 +3351,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3276,7 +3380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3305,7 +3409,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3334,7 +3438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3363,7 +3467,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3392,7 +3496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3421,7 +3525,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3450,7 +3554,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3479,7 +3583,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3508,7 +3612,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3537,7 +3641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3566,7 +3670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3595,7 +3699,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3624,7 +3728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3653,7 +3757,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3682,7 +3786,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3711,7 +3815,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3740,7 +3844,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3769,7 +3873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3798,7 +3902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3827,7 +3931,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3856,7 +3960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3885,7 +3989,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3914,7 +4018,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3943,7 +4047,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3972,7 +4076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4001,7 +4105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4030,7 +4134,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4059,7 +4163,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4104,19 +4208,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4145,7 +4249,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4174,7 +4278,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4203,7 +4307,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4229,7 +4333,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4255,7 +4359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4281,7 +4385,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4307,7 +4411,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4333,7 +4437,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4359,7 +4463,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4385,7 +4489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4411,7 +4515,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4437,7 +4541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4463,7 +4567,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4489,7 +4593,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4515,7 +4619,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4541,7 +4645,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4570,7 +4674,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4599,7 +4703,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4628,7 +4732,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4657,7 +4761,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4686,7 +4790,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4715,7 +4819,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4744,7 +4848,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4773,7 +4877,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4802,7 +4906,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4844,20 +4948,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4886,7 +4990,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4915,7 +5019,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
@@ -4944,7 +5048,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
@@ -4973,7 +5077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>49</v>
       </c>
@@ -5002,7 +5106,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -5028,7 +5132,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14</v>
       </c>
@@ -5054,7 +5158,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>15</v>
       </c>
@@ -5080,7 +5184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>16</v>
       </c>
@@ -5106,7 +5210,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -5132,7 +5236,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -5158,7 +5262,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>19</v>
       </c>
@@ -5184,7 +5288,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -5210,7 +5314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>21</v>
       </c>
@@ -5236,7 +5340,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22</v>
       </c>
@@ -5262,7 +5366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23</v>
       </c>
@@ -5288,7 +5392,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -5314,7 +5418,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>25</v>
       </c>
@@ -5340,7 +5444,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -5366,7 +5470,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>27</v>
       </c>
@@ -5392,7 +5496,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28</v>
       </c>
@@ -5418,7 +5522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>35</v>
       </c>
@@ -5444,7 +5548,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>36</v>
       </c>
@@ -5470,7 +5574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>37</v>
       </c>
@@ -5496,7 +5600,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>38</v>
       </c>
@@ -5522,7 +5626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>39</v>
       </c>
@@ -5548,7 +5652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>40</v>
       </c>
@@ -5574,7 +5678,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>41</v>
       </c>
@@ -5600,7 +5704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>42</v>
       </c>
@@ -5626,7 +5730,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>43</v>
       </c>
@@ -5652,7 +5756,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>44</v>
       </c>
@@ -5678,7 +5782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>45</v>
       </c>
@@ -5704,7 +5808,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>46</v>
       </c>
@@ -5730,7 +5834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>47</v>
       </c>
@@ -5756,7 +5860,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>48</v>
       </c>
@@ -5782,7 +5886,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5811,7 +5915,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -5840,7 +5944,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -5869,7 +5973,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -5898,7 +6002,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6</v>
       </c>
@@ -5927,7 +6031,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>7</v>
       </c>
@@ -5956,7 +6060,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8</v>
       </c>
@@ -5985,7 +6089,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9</v>
       </c>
@@ -6014,7 +6118,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10</v>
       </c>
@@ -6053,23 +6157,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:I29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6098,7 +6202,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6124,7 +6228,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6153,7 +6257,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6182,7 +6286,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6208,7 +6312,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6234,7 +6338,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6260,7 +6364,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6286,7 +6390,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6312,7 +6416,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
@@ -6338,7 +6442,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -6364,7 +6468,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13</v>
       </c>
@@ -6393,7 +6497,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -6419,7 +6523,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -6445,7 +6549,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -6471,7 +6575,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
@@ -6497,7 +6601,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>18</v>
       </c>
@@ -6523,7 +6627,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
@@ -6549,7 +6653,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -6578,7 +6682,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
@@ -6607,7 +6711,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>22</v>
       </c>
@@ -6636,7 +6740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>23</v>
       </c>
@@ -6662,7 +6766,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24</v>
       </c>
@@ -6688,7 +6792,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
@@ -6714,7 +6818,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>26</v>
       </c>
@@ -6740,7 +6844,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>27</v>
       </c>
@@ -6766,7 +6870,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28</v>
       </c>
@@ -6795,7 +6899,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29</v>
       </c>
@@ -6824,7 +6928,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -6853,7 +6957,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
@@ -6879,7 +6983,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
@@ -6905,7 +7009,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33</v>
       </c>
@@ -6931,7 +7035,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>34</v>
       </c>
@@ -6957,7 +7061,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>35</v>
       </c>
@@ -6983,7 +7087,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>36</v>
       </c>
@@ -7009,7 +7113,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>37</v>
       </c>
@@ -7035,7 +7139,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>38</v>
       </c>
@@ -7061,7 +7165,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>39</v>
       </c>
@@ -7087,7 +7191,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>40</v>
       </c>
@@ -7113,7 +7217,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41</v>
       </c>
@@ -7142,7 +7246,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>42</v>
       </c>
@@ -7171,7 +7275,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>43</v>
       </c>
@@ -7197,7 +7301,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>44</v>
       </c>
@@ -7226,6 +7330,1356 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28706401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>847</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28706427</v>
+      </c>
+      <c r="C3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>847</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>24000423</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>848</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>28710476</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>849</v>
+      </c>
+      <c r="H5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>28711035</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>850</v>
+      </c>
+      <c r="H6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>24007046</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>851</v>
+      </c>
+      <c r="G7" t="s">
+        <v>852</v>
+      </c>
+      <c r="H7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>24006603</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>853</v>
+      </c>
+      <c r="G8" t="s">
+        <v>852</v>
+      </c>
+      <c r="H8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>24006363</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>854</v>
+      </c>
+      <c r="G9" t="s">
+        <v>855</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>24002684</v>
+      </c>
+      <c r="C10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>856</v>
+      </c>
+      <c r="G10" t="s">
+        <v>857</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>24006894</v>
+      </c>
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>858</v>
+      </c>
+      <c r="G11" t="s">
+        <v>857</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>24006309</v>
+      </c>
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>859</v>
+      </c>
+      <c r="G12" t="s">
+        <v>855</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>24004974</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>860</v>
+      </c>
+      <c r="G13" t="s">
+        <v>857</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>24006222</v>
+      </c>
+      <c r="C14" t="s">
+        <v>861</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>862</v>
+      </c>
+      <c r="G14" t="s">
+        <v>855</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>24002978</v>
+      </c>
+      <c r="C15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>863</v>
+      </c>
+      <c r="G15" t="s">
+        <v>855</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>24001733</v>
+      </c>
+      <c r="C16" t="s">
+        <v>861</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>864</v>
+      </c>
+      <c r="G16" t="s">
+        <v>857</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>28709455</v>
+      </c>
+      <c r="C17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>865</v>
+      </c>
+      <c r="G17" t="s">
+        <v>857</v>
+      </c>
+      <c r="H17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>28709863</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>866</v>
+      </c>
+      <c r="G18" t="s">
+        <v>855</v>
+      </c>
+      <c r="H18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>28709882</v>
+      </c>
+      <c r="C19" t="s">
+        <v>518</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>867</v>
+      </c>
+      <c r="G19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>28711589</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>868</v>
+      </c>
+      <c r="G20" t="s">
+        <v>857</v>
+      </c>
+      <c r="H20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>28709771</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>869</v>
+      </c>
+      <c r="G21" t="s">
+        <v>870</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>28712310</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>871</v>
+      </c>
+      <c r="G22" t="s">
+        <v>855</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>28710615</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>872</v>
+      </c>
+      <c r="G23" t="s">
+        <v>857</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>28710630</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>873</v>
+      </c>
+      <c r="G24" t="s">
+        <v>857</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>28711037</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>874</v>
+      </c>
+      <c r="G25" t="s">
+        <v>857</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>28711036</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>875</v>
+      </c>
+      <c r="G26" t="s">
+        <v>876</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>28712048</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>877</v>
+      </c>
+      <c r="G27" t="s">
+        <v>876</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>28709485</v>
+      </c>
+      <c r="C28" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" t="s">
+        <v>404</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>878</v>
+      </c>
+      <c r="G28" t="s">
+        <v>876</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>28711034</v>
+      </c>
+      <c r="C29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D29" t="s">
+        <v>404</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>879</v>
+      </c>
+      <c r="G29" t="s">
+        <v>876</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>28711033</v>
+      </c>
+      <c r="C30" t="s">
+        <v>563</v>
+      </c>
+      <c r="D30" t="s">
+        <v>404</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>880</v>
+      </c>
+      <c r="G30" t="s">
+        <v>876</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>28703746</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>847</v>
+      </c>
+      <c r="H31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>28708366</v>
+      </c>
+      <c r="C32" t="s">
+        <v>820</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>847</v>
+      </c>
+      <c r="H32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>28708360</v>
+      </c>
+      <c r="C33" t="s">
+        <v>448</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>847</v>
+      </c>
+      <c r="H33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>28708357</v>
+      </c>
+      <c r="C34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>847</v>
+      </c>
+      <c r="H34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>28706696</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>847</v>
+      </c>
+      <c r="H35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>28708254</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>847</v>
+      </c>
+      <c r="H36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>28706764</v>
+      </c>
+      <c r="C37" t="s">
+        <v>812</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>847</v>
+      </c>
+      <c r="H37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>28701610</v>
+      </c>
+      <c r="C38" t="s">
+        <v>518</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>847</v>
+      </c>
+      <c r="H38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>28708392</v>
+      </c>
+      <c r="C39" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>847</v>
+      </c>
+      <c r="H39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>28709063</v>
+      </c>
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>847</v>
+      </c>
+      <c r="H40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>28708878</v>
+      </c>
+      <c r="C41" t="s">
+        <v>826</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>847</v>
+      </c>
+      <c r="H41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>28708879</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>847</v>
+      </c>
+      <c r="H42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>28706713</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>847</v>
+      </c>
+      <c r="H43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>28706702</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>847</v>
+      </c>
+      <c r="H44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>28708401</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>847</v>
+      </c>
+      <c r="H45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>28708356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>458</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>847</v>
+      </c>
+      <c r="H46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>28702762</v>
+      </c>
+      <c r="C47" t="s">
+        <v>491</v>
+      </c>
+      <c r="D47" t="s">
+        <v>404</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>847</v>
+      </c>
+      <c r="H47" t="s">
+        <v>228</v>
+      </c>
+      <c r="I47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>28706729</v>
+      </c>
+      <c r="C48" t="s">
+        <v>403</v>
+      </c>
+      <c r="D48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>847</v>
+      </c>
+      <c r="H48" t="s">
+        <v>228</v>
+      </c>
+      <c r="I48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>28702590</v>
+      </c>
+      <c r="C49" t="s">
+        <v>491</v>
+      </c>
+      <c r="D49" t="s">
+        <v>404</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>847</v>
+      </c>
+      <c r="H49" t="s">
+        <v>228</v>
+      </c>
+      <c r="I49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>28706758</v>
+      </c>
+      <c r="C50" t="s">
+        <v>501</v>
+      </c>
+      <c r="D50" t="s">
+        <v>404</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>847</v>
+      </c>
+      <c r="H50" t="s">
+        <v>228</v>
+      </c>
+      <c r="I50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I50">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Курко"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7237,20 +8691,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7279,7 +8733,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7308,7 +8762,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7337,7 +8791,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7366,7 +8820,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7395,7 +8849,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7424,7 +8878,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7453,7 +8907,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7482,7 +8936,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7511,7 +8965,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7540,7 +8994,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7569,7 +9023,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7598,7 +9052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7627,7 +9081,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7656,7 +9110,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7685,7 +9139,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7714,7 +9168,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7743,7 +9197,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7772,7 +9226,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7801,7 +9255,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7830,7 +9284,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7859,7 +9313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7888,7 +9342,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7917,7 +9371,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7946,7 +9400,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7975,7 +9429,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8004,7 +9458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8033,7 +9487,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8062,7 +9516,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -8091,7 +9545,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
@@ -8120,7 +9574,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34</v>
       </c>
@@ -8149,7 +9603,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35</v>
       </c>
@@ -8178,7 +9632,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>36</v>
       </c>
@@ -8207,7 +9661,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>37</v>
       </c>
@@ -8236,7 +9690,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>38</v>
       </c>
@@ -8265,7 +9719,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>39</v>
       </c>
@@ -8294,7 +9748,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40</v>
       </c>
@@ -8323,7 +9777,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>41</v>
       </c>
@@ -8352,7 +9806,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>42</v>
       </c>
@@ -8381,7 +9835,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>43</v>
       </c>
@@ -8410,7 +9864,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>44</v>
       </c>
@@ -8439,7 +9893,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>45</v>
       </c>
@@ -8468,7 +9922,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>46</v>
       </c>
@@ -8497,7 +9951,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>47</v>
       </c>
@@ -8526,7 +9980,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>48</v>
       </c>
@@ -8555,7 +10009,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>49</v>
       </c>
@@ -8584,7 +10038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>50</v>
       </c>
@@ -8613,7 +10067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>51</v>
       </c>
@@ -8642,7 +10096,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>52</v>
       </c>
@@ -8671,7 +10125,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>53</v>
       </c>
@@ -8700,7 +10154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>54</v>
       </c>
@@ -8729,7 +10183,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>55</v>
       </c>
@@ -8758,7 +10212,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>56</v>
       </c>
@@ -8787,7 +10241,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>57</v>
       </c>
@@ -8816,7 +10270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>58</v>
       </c>
@@ -8845,7 +10299,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>59</v>
       </c>
@@ -8874,7 +10328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>60</v>
       </c>
@@ -8903,7 +10357,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>61</v>
       </c>
@@ -8932,7 +10386,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>62</v>
       </c>
@@ -8961,7 +10415,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>63</v>
       </c>
@@ -8990,7 +10444,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>64</v>
       </c>
@@ -9019,7 +10473,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>65</v>
       </c>
@@ -9048,7 +10502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>66</v>
       </c>
@@ -9077,7 +10531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>67</v>
       </c>
@@ -9106,7 +10560,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>68</v>
       </c>
@@ -9135,7 +10589,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>69</v>
       </c>
@@ -9164,7 +10618,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>70</v>
       </c>
@@ -9193,7 +10647,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>71</v>
       </c>
@@ -9222,7 +10676,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>72</v>
       </c>
@@ -9251,7 +10705,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>73</v>
       </c>
@@ -9280,7 +10734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>74</v>
       </c>
@@ -9323,19 +10777,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9364,7 +10818,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9393,7 +10847,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9422,7 +10876,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9451,7 +10905,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9480,7 +10934,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9509,7 +10963,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9538,7 +10992,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9567,7 +11021,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9596,7 +11050,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9625,7 +11079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9654,7 +11108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9683,7 +11137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9712,7 +11166,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9741,7 +11195,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9770,7 +11224,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9799,7 +11253,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9828,7 +11282,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9857,7 +11311,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9886,7 +11340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9915,7 +11369,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9944,7 +11398,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9973,7 +11427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10002,7 +11456,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10031,7 +11485,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10060,7 +11514,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10089,7 +11543,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10118,7 +11572,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10147,7 +11601,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10176,7 +11630,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10205,7 +11659,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10234,7 +11688,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10263,7 +11717,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10292,7 +11746,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10321,7 +11775,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10350,7 +11804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10379,7 +11833,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10408,7 +11862,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10437,7 +11891,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10466,7 +11920,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10495,7 +11949,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10524,7 +11978,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10553,7 +12007,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10595,20 +12049,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10637,7 +12091,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10666,7 +12120,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10695,7 +12149,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10724,7 +12178,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10753,7 +12207,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10782,7 +12236,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10811,7 +12265,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10840,7 +12294,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10869,7 +12323,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10898,7 +12352,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10927,7 +12381,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10956,7 +12410,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10985,7 +12439,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11014,7 +12468,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11043,7 +12497,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11072,7 +12526,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11101,7 +12555,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11130,7 +12584,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11159,7 +12613,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11188,7 +12642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11217,7 +12671,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11246,7 +12700,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11275,7 +12729,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11304,7 +12758,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11333,7 +12787,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11362,7 +12816,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11391,7 +12845,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11420,7 +12874,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11449,7 +12903,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11478,7 +12932,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11507,7 +12961,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11536,7 +12990,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11565,7 +13019,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11594,7 +13048,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11623,7 +13077,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11652,7 +13106,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11681,7 +13135,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11710,7 +13164,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11739,7 +13193,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11768,7 +13222,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11797,7 +13251,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11826,7 +13280,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11855,7 +13309,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11884,7 +13338,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11913,7 +13367,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11942,7 +13396,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11971,7 +13425,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12000,7 +13454,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12029,7 +13483,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12058,7 +13512,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12087,7 +13541,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12116,7 +13570,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12145,7 +13599,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12174,7 +13628,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12203,7 +13657,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12232,7 +13686,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12261,7 +13715,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12290,7 +13744,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12319,7 +13773,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12348,7 +13802,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12377,7 +13831,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12406,7 +13860,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12435,7 +13889,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12464,7 +13918,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12493,7 +13947,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12522,7 +13976,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12551,7 +14005,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12580,7 +14034,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12609,7 +14063,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12638,7 +14092,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12667,7 +14121,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12696,7 +14150,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12725,7 +14179,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12754,7 +14208,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12783,7 +14237,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12812,7 +14266,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12841,7 +14295,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12870,7 +14324,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12899,7 +14353,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12928,7 +14382,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12957,7 +14411,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12986,7 +14440,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13015,7 +14469,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13044,7 +14498,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13073,7 +14527,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13102,7 +14556,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13131,7 +14585,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13160,7 +14614,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13189,7 +14643,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13218,7 +14672,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13247,7 +14701,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13290,20 +14744,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13332,7 +14786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>17</v>
       </c>
@@ -13361,7 +14815,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>77</v>
       </c>
@@ -13390,7 +14844,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>79</v>
       </c>
@@ -13419,7 +14873,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>94</v>
       </c>
@@ -13448,7 +14902,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>19</v>
       </c>
@@ -13477,7 +14931,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>35</v>
       </c>
@@ -13506,7 +14960,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100</v>
       </c>
@@ -13535,7 +14989,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -13561,7 +15015,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -13587,7 +15041,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -13613,7 +15067,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -13639,7 +15093,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>47</v>
       </c>
@@ -13665,7 +15119,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50</v>
       </c>
@@ -13691,7 +15145,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>52</v>
       </c>
@@ -13717,7 +15171,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>40</v>
       </c>
@@ -13743,7 +15197,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>45</v>
       </c>
@@ -13769,7 +15223,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>46</v>
       </c>
@@ -13795,7 +15249,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>48</v>
       </c>
@@ -13821,7 +15275,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>49</v>
       </c>
@@ -13847,7 +15301,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>80</v>
       </c>
@@ -13873,7 +15327,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>98</v>
       </c>
@@ -13899,7 +15353,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>36</v>
       </c>
@@ -13925,7 +15379,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>39</v>
       </c>
@@ -13951,7 +15405,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>60</v>
       </c>
@@ -13977,7 +15431,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>66</v>
       </c>
@@ -14003,7 +15457,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>68</v>
       </c>
@@ -14029,7 +15483,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>69</v>
       </c>
@@ -14055,7 +15509,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>70</v>
       </c>
@@ -14081,7 +15535,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>73</v>
       </c>
@@ -14107,7 +15561,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>74</v>
       </c>
@@ -14133,7 +15587,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>75</v>
       </c>
@@ -14159,7 +15613,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>76</v>
       </c>
@@ -14185,7 +15639,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>78</v>
       </c>
@@ -14211,7 +15665,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>82</v>
       </c>
@@ -14237,7 +15691,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>95</v>
       </c>
@@ -14263,7 +15717,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>96</v>
       </c>
@@ -14289,7 +15743,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>99</v>
       </c>
@@ -14315,7 +15769,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -14341,7 +15795,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>42</v>
       </c>
@@ -14367,7 +15821,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>43</v>
       </c>
@@ -14393,7 +15847,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>53</v>
       </c>
@@ -14419,7 +15873,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>54</v>
       </c>
@@ -14445,7 +15899,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>55</v>
       </c>
@@ -14471,7 +15925,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>56</v>
       </c>
@@ -14497,7 +15951,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>57</v>
       </c>
@@ -14523,7 +15977,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>58</v>
       </c>
@@ -14549,7 +16003,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>61</v>
       </c>
@@ -14575,7 +16029,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>62</v>
       </c>
@@ -14601,7 +16055,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>63</v>
       </c>
@@ -14627,7 +16081,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>64</v>
       </c>
@@ -14653,7 +16107,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>65</v>
       </c>
@@ -14679,7 +16133,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>67</v>
       </c>
@@ -14705,7 +16159,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>71</v>
       </c>
@@ -14731,7 +16185,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>72</v>
       </c>
@@ -14757,7 +16211,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>81</v>
       </c>
@@ -14783,7 +16237,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>83</v>
       </c>
@@ -14809,7 +16263,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>84</v>
       </c>
@@ -14835,7 +16289,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>85</v>
       </c>
@@ -14861,7 +16315,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>86</v>
       </c>
@@ -14887,7 +16341,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>87</v>
       </c>
@@ -14913,7 +16367,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>88</v>
       </c>
@@ -14939,7 +16393,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>89</v>
       </c>
@@ -14965,7 +16419,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>90</v>
       </c>
@@ -14991,7 +16445,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>91</v>
       </c>
@@ -15017,7 +16471,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>92</v>
       </c>
@@ -15043,7 +16497,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>93</v>
       </c>
@@ -15069,7 +16523,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>97</v>
       </c>
@@ -15109,20 +16563,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15151,7 +16605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15180,7 +16634,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15209,7 +16663,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15238,7 +16692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15267,7 +16721,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15296,7 +16750,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15325,7 +16779,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15354,7 +16808,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15383,7 +16837,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15412,7 +16866,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15441,7 +16895,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15470,7 +16924,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15499,7 +16953,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15528,7 +16982,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15557,7 +17011,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15586,7 +17040,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15615,7 +17069,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15644,7 +17098,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15673,7 +17127,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15702,7 +17156,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15731,7 +17185,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15760,7 +17214,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15789,7 +17243,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15818,7 +17272,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15847,7 +17301,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15876,7 +17330,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15905,7 +17359,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15934,7 +17388,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15963,7 +17417,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15992,7 +17446,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16021,7 +17475,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16050,7 +17504,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -16079,7 +17533,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -16108,7 +17562,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -16137,7 +17591,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -16166,7 +17620,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -16195,7 +17649,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -16224,7 +17678,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16253,7 +17707,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16282,7 +17736,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -16311,7 +17765,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -16340,7 +17794,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -16369,7 +17823,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -16398,7 +17852,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -16427,7 +17881,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -16456,7 +17910,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -16485,7 +17939,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -16514,7 +17968,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -16543,7 +17997,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -16572,7 +18026,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -16601,7 +18055,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -16630,7 +18084,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -16659,7 +18113,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -16688,7 +18142,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -16717,7 +18171,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -16746,7 +18200,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -16775,7 +18229,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -16804,7 +18258,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -16833,7 +18287,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -16862,7 +18316,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -16891,7 +18345,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -16920,7 +18374,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -16949,7 +18403,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16978,7 +18432,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -17007,7 +18461,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -17036,7 +18490,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -17078,20 +18532,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17120,7 +18574,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17146,7 +18600,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17172,7 +18626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17198,7 +18652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17224,7 +18678,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17250,7 +18704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17276,7 +18730,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17302,7 +18756,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17328,7 +18782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17354,7 +18808,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -17380,7 +18834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17406,7 +18860,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17432,7 +18886,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17458,7 +18912,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17484,7 +18938,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17510,7 +18964,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17536,7 +18990,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17562,7 +19016,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17588,7 +19042,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17614,7 +19068,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17640,7 +19094,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17666,7 +19120,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17692,7 +19146,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17718,7 +19172,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17744,7 +19198,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17770,7 +19224,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17796,7 +19250,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17822,7 +19276,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17851,7 +19305,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17880,7 +19334,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17906,7 +19360,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17935,7 +19389,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17964,7 +19418,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17993,7 +19447,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -18019,7 +19473,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -18048,7 +19502,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -18074,7 +19528,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -18103,7 +19557,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -18129,7 +19583,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -18158,7 +19612,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -18184,7 +19638,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -18210,7 +19664,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -18236,7 +19690,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -18262,7 +19716,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18288,7 +19742,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18314,7 +19768,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18340,7 +19794,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18366,7 +19820,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -18392,7 +19846,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -18418,7 +19872,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18444,7 +19898,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -18470,7 +19924,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18496,7 +19950,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18522,7 +19976,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18548,7 +20002,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18574,7 +20028,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18600,7 +20054,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18626,7 +20080,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18652,7 +20106,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18678,7 +20132,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18704,7 +20158,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18730,7 +20184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18756,7 +20210,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18782,7 +20236,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18808,7 +20262,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18834,7 +20288,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18860,7 +20314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -18886,7 +20340,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -18912,7 +20366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18938,7 +20392,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -18964,7 +20418,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -18990,7 +20444,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -19016,7 +20470,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -19042,7 +20496,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -19068,7 +20522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -19094,7 +20548,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -19120,7 +20574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -19146,7 +20600,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -19172,7 +20626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -19198,7 +20652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -19224,7 +20678,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -19250,7 +20704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -19292,20 +20746,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19334,7 +20788,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19363,7 +20817,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -19392,7 +20846,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -19421,7 +20875,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -19450,7 +20904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -19479,7 +20933,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -19508,7 +20962,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -19537,7 +20991,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13</v>
       </c>
@@ -19566,7 +21020,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -19595,7 +21049,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -19624,7 +21078,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -19653,7 +21107,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -19682,7 +21136,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -19711,7 +21165,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>19</v>
       </c>
@@ -19740,7 +21194,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -19769,7 +21223,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>21</v>
       </c>
@@ -19798,7 +21252,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>22</v>
       </c>
@@ -19827,7 +21281,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>23</v>
       </c>
@@ -19853,7 +21307,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>24</v>
       </c>
@@ -19879,7 +21333,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -19905,7 +21359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>27</v>
       </c>
@@ -19931,7 +21385,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28</v>
       </c>
@@ -19957,7 +21411,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>29</v>
       </c>
@@ -19986,7 +21440,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>30</v>
       </c>
@@ -20012,7 +21466,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>31</v>
       </c>
@@ -20038,7 +21492,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>32</v>
       </c>
@@ -20064,7 +21518,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>33</v>
       </c>
@@ -20090,7 +21544,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>35</v>
       </c>
@@ -20116,7 +21570,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>36</v>
       </c>
@@ -20142,7 +21596,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>37</v>
       </c>
@@ -20168,7 +21622,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>38</v>
       </c>
@@ -20194,7 +21648,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>39</v>
       </c>
@@ -20220,7 +21674,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>40</v>
       </c>
@@ -20246,7 +21700,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>41</v>
       </c>
@@ -20272,7 +21726,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>42</v>
       </c>
@@ -20298,7 +21752,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>43</v>
       </c>
@@ -20324,7 +21778,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>44</v>
       </c>
@@ -20363,20 +21817,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20405,7 +21859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20431,7 +21885,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>22</v>
       </c>
@@ -20457,7 +21911,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -20483,7 +21937,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -20509,7 +21963,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -20535,7 +21989,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -20561,7 +22015,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20587,7 +22041,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -20613,7 +22067,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -20639,7 +22093,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -20665,7 +22119,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -20691,7 +22145,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -20717,7 +22171,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>29</v>
       </c>
@@ -20746,7 +22200,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28</v>
       </c>
@@ -20775,7 +22229,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>27</v>
       </c>
@@ -20804,7 +22258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -20833,7 +22287,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>23</v>
       </c>
@@ -20862,7 +22316,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>21</v>
       </c>
@@ -20891,7 +22345,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -20920,7 +22374,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -20949,7 +22403,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -20978,7 +22432,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13</v>
       </c>
@@ -21007,7 +22461,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -21036,7 +22490,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>

--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4565" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="881">
   <si>
     <t>№</t>
   </si>
@@ -2692,7 +2692,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3048,20 +3048,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4208,19 +4208,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4948,20 +4948,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>49</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>35</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>36</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>37</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>38</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>39</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>40</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>41</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>42</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>43</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>44</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>45</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>46</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>47</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>48</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
@@ -6161,19 +6161,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>33</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>34</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>35</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>36</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>37</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>40</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>41</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>43</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>44</v>
       </c>
@@ -7335,27 +7335,26 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7384,7 +7383,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7409,8 +7408,11 @@
       <c r="H2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7435,8 +7437,11 @@
       <c r="H3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7462,7 +7467,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -7488,7 +7493,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>37</v>
       </c>
@@ -7514,7 +7519,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7540,7 +7545,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7566,7 +7571,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7592,7 +7597,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7618,7 +7623,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7644,7 +7649,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7670,7 +7675,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7696,7 +7701,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7722,7 +7727,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7748,7 +7753,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7774,7 +7779,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -7800,7 +7805,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
@@ -7826,7 +7831,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -7852,7 +7857,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -7878,7 +7883,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>32</v>
       </c>
@@ -7904,7 +7909,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>33</v>
       </c>
@@ -7930,7 +7935,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>35</v>
       </c>
@@ -7956,7 +7961,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>36</v>
       </c>
@@ -7982,7 +7987,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>38</v>
       </c>
@@ -8008,7 +8013,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>39</v>
       </c>
@@ -8034,7 +8039,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>40</v>
       </c>
@@ -8060,7 +8065,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>45</v>
       </c>
@@ -8086,7 +8091,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>47</v>
       </c>
@@ -8112,7 +8117,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>48</v>
       </c>
@@ -8138,7 +8143,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -8163,8 +8168,11 @@
       <c r="H31" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>16</v>
       </c>
@@ -8189,8 +8197,11 @@
       <c r="H32" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>17</v>
       </c>
@@ -8215,8 +8226,11 @@
       <c r="H33" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
@@ -8241,8 +8255,11 @@
       <c r="H34" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>19</v>
       </c>
@@ -8267,8 +8284,11 @@
       <c r="H35" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20</v>
       </c>
@@ -8293,8 +8313,11 @@
       <c r="H36" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>21</v>
       </c>
@@ -8319,8 +8342,11 @@
       <c r="H37" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>22</v>
       </c>
@@ -8345,8 +8371,11 @@
       <c r="H38" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>23</v>
       </c>
@@ -8371,8 +8400,11 @@
       <c r="H39" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24</v>
       </c>
@@ -8397,8 +8429,11 @@
       <c r="H40" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>27</v>
       </c>
@@ -8423,8 +8458,11 @@
       <c r="H41" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>28</v>
       </c>
@@ -8449,8 +8487,11 @@
       <c r="H42" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>31</v>
       </c>
@@ -8475,8 +8516,11 @@
       <c r="H43" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>34</v>
       </c>
@@ -8501,8 +8545,11 @@
       <c r="H44" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -8527,8 +8574,11 @@
       <c r="H45" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -8553,8 +8603,11 @@
       <c r="H46" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -8583,7 +8636,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -8612,7 +8665,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -8641,7 +8694,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8671,13 +8724,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I50">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Курко"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -8691,20 +8738,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8733,7 +8780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8762,7 +8809,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8791,7 +8838,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8820,7 +8867,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8849,7 +8896,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8878,7 +8925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8907,7 +8954,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8936,7 +8983,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8965,7 +9012,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8994,7 +9041,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9023,7 +9070,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9052,7 +9099,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9081,7 +9128,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9110,7 +9157,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9139,7 +9186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9168,7 +9215,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9197,7 +9244,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9226,7 +9273,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9255,7 +9302,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9284,7 +9331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9313,7 +9360,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9342,7 +9389,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9371,7 +9418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9400,7 +9447,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9429,7 +9476,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9458,7 +9505,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9487,7 +9534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9516,7 +9563,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -9545,7 +9592,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -9574,7 +9621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>34</v>
       </c>
@@ -9603,7 +9650,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>35</v>
       </c>
@@ -9632,7 +9679,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>36</v>
       </c>
@@ -9661,7 +9708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>37</v>
       </c>
@@ -9690,7 +9737,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>38</v>
       </c>
@@ -9719,7 +9766,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>39</v>
       </c>
@@ -9748,7 +9795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>40</v>
       </c>
@@ -9777,7 +9824,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>41</v>
       </c>
@@ -9806,7 +9853,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>42</v>
       </c>
@@ -9835,7 +9882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>43</v>
       </c>
@@ -9864,7 +9911,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>44</v>
       </c>
@@ -9893,7 +9940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>45</v>
       </c>
@@ -9922,7 +9969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>46</v>
       </c>
@@ -9951,7 +9998,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>47</v>
       </c>
@@ -9980,7 +10027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>48</v>
       </c>
@@ -10009,7 +10056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>49</v>
       </c>
@@ -10038,7 +10085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50</v>
       </c>
@@ -10067,7 +10114,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>51</v>
       </c>
@@ -10096,7 +10143,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>52</v>
       </c>
@@ -10125,7 +10172,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>53</v>
       </c>
@@ -10154,7 +10201,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>54</v>
       </c>
@@ -10183,7 +10230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>55</v>
       </c>
@@ -10212,7 +10259,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>56</v>
       </c>
@@ -10241,7 +10288,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>57</v>
       </c>
@@ -10270,7 +10317,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>58</v>
       </c>
@@ -10299,7 +10346,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>59</v>
       </c>
@@ -10328,7 +10375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>60</v>
       </c>
@@ -10357,7 +10404,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>61</v>
       </c>
@@ -10386,7 +10433,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>62</v>
       </c>
@@ -10415,7 +10462,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>63</v>
       </c>
@@ -10444,7 +10491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>64</v>
       </c>
@@ -10473,7 +10520,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>65</v>
       </c>
@@ -10502,7 +10549,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>66</v>
       </c>
@@ -10531,7 +10578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>67</v>
       </c>
@@ -10560,7 +10607,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>68</v>
       </c>
@@ -10589,7 +10636,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>69</v>
       </c>
@@ -10618,7 +10665,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>70</v>
       </c>
@@ -10647,7 +10694,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>71</v>
       </c>
@@ -10676,7 +10723,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>72</v>
       </c>
@@ -10705,7 +10752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>73</v>
       </c>
@@ -10734,7 +10781,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>74</v>
       </c>
@@ -10777,19 +10824,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10818,7 +10865,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10847,7 +10894,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10876,7 +10923,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10905,7 +10952,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10934,7 +10981,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10963,7 +11010,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10992,7 +11039,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11021,7 +11068,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11050,7 +11097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11079,7 +11126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11108,7 +11155,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11137,7 +11184,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11166,7 +11213,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11195,7 +11242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11224,7 +11271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11253,7 +11300,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11282,7 +11329,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11311,7 +11358,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11340,7 +11387,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11369,7 +11416,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11398,7 +11445,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11427,7 +11474,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11456,7 +11503,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11485,7 +11532,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11514,7 +11561,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11543,7 +11590,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11572,7 +11619,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11601,7 +11648,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11630,7 +11677,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11659,7 +11706,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11688,7 +11735,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11717,7 +11764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11746,7 +11793,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11775,7 +11822,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11804,7 +11851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11833,7 +11880,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11862,7 +11909,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11891,7 +11938,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11920,7 +11967,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11949,7 +11996,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11978,7 +12025,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12007,7 +12054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12049,20 +12096,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12091,7 +12138,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12120,7 +12167,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12149,7 +12196,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12178,7 +12225,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12207,7 +12254,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12236,7 +12283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12265,7 +12312,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12294,7 +12341,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12323,7 +12370,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12352,7 +12399,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12381,7 +12428,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12410,7 +12457,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12439,7 +12486,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12468,7 +12515,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12497,7 +12544,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12526,7 +12573,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12555,7 +12602,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12584,7 +12631,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12613,7 +12660,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12642,7 +12689,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12671,7 +12718,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12700,7 +12747,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12729,7 +12776,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12758,7 +12805,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12787,7 +12834,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12816,7 +12863,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12845,7 +12892,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12874,7 +12921,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12903,7 +12950,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12932,7 +12979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12961,7 +13008,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12990,7 +13037,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13019,7 +13066,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13048,7 +13095,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13077,7 +13124,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13106,7 +13153,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13135,7 +13182,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13164,7 +13211,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13193,7 +13240,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13222,7 +13269,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13251,7 +13298,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13280,7 +13327,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13309,7 +13356,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13338,7 +13385,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13367,7 +13414,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13396,7 +13443,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13425,7 +13472,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13454,7 +13501,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13483,7 +13530,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13512,7 +13559,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13541,7 +13588,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13570,7 +13617,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13599,7 +13646,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13628,7 +13675,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13657,7 +13704,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13686,7 +13733,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13715,7 +13762,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13744,7 +13791,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13773,7 +13820,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13802,7 +13849,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13831,7 +13878,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13860,7 +13907,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13889,7 +13936,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13918,7 +13965,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13947,7 +13994,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13976,7 +14023,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -14005,7 +14052,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14034,7 +14081,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14063,7 +14110,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14092,7 +14139,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14121,7 +14168,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14150,7 +14197,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14179,7 +14226,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14208,7 +14255,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14237,7 +14284,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14266,7 +14313,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14295,7 +14342,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14324,7 +14371,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14353,7 +14400,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14382,7 +14429,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14411,7 +14458,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14440,7 +14487,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14469,7 +14516,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14498,7 +14545,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14527,7 +14574,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14556,7 +14603,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14585,7 +14632,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14614,7 +14661,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14643,7 +14690,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14672,7 +14719,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14701,7 +14748,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -14744,20 +14791,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14786,7 +14833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
@@ -14815,7 +14862,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>77</v>
       </c>
@@ -14844,7 +14891,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>79</v>
       </c>
@@ -14873,7 +14920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>94</v>
       </c>
@@ -14902,7 +14949,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -14931,7 +14978,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>35</v>
       </c>
@@ -14960,7 +15007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -14989,7 +15036,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -15015,7 +15062,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -15041,7 +15088,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -15067,7 +15114,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33</v>
       </c>
@@ -15093,7 +15140,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>47</v>
       </c>
@@ -15119,7 +15166,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
@@ -15145,7 +15192,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>52</v>
       </c>
@@ -15171,7 +15218,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>40</v>
       </c>
@@ -15197,7 +15244,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>45</v>
       </c>
@@ -15223,7 +15270,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>46</v>
       </c>
@@ -15249,7 +15296,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>48</v>
       </c>
@@ -15275,7 +15322,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>49</v>
       </c>
@@ -15301,7 +15348,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>80</v>
       </c>
@@ -15327,7 +15374,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>98</v>
       </c>
@@ -15353,7 +15400,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>36</v>
       </c>
@@ -15379,7 +15426,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>39</v>
       </c>
@@ -15405,7 +15452,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>60</v>
       </c>
@@ -15431,7 +15478,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>66</v>
       </c>
@@ -15457,7 +15504,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>68</v>
       </c>
@@ -15483,7 +15530,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>69</v>
       </c>
@@ -15509,7 +15556,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>70</v>
       </c>
@@ -15535,7 +15582,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>73</v>
       </c>
@@ -15561,7 +15608,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>74</v>
       </c>
@@ -15587,7 +15634,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>75</v>
       </c>
@@ -15613,7 +15660,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>76</v>
       </c>
@@ -15639,7 +15686,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>78</v>
       </c>
@@ -15665,7 +15712,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>82</v>
       </c>
@@ -15691,7 +15738,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>95</v>
       </c>
@@ -15717,7 +15764,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>96</v>
       </c>
@@ -15743,7 +15790,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>99</v>
       </c>
@@ -15769,7 +15816,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -15795,7 +15842,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>42</v>
       </c>
@@ -15821,7 +15868,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>43</v>
       </c>
@@ -15847,7 +15894,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>53</v>
       </c>
@@ -15873,7 +15920,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>54</v>
       </c>
@@ -15899,7 +15946,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>55</v>
       </c>
@@ -15925,7 +15972,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>56</v>
       </c>
@@ -15951,7 +15998,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>57</v>
       </c>
@@ -15977,7 +16024,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>58</v>
       </c>
@@ -16003,7 +16050,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>61</v>
       </c>
@@ -16029,7 +16076,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>62</v>
       </c>
@@ -16055,7 +16102,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>63</v>
       </c>
@@ -16081,7 +16128,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>64</v>
       </c>
@@ -16107,7 +16154,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>65</v>
       </c>
@@ -16133,7 +16180,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>67</v>
       </c>
@@ -16159,7 +16206,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71</v>
       </c>
@@ -16185,7 +16232,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>72</v>
       </c>
@@ -16211,7 +16258,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>81</v>
       </c>
@@ -16237,7 +16284,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>83</v>
       </c>
@@ -16263,7 +16310,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>84</v>
       </c>
@@ -16289,7 +16336,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>85</v>
       </c>
@@ -16315,7 +16362,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>86</v>
       </c>
@@ -16341,7 +16388,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>87</v>
       </c>
@@ -16367,7 +16414,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>88</v>
       </c>
@@ -16393,7 +16440,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>89</v>
       </c>
@@ -16419,7 +16466,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>90</v>
       </c>
@@ -16445,7 +16492,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>91</v>
       </c>
@@ -16471,7 +16518,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>92</v>
       </c>
@@ -16497,7 +16544,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>93</v>
       </c>
@@ -16523,7 +16570,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>97</v>
       </c>
@@ -16563,20 +16610,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16605,7 +16652,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16634,7 +16681,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16663,7 +16710,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16692,7 +16739,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16721,7 +16768,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16750,7 +16797,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16779,7 +16826,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16808,7 +16855,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16837,7 +16884,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16866,7 +16913,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16895,7 +16942,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16924,7 +16971,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16953,7 +17000,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16982,7 +17029,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17011,7 +17058,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17040,7 +17087,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17069,7 +17116,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17098,7 +17145,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17127,7 +17174,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17156,7 +17203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17185,7 +17232,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17214,7 +17261,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17243,7 +17290,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17272,7 +17319,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17301,7 +17348,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17330,7 +17377,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17359,7 +17406,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17388,7 +17435,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17417,7 +17464,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17446,7 +17493,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17475,7 +17522,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17504,7 +17551,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17533,7 +17580,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17562,7 +17609,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17591,7 +17638,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17620,7 +17667,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17649,7 +17696,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17678,7 +17725,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17707,7 +17754,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17736,7 +17783,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17765,7 +17812,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17794,7 +17841,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17823,7 +17870,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17852,7 +17899,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17881,7 +17928,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17910,7 +17957,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17939,7 +17986,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17968,7 +18015,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17997,7 +18044,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -18026,7 +18073,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18055,7 +18102,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -18084,7 +18131,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18113,7 +18160,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18142,7 +18189,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18171,7 +18218,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18200,7 +18247,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18229,7 +18276,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18258,7 +18305,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18287,7 +18334,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18316,7 +18363,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18345,7 +18392,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18374,7 +18421,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18403,7 +18450,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18432,7 +18479,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18461,7 +18508,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18490,7 +18537,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18532,20 +18579,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18574,7 +18621,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18600,7 +18647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18626,7 +18673,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18652,7 +18699,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18678,7 +18725,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18704,7 +18751,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18730,7 +18777,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18756,7 +18803,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18782,7 +18829,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -18808,7 +18855,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18834,7 +18881,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18860,7 +18907,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -18886,7 +18933,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -18912,7 +18959,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -18938,7 +18985,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -18964,7 +19011,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -18990,7 +19037,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19016,7 +19063,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19042,7 +19089,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -19068,7 +19115,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19094,7 +19141,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19120,7 +19167,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19146,7 +19193,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19172,7 +19219,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -19198,7 +19245,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -19224,7 +19271,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -19250,7 +19297,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -19276,7 +19323,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -19305,7 +19352,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -19334,7 +19381,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -19360,7 +19407,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19389,7 +19436,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19418,7 +19465,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -19447,7 +19494,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19473,7 +19520,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19502,7 +19549,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19528,7 +19575,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -19557,7 +19604,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -19583,7 +19630,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -19612,7 +19659,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -19638,7 +19685,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -19664,7 +19711,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -19690,7 +19737,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -19716,7 +19763,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -19742,7 +19789,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -19768,7 +19815,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -19794,7 +19841,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -19820,7 +19867,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -19846,7 +19893,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -19872,7 +19919,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -19898,7 +19945,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -19924,7 +19971,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -19950,7 +19997,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -19976,7 +20023,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -20002,7 +20049,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -20028,7 +20075,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -20054,7 +20101,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -20080,7 +20127,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -20106,7 +20153,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -20132,7 +20179,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -20158,7 +20205,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -20184,7 +20231,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -20210,7 +20257,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -20236,7 +20283,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -20262,7 +20309,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -20288,7 +20335,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -20314,7 +20361,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -20340,7 +20387,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -20366,7 +20413,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -20392,7 +20439,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -20418,7 +20465,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -20444,7 +20491,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -20470,7 +20517,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -20496,7 +20543,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -20522,7 +20569,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -20548,7 +20595,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -20574,7 +20621,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -20600,7 +20647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -20626,7 +20673,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20652,7 +20699,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -20678,7 +20725,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -20704,7 +20751,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -20746,20 +20793,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20788,7 +20835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20817,7 +20864,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -20846,7 +20893,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -20875,7 +20922,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -20904,7 +20951,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -20933,7 +20980,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -20962,7 +21009,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -20991,7 +21038,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -21020,7 +21067,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -21049,7 +21096,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -21078,7 +21125,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -21107,7 +21154,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -21136,7 +21183,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -21165,7 +21212,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -21194,7 +21241,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -21223,7 +21270,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
@@ -21252,7 +21299,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22</v>
       </c>
@@ -21281,7 +21328,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
@@ -21307,7 +21354,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24</v>
       </c>
@@ -21333,7 +21380,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -21359,7 +21406,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -21385,7 +21432,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28</v>
       </c>
@@ -21411,7 +21458,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>29</v>
       </c>
@@ -21440,7 +21487,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
@@ -21466,7 +21513,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -21492,7 +21539,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -21518,7 +21565,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>33</v>
       </c>
@@ -21544,7 +21591,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
@@ -21570,7 +21617,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36</v>
       </c>
@@ -21596,7 +21643,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
@@ -21622,7 +21669,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
@@ -21648,7 +21695,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -21674,7 +21721,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
@@ -21700,7 +21747,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>41</v>
       </c>
@@ -21726,7 +21773,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42</v>
       </c>
@@ -21752,7 +21799,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>43</v>
       </c>
@@ -21778,7 +21825,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
@@ -21817,20 +21864,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21859,7 +21906,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21885,7 +21932,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22</v>
       </c>
@@ -21911,7 +21958,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -21937,7 +21984,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -21963,7 +22010,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -21989,7 +22036,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -22015,7 +22062,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22041,7 +22088,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -22067,7 +22114,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -22093,7 +22140,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -22119,7 +22166,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -22145,7 +22192,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -22171,7 +22218,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
@@ -22200,7 +22247,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28</v>
       </c>
@@ -22229,7 +22276,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>27</v>
       </c>
@@ -22258,7 +22305,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -22287,7 +22334,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -22316,7 +22363,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
@@ -22345,7 +22392,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -22374,7 +22421,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -22403,7 +22450,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -22432,7 +22479,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -22461,7 +22508,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -22490,7 +22537,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>

--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="12.06.2018" sheetId="10" r:id="rId10"/>
     <sheet name="13.06.2018" sheetId="11" r:id="rId11"/>
     <sheet name="15.06.2018" sheetId="12" r:id="rId12"/>
-    <sheet name="Лист1" sheetId="13" r:id="rId13"/>
+    <sheet name="18.06.2018" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.06.2018'!$A$1:$J$64</definedName>
@@ -29,10 +29,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'12.06.2018'!$A$1:$J$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'13.06.2018'!$A$1:$I$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'15.06.2018'!$A$1:$K$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'18.06.2018'!$A$1:$I$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Лист1!$A$1:$I$50</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -2692,7 +2692,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3048,20 +3048,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4208,19 +4208,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4948,20 +4948,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>49</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>15</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>16</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>19</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>21</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>25</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>27</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>35</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>36</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>37</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>38</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>39</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>40</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>41</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>42</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>43</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>44</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>45</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>46</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>47</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>48</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>7</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10</v>
       </c>
@@ -6161,19 +6161,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>18</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>22</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>23</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>26</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>27</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>34</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>35</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>36</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>37</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>38</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>39</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>40</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>42</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>43</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>44</v>
       </c>
@@ -7338,23 +7338,23 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>37</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>25</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>29</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>32</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>33</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>35</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>36</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>38</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>39</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>40</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>45</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>47</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>48</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>16</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>17</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>18</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>19</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>21</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>22</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>23</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>24</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>27</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>28</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>31</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>34</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>42</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>43</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>44</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8738,20 +8738,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>36</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>37</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>38</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>39</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>41</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>42</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>43</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>44</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>45</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>46</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>47</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>48</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>49</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>50</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>51</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>52</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>53</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>54</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>55</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>56</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>57</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>58</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>59</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>60</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>61</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>62</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>63</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>64</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>65</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>66</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>67</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>68</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>69</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>70</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>71</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>72</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>73</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>74</v>
       </c>
@@ -10824,19 +10824,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12096,20 +12096,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -14791,20 +14791,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>17</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>77</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>79</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>94</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>19</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>35</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>47</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>52</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>40</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>45</v>
       </c>
@@ -15270,7 +15270,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>46</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>48</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>49</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>80</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>98</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>36</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>39</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>60</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>66</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>68</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>69</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>70</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>73</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>74</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>75</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>76</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>78</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>82</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>95</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>96</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>99</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>42</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>43</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>53</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>54</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>55</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>56</v>
       </c>
@@ -15998,7 +15998,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>57</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>58</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>61</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>62</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>63</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>64</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>65</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>67</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>71</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>72</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>81</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>83</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>84</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>85</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>86</v>
       </c>
@@ -16388,7 +16388,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>87</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>88</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>89</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>90</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>91</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>92</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>93</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>97</v>
       </c>
@@ -16610,20 +16610,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18579,20 +18579,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18699,7 +18699,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18777,7 +18777,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18907,7 +18907,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19011,7 +19011,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19037,7 +19037,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -19115,7 +19115,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19167,7 +19167,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19193,7 +19193,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -19297,7 +19297,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19465,7 +19465,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19549,7 +19549,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -19630,7 +19630,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -20127,7 +20127,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -20257,7 +20257,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -20517,7 +20517,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20699,7 +20699,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -20793,20 +20793,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20835,7 +20835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20864,7 +20864,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -20893,7 +20893,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -21038,7 +21038,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -21125,7 +21125,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -21183,7 +21183,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -21212,7 +21212,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>19</v>
       </c>
@@ -21241,7 +21241,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -21270,7 +21270,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>21</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>22</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>23</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>24</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>27</v>
       </c>
@@ -21432,7 +21432,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28</v>
       </c>
@@ -21458,7 +21458,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>29</v>
       </c>
@@ -21487,7 +21487,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>30</v>
       </c>
@@ -21513,7 +21513,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>31</v>
       </c>
@@ -21539,7 +21539,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>32</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>33</v>
       </c>
@@ -21591,7 +21591,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>35</v>
       </c>
@@ -21617,7 +21617,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>36</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>37</v>
       </c>
@@ -21669,7 +21669,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>38</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>39</v>
       </c>
@@ -21721,7 +21721,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>40</v>
       </c>
@@ -21747,7 +21747,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>41</v>
       </c>
@@ -21773,7 +21773,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>42</v>
       </c>
@@ -21799,7 +21799,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>43</v>
       </c>
@@ -21825,7 +21825,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>44</v>
       </c>
@@ -21864,20 +21864,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21906,7 +21906,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21932,7 +21932,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>22</v>
       </c>
@@ -21958,7 +21958,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -21984,7 +21984,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -22010,7 +22010,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -22036,7 +22036,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -22062,7 +22062,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22088,7 +22088,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -22114,7 +22114,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -22166,7 +22166,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -22192,7 +22192,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>29</v>
       </c>
@@ -22247,7 +22247,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>27</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -22334,7 +22334,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>23</v>
       </c>
@@ -22363,7 +22363,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>21</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -22421,7 +22421,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>

--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="13.06.2018" sheetId="11" r:id="rId11"/>
     <sheet name="15.06.2018" sheetId="12" r:id="rId12"/>
     <sheet name="18.06.2018" sheetId="13" r:id="rId13"/>
+    <sheet name="20.06.2018" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.06.2018'!$A$1:$J$64</definedName>
@@ -30,6 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'13.06.2018'!$A$1:$I$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'15.06.2018'!$A$1:$K$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'18.06.2018'!$A$1:$I$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'20.06.2018'!$H$1:$H$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="904">
   <si>
     <t>№</t>
   </si>
@@ -2687,12 +2689,81 @@
   </si>
   <si>
     <t>http://24zp.org.ua/yaki-lampi-vikoristovuyutsya-v-farah-avtomobilya/</t>
+  </si>
+  <si>
+    <t>June 20, 2018, 11:56 p.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2018, 11:21 p.m.</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b2%d0%b5%d1%81%d1%82%d0%b8-%d0%b1%d1%83%d1%85%d0%b3%d0%b0%d0%bb%d1%82%d0%b5%d1%80%d1%96%d1%8e/</t>
+  </si>
+  <si>
+    <t>June 19, 2018, 11:14 a.m.</t>
+  </si>
+  <si>
+    <t>http://mip-stroy.com.ua/yak-pravilno-pidibrati-metaloplastikove-vikno/</t>
+  </si>
+  <si>
+    <t>June 20, 2018, 3:16 p.m.</t>
+  </si>
+  <si>
+    <t>http://ekobil.com.ua/yak-pravilno-pidibrati-metaloplastikove-vikno/</t>
+  </si>
+  <si>
+    <t>June 19, 2018, 9:29 a.m.</t>
+  </si>
+  <si>
+    <t>http://quickest.com.ua/yak-pravylno-vybraty-smartfon/</t>
+  </si>
+  <si>
+    <t>June 19, 2018, 11:15 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2018, 11:22 p.m.</t>
+  </si>
+  <si>
+    <t>http://dveroman.kiev.ua/yak-pochati-remont-kvartiri/</t>
+  </si>
+  <si>
+    <t>http://nutscn.com/yaki-roslini-lyublyat-sonyachne-svitlo/</t>
+  </si>
+  <si>
+    <t>marsella.com.ua</t>
+  </si>
+  <si>
+    <t>http://marsella.com.ua/modni-sukni-tsogo-sezonu/</t>
+  </si>
+  <si>
+    <t>http://nutscn.com/yak-poznajomitisya-v-interneti/</t>
+  </si>
+  <si>
+    <t>June 20, 2018, 3:17 p.m.</t>
+  </si>
+  <si>
+    <t>http://kpln.com.ua/yak-pravylno-kupyty-kvartyru-2/</t>
+  </si>
+  <si>
+    <t>http://www.schooler.org.ua/perevagy-motobloka/</t>
+  </si>
+  <si>
+    <t>June 19, 2018, 11:35 a.m.</t>
+  </si>
+  <si>
+    <t>http://ekobil.com.ua/yaki-buvayut-vidi-virobnichih-kotliv/</t>
+  </si>
+  <si>
+    <t>http://farman.kiev.ua/yak-poboroti-zalezhnist/</t>
+  </si>
+  <si>
+    <t>June 20, 2018, 11:57 p.m.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3048,20 +3119,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3090,7 +3161,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3119,7 +3190,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3148,7 +3219,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3177,7 +3248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3206,7 +3277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3235,7 +3306,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3264,7 +3335,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3293,7 +3364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3322,7 +3393,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3351,7 +3422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3380,7 +3451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3409,7 +3480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3438,7 +3509,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3467,7 +3538,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3496,7 +3567,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3525,7 +3596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3554,7 +3625,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3583,7 +3654,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3612,7 +3683,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3641,7 +3712,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3670,7 +3741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3699,7 +3770,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3728,7 +3799,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3757,7 +3828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3786,7 +3857,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3815,7 +3886,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3844,7 +3915,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3873,7 +3944,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3902,7 +3973,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3931,7 +4002,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3960,7 +4031,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3989,7 +4060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4018,7 +4089,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4047,7 +4118,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4076,7 +4147,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4105,7 +4176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4134,7 +4205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4163,7 +4234,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4208,19 +4279,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4249,7 +4320,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4278,7 +4349,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4307,7 +4378,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4333,7 +4404,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4359,7 +4430,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4385,7 +4456,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4411,7 +4482,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4437,7 +4508,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4463,7 +4534,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4489,7 +4560,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4515,7 +4586,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4541,7 +4612,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4567,7 +4638,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4593,7 +4664,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4619,7 +4690,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4645,7 +4716,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4674,7 +4745,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4703,7 +4774,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4732,7 +4803,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4761,7 +4832,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4790,7 +4861,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4819,7 +4890,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4848,7 +4919,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4877,7 +4948,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4906,7 +4977,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4948,20 +5019,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4990,7 +5061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -5019,7 +5090,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -5048,7 +5119,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -5077,7 +5148,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>49</v>
       </c>
@@ -5106,7 +5177,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -5132,7 +5203,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -5158,7 +5229,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -5184,7 +5255,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -5210,7 +5281,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -5236,7 +5307,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -5262,7 +5333,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -5288,7 +5359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -5314,7 +5385,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -5340,7 +5411,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -5366,7 +5437,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -5392,7 +5463,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -5418,7 +5489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
@@ -5444,7 +5515,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -5470,7 +5541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27</v>
       </c>
@@ -5496,7 +5567,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -5522,7 +5593,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>35</v>
       </c>
@@ -5548,7 +5619,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>36</v>
       </c>
@@ -5574,7 +5645,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>37</v>
       </c>
@@ -5600,7 +5671,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>38</v>
       </c>
@@ -5626,7 +5697,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>39</v>
       </c>
@@ -5652,7 +5723,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>40</v>
       </c>
@@ -5678,7 +5749,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>41</v>
       </c>
@@ -5704,7 +5775,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>42</v>
       </c>
@@ -5730,7 +5801,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>43</v>
       </c>
@@ -5756,7 +5827,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>44</v>
       </c>
@@ -5782,7 +5853,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>45</v>
       </c>
@@ -5808,7 +5879,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>46</v>
       </c>
@@ -5834,7 +5905,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>47</v>
       </c>
@@ -5860,7 +5931,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>48</v>
       </c>
@@ -5886,7 +5957,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5915,7 +5986,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -5944,7 +6015,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -5973,7 +6044,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -6002,7 +6073,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -6031,7 +6102,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
@@ -6060,7 +6131,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -6089,7 +6160,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -6118,7 +6189,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
@@ -6161,19 +6232,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6202,7 +6273,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6228,7 +6299,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6257,7 +6328,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6286,7 +6357,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6312,7 +6383,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6338,7 +6409,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6364,7 +6435,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6390,7 +6461,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6416,7 +6487,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -6442,7 +6513,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -6468,7 +6539,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -6497,7 +6568,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -6523,7 +6594,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -6549,7 +6620,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -6575,7 +6646,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -6601,7 +6672,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -6627,7 +6698,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -6653,7 +6724,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -6682,7 +6753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -6711,7 +6782,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -6740,7 +6811,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -6766,7 +6837,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -6792,7 +6863,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -6818,7 +6889,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -6844,7 +6915,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -6870,7 +6941,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -6899,7 +6970,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -6928,7 +6999,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -6957,7 +7028,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -6983,7 +7054,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
@@ -7009,7 +7080,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>33</v>
       </c>
@@ -7035,7 +7106,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>34</v>
       </c>
@@ -7061,7 +7132,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>35</v>
       </c>
@@ -7087,7 +7158,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>36</v>
       </c>
@@ -7113,7 +7184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>37</v>
       </c>
@@ -7139,7 +7210,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
@@ -7165,7 +7236,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39</v>
       </c>
@@ -7191,7 +7262,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>40</v>
       </c>
@@ -7217,7 +7288,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>41</v>
       </c>
@@ -7246,7 +7317,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42</v>
       </c>
@@ -7275,7 +7346,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>43</v>
       </c>
@@ -7301,7 +7372,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>44</v>
       </c>
@@ -7337,24 +7408,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7383,7 +7454,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7412,7 +7483,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7441,7 +7512,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7467,7 +7538,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -7493,7 +7564,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>37</v>
       </c>
@@ -7519,7 +7590,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7545,7 +7616,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7571,7 +7642,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7597,7 +7668,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7623,7 +7694,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7649,7 +7720,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7675,7 +7746,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7701,7 +7772,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7727,7 +7798,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7753,7 +7824,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7779,7 +7850,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -7805,7 +7876,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
@@ -7831,7 +7902,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -7857,7 +7928,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -7883,7 +7954,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>32</v>
       </c>
@@ -7909,7 +7980,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>33</v>
       </c>
@@ -7935,7 +8006,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>35</v>
       </c>
@@ -7961,7 +8032,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>36</v>
       </c>
@@ -7987,7 +8058,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>38</v>
       </c>
@@ -8013,7 +8084,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>39</v>
       </c>
@@ -8039,7 +8110,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>40</v>
       </c>
@@ -8065,7 +8136,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>45</v>
       </c>
@@ -8091,7 +8162,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>47</v>
       </c>
@@ -8117,7 +8188,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>48</v>
       </c>
@@ -8143,7 +8214,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -8172,7 +8243,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>16</v>
       </c>
@@ -8201,7 +8272,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>17</v>
       </c>
@@ -8230,7 +8301,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
@@ -8259,7 +8330,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>19</v>
       </c>
@@ -8288,7 +8359,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20</v>
       </c>
@@ -8317,7 +8388,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>21</v>
       </c>
@@ -8346,7 +8417,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>22</v>
       </c>
@@ -8375,7 +8446,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>23</v>
       </c>
@@ -8404,7 +8475,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24</v>
       </c>
@@ -8433,7 +8504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>27</v>
       </c>
@@ -8462,7 +8533,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>28</v>
       </c>
@@ -8491,7 +8562,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>31</v>
       </c>
@@ -8520,7 +8591,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>34</v>
       </c>
@@ -8549,7 +8620,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -8578,7 +8649,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -8607,7 +8678,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -8636,7 +8707,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -8665,7 +8736,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -8694,7 +8765,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8724,9 +8795,1072 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28706401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>881</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28706427</v>
+      </c>
+      <c r="C3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>882</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>23989861</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>883</v>
+      </c>
+      <c r="G4" t="s">
+        <v>884</v>
+      </c>
+      <c r="H4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>24009479</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>885</v>
+      </c>
+      <c r="G5" t="s">
+        <v>886</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>24009478</v>
+      </c>
+      <c r="C6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>887</v>
+      </c>
+      <c r="G6" t="s">
+        <v>886</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>28703746</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>888</v>
+      </c>
+      <c r="H7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>28708366</v>
+      </c>
+      <c r="C8" t="s">
+        <v>820</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>888</v>
+      </c>
+      <c r="H8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>28708360</v>
+      </c>
+      <c r="C9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>888</v>
+      </c>
+      <c r="H9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28708357</v>
+      </c>
+      <c r="C10" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>888</v>
+      </c>
+      <c r="H10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>28706696</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>888</v>
+      </c>
+      <c r="H11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>28706764</v>
+      </c>
+      <c r="C12" t="s">
+        <v>812</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>888</v>
+      </c>
+      <c r="H12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>28712579</v>
+      </c>
+      <c r="C13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>889</v>
+      </c>
+      <c r="G13" t="s">
+        <v>890</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>28702855</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>888</v>
+      </c>
+      <c r="H14" t="s">
+        <v>228</v>
+      </c>
+      <c r="I14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>28712682</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>888</v>
+      </c>
+      <c r="H15" t="s">
+        <v>228</v>
+      </c>
+      <c r="I15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>28701610</v>
+      </c>
+      <c r="C16" t="s">
+        <v>518</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>888</v>
+      </c>
+      <c r="H16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>28708392</v>
+      </c>
+      <c r="C17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>888</v>
+      </c>
+      <c r="H17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>28709063</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>888</v>
+      </c>
+      <c r="H18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>28708878</v>
+      </c>
+      <c r="C19" t="s">
+        <v>826</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>888</v>
+      </c>
+      <c r="H19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>28708879</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>888</v>
+      </c>
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>28712342</v>
+      </c>
+      <c r="C21" t="s">
+        <v>759</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>891</v>
+      </c>
+      <c r="H21" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>28712179</v>
+      </c>
+      <c r="C22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>892</v>
+      </c>
+      <c r="G22" t="s">
+        <v>886</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>28712168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>829</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>893</v>
+      </c>
+      <c r="G23" t="s">
+        <v>886</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>28712343</v>
+      </c>
+      <c r="C24" t="s">
+        <v>894</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>895</v>
+      </c>
+      <c r="G24" t="s">
+        <v>890</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>28713132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>829</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>896</v>
+      </c>
+      <c r="G25" t="s">
+        <v>897</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>28713185</v>
+      </c>
+      <c r="C26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>898</v>
+      </c>
+      <c r="G26" t="s">
+        <v>897</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>28706713</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>888</v>
+      </c>
+      <c r="H27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>28706702</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>888</v>
+      </c>
+      <c r="H28" t="s">
+        <v>228</v>
+      </c>
+      <c r="I28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28708401</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>888</v>
+      </c>
+      <c r="H29" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>28708356</v>
+      </c>
+      <c r="C30" t="s">
+        <v>458</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>888</v>
+      </c>
+      <c r="H30" t="s">
+        <v>228</v>
+      </c>
+      <c r="I30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>28712565</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>899</v>
+      </c>
+      <c r="G31" t="s">
+        <v>900</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>28713316</v>
+      </c>
+      <c r="C32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>901</v>
+      </c>
+      <c r="G32" t="s">
+        <v>897</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>28702762</v>
+      </c>
+      <c r="C33" t="s">
+        <v>491</v>
+      </c>
+      <c r="D33" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>888</v>
+      </c>
+      <c r="H33" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>28706729</v>
+      </c>
+      <c r="C34" t="s">
+        <v>403</v>
+      </c>
+      <c r="D34" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>888</v>
+      </c>
+      <c r="H34" t="s">
+        <v>228</v>
+      </c>
+      <c r="I34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>28702590</v>
+      </c>
+      <c r="C35" t="s">
+        <v>491</v>
+      </c>
+      <c r="D35" t="s">
+        <v>404</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>888</v>
+      </c>
+      <c r="H35" t="s">
+        <v>228</v>
+      </c>
+      <c r="I35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>28706758</v>
+      </c>
+      <c r="C36" t="s">
+        <v>501</v>
+      </c>
+      <c r="D36" t="s">
+        <v>404</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>888</v>
+      </c>
+      <c r="H36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>28713130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>491</v>
+      </c>
+      <c r="D37" t="s">
+        <v>404</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>902</v>
+      </c>
+      <c r="G37" t="s">
+        <v>903</v>
+      </c>
+      <c r="H37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8738,20 +9872,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8780,7 +9914,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8809,7 +9943,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8838,7 +9972,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8867,7 +10001,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8896,7 +10030,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8925,7 +10059,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8954,7 +10088,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8983,7 +10117,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9012,7 +10146,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9041,7 +10175,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9070,7 +10204,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9099,7 +10233,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9128,7 +10262,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9157,7 +10291,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9186,7 +10320,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9215,7 +10349,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9244,7 +10378,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9273,7 +10407,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9302,7 +10436,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9331,7 +10465,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9360,7 +10494,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9389,7 +10523,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9418,7 +10552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9447,7 +10581,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9476,7 +10610,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9505,7 +10639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9534,7 +10668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9563,7 +10697,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -9592,7 +10726,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -9621,7 +10755,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>34</v>
       </c>
@@ -9650,7 +10784,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>35</v>
       </c>
@@ -9679,7 +10813,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>36</v>
       </c>
@@ -9708,7 +10842,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>37</v>
       </c>
@@ -9737,7 +10871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>38</v>
       </c>
@@ -9766,7 +10900,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>39</v>
       </c>
@@ -9795,7 +10929,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>40</v>
       </c>
@@ -9824,7 +10958,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>41</v>
       </c>
@@ -9853,7 +10987,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>42</v>
       </c>
@@ -9882,7 +11016,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>43</v>
       </c>
@@ -9911,7 +11045,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>44</v>
       </c>
@@ -9940,7 +11074,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>45</v>
       </c>
@@ -9969,7 +11103,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>46</v>
       </c>
@@ -9998,7 +11132,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>47</v>
       </c>
@@ -10027,7 +11161,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>48</v>
       </c>
@@ -10056,7 +11190,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>49</v>
       </c>
@@ -10085,7 +11219,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50</v>
       </c>
@@ -10114,7 +11248,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>51</v>
       </c>
@@ -10143,7 +11277,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>52</v>
       </c>
@@ -10172,7 +11306,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>53</v>
       </c>
@@ -10201,7 +11335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>54</v>
       </c>
@@ -10230,7 +11364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>55</v>
       </c>
@@ -10259,7 +11393,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>56</v>
       </c>
@@ -10288,7 +11422,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>57</v>
       </c>
@@ -10317,7 +11451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>58</v>
       </c>
@@ -10346,7 +11480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>59</v>
       </c>
@@ -10375,7 +11509,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>60</v>
       </c>
@@ -10404,7 +11538,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>61</v>
       </c>
@@ -10433,7 +11567,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>62</v>
       </c>
@@ -10462,7 +11596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>63</v>
       </c>
@@ -10491,7 +11625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>64</v>
       </c>
@@ -10520,7 +11654,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>65</v>
       </c>
@@ -10549,7 +11683,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>66</v>
       </c>
@@ -10578,7 +11712,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>67</v>
       </c>
@@ -10607,7 +11741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>68</v>
       </c>
@@ -10636,7 +11770,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>69</v>
       </c>
@@ -10665,7 +11799,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>70</v>
       </c>
@@ -10694,7 +11828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>71</v>
       </c>
@@ -10723,7 +11857,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>72</v>
       </c>
@@ -10752,7 +11886,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>73</v>
       </c>
@@ -10781,7 +11915,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>74</v>
       </c>
@@ -10824,19 +11958,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10865,7 +11999,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10894,7 +12028,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10923,7 +12057,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10952,7 +12086,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10981,7 +12115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11010,7 +12144,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11039,7 +12173,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11068,7 +12202,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11097,7 +12231,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11126,7 +12260,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11155,7 +12289,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11184,7 +12318,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11213,7 +12347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11242,7 +12376,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11271,7 +12405,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11300,7 +12434,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11329,7 +12463,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11358,7 +12492,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11387,7 +12521,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11416,7 +12550,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11445,7 +12579,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11474,7 +12608,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11503,7 +12637,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11532,7 +12666,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11561,7 +12695,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11590,7 +12724,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11619,7 +12753,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11648,7 +12782,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11677,7 +12811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11706,7 +12840,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11735,7 +12869,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11764,7 +12898,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11793,7 +12927,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11822,7 +12956,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11851,7 +12985,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11880,7 +13014,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11909,7 +13043,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11938,7 +13072,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11967,7 +13101,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11996,7 +13130,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12025,7 +13159,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12054,7 +13188,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12096,20 +13230,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12138,7 +13272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12167,7 +13301,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12196,7 +13330,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12225,7 +13359,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12254,7 +13388,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12283,7 +13417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12312,7 +13446,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12341,7 +13475,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12370,7 +13504,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12399,7 +13533,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12428,7 +13562,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12457,7 +13591,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12486,7 +13620,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12515,7 +13649,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12544,7 +13678,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12573,7 +13707,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12602,7 +13736,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12631,7 +13765,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12660,7 +13794,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12689,7 +13823,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12718,7 +13852,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12747,7 +13881,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12776,7 +13910,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12805,7 +13939,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12834,7 +13968,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12863,7 +13997,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12892,7 +14026,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12921,7 +14055,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12950,7 +14084,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12979,7 +14113,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13008,7 +14142,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13037,7 +14171,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13066,7 +14200,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13095,7 +14229,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13124,7 +14258,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13153,7 +14287,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13182,7 +14316,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13211,7 +14345,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13240,7 +14374,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13269,7 +14403,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13298,7 +14432,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13327,7 +14461,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13356,7 +14490,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13385,7 +14519,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13414,7 +14548,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13443,7 +14577,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13472,7 +14606,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13501,7 +14635,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13530,7 +14664,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13559,7 +14693,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13588,7 +14722,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13617,7 +14751,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13646,7 +14780,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13675,7 +14809,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13704,7 +14838,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13733,7 +14867,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13762,7 +14896,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13791,7 +14925,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13820,7 +14954,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13849,7 +14983,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13878,7 +15012,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13907,7 +15041,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13936,7 +15070,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13965,7 +15099,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13994,7 +15128,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -14023,7 +15157,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -14052,7 +15186,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14081,7 +15215,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14110,7 +15244,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14139,7 +15273,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14168,7 +15302,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14197,7 +15331,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14226,7 +15360,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14255,7 +15389,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14284,7 +15418,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14313,7 +15447,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14342,7 +15476,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14371,7 +15505,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14400,7 +15534,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14429,7 +15563,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14458,7 +15592,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14487,7 +15621,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14516,7 +15650,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14545,7 +15679,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14574,7 +15708,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14603,7 +15737,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14632,7 +15766,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14661,7 +15795,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14690,7 +15824,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14719,7 +15853,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14748,7 +15882,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -14791,20 +15925,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14833,7 +15967,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
@@ -14862,7 +15996,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>77</v>
       </c>
@@ -14891,7 +16025,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>79</v>
       </c>
@@ -14920,7 +16054,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>94</v>
       </c>
@@ -14949,7 +16083,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -14978,7 +16112,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>35</v>
       </c>
@@ -15007,7 +16141,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -15036,7 +16170,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -15062,7 +16196,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -15088,7 +16222,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -15114,7 +16248,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33</v>
       </c>
@@ -15140,7 +16274,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>47</v>
       </c>
@@ -15166,7 +16300,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
@@ -15192,7 +16326,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>52</v>
       </c>
@@ -15218,7 +16352,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>40</v>
       </c>
@@ -15244,7 +16378,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>45</v>
       </c>
@@ -15270,7 +16404,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>46</v>
       </c>
@@ -15296,7 +16430,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>48</v>
       </c>
@@ -15322,7 +16456,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>49</v>
       </c>
@@ -15348,7 +16482,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>80</v>
       </c>
@@ -15374,7 +16508,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>98</v>
       </c>
@@ -15400,7 +16534,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>36</v>
       </c>
@@ -15426,7 +16560,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>39</v>
       </c>
@@ -15452,7 +16586,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>60</v>
       </c>
@@ -15478,7 +16612,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>66</v>
       </c>
@@ -15504,7 +16638,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>68</v>
       </c>
@@ -15530,7 +16664,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>69</v>
       </c>
@@ -15556,7 +16690,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>70</v>
       </c>
@@ -15582,7 +16716,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>73</v>
       </c>
@@ -15608,7 +16742,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>74</v>
       </c>
@@ -15634,7 +16768,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>75</v>
       </c>
@@ -15660,7 +16794,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>76</v>
       </c>
@@ -15686,7 +16820,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>78</v>
       </c>
@@ -15712,7 +16846,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>82</v>
       </c>
@@ -15738,7 +16872,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>95</v>
       </c>
@@ -15764,7 +16898,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>96</v>
       </c>
@@ -15790,7 +16924,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>99</v>
       </c>
@@ -15816,7 +16950,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -15842,7 +16976,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>42</v>
       </c>
@@ -15868,7 +17002,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>43</v>
       </c>
@@ -15894,7 +17028,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>53</v>
       </c>
@@ -15920,7 +17054,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>54</v>
       </c>
@@ -15946,7 +17080,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>55</v>
       </c>
@@ -15972,7 +17106,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>56</v>
       </c>
@@ -15998,7 +17132,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>57</v>
       </c>
@@ -16024,7 +17158,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>58</v>
       </c>
@@ -16050,7 +17184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>61</v>
       </c>
@@ -16076,7 +17210,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>62</v>
       </c>
@@ -16102,7 +17236,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>63</v>
       </c>
@@ -16128,7 +17262,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>64</v>
       </c>
@@ -16154,7 +17288,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>65</v>
       </c>
@@ -16180,7 +17314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>67</v>
       </c>
@@ -16206,7 +17340,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71</v>
       </c>
@@ -16232,7 +17366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>72</v>
       </c>
@@ -16258,7 +17392,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>81</v>
       </c>
@@ -16284,7 +17418,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>83</v>
       </c>
@@ -16310,7 +17444,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>84</v>
       </c>
@@ -16336,7 +17470,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>85</v>
       </c>
@@ -16362,7 +17496,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>86</v>
       </c>
@@ -16388,7 +17522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>87</v>
       </c>
@@ -16414,7 +17548,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>88</v>
       </c>
@@ -16440,7 +17574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>89</v>
       </c>
@@ -16466,7 +17600,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>90</v>
       </c>
@@ -16492,7 +17626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>91</v>
       </c>
@@ -16518,7 +17652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>92</v>
       </c>
@@ -16544,7 +17678,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>93</v>
       </c>
@@ -16570,7 +17704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>97</v>
       </c>
@@ -16610,20 +17744,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16652,7 +17786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16681,7 +17815,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16710,7 +17844,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16739,7 +17873,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16768,7 +17902,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16797,7 +17931,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16826,7 +17960,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16855,7 +17989,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16884,7 +18018,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16913,7 +18047,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16942,7 +18076,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16971,7 +18105,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17000,7 +18134,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17029,7 +18163,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17058,7 +18192,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17087,7 +18221,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17116,7 +18250,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17145,7 +18279,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17174,7 +18308,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17203,7 +18337,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17232,7 +18366,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17261,7 +18395,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17290,7 +18424,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17319,7 +18453,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17348,7 +18482,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17377,7 +18511,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17406,7 +18540,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17435,7 +18569,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17464,7 +18598,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17493,7 +18627,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17522,7 +18656,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17551,7 +18685,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17580,7 +18714,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17609,7 +18743,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17638,7 +18772,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17667,7 +18801,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17696,7 +18830,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17725,7 +18859,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17754,7 +18888,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17783,7 +18917,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17812,7 +18946,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17841,7 +18975,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17870,7 +19004,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17899,7 +19033,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17928,7 +19062,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17957,7 +19091,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17986,7 +19120,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18015,7 +19149,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -18044,7 +19178,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -18073,7 +19207,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18102,7 +19236,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -18131,7 +19265,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18160,7 +19294,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18189,7 +19323,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18218,7 +19352,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18247,7 +19381,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18276,7 +19410,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18305,7 +19439,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18334,7 +19468,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18363,7 +19497,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18392,7 +19526,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18421,7 +19555,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18450,7 +19584,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18479,7 +19613,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18508,7 +19642,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18537,7 +19671,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18579,20 +19713,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18621,7 +19755,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18647,7 +19781,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18673,7 +19807,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18699,7 +19833,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18725,7 +19859,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18751,7 +19885,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18777,7 +19911,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18803,7 +19937,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18829,7 +19963,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -18855,7 +19989,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18881,7 +20015,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18907,7 +20041,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -18933,7 +20067,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -18959,7 +20093,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -18985,7 +20119,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19011,7 +20145,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19037,7 +20171,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19063,7 +20197,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19089,7 +20223,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -19115,7 +20249,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19141,7 +20275,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19167,7 +20301,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19193,7 +20327,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19219,7 +20353,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -19245,7 +20379,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -19271,7 +20405,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -19297,7 +20431,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -19323,7 +20457,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -19352,7 +20486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -19381,7 +20515,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -19407,7 +20541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19436,7 +20570,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19465,7 +20599,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -19494,7 +20628,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19520,7 +20654,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19549,7 +20683,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19575,7 +20709,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -19604,7 +20738,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -19630,7 +20764,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -19659,7 +20793,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -19685,7 +20819,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -19711,7 +20845,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -19737,7 +20871,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -19763,7 +20897,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -19789,7 +20923,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -19815,7 +20949,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -19841,7 +20975,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -19867,7 +21001,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -19893,7 +21027,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -19919,7 +21053,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -19945,7 +21079,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -19971,7 +21105,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -19997,7 +21131,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -20023,7 +21157,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -20049,7 +21183,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -20075,7 +21209,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -20101,7 +21235,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -20127,7 +21261,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -20153,7 +21287,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -20179,7 +21313,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -20205,7 +21339,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -20231,7 +21365,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -20257,7 +21391,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -20283,7 +21417,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -20309,7 +21443,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -20335,7 +21469,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -20361,7 +21495,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -20387,7 +21521,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -20413,7 +21547,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -20439,7 +21573,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -20465,7 +21599,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -20491,7 +21625,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -20517,7 +21651,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -20543,7 +21677,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -20569,7 +21703,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -20595,7 +21729,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -20621,7 +21755,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -20647,7 +21781,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -20673,7 +21807,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20699,7 +21833,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -20725,7 +21859,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -20751,7 +21885,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -20793,20 +21927,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20835,7 +21969,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20864,7 +21998,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -20893,7 +22027,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -20922,7 +22056,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -20951,7 +22085,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -20980,7 +22114,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -21009,7 +22143,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -21038,7 +22172,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -21067,7 +22201,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -21096,7 +22230,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -21125,7 +22259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -21154,7 +22288,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -21183,7 +22317,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -21212,7 +22346,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -21241,7 +22375,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -21270,7 +22404,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
@@ -21299,7 +22433,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22</v>
       </c>
@@ -21328,7 +22462,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
@@ -21354,7 +22488,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24</v>
       </c>
@@ -21380,7 +22514,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -21406,7 +22540,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -21432,7 +22566,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28</v>
       </c>
@@ -21458,7 +22592,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>29</v>
       </c>
@@ -21487,7 +22621,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
@@ -21513,7 +22647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -21539,7 +22673,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -21565,7 +22699,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>33</v>
       </c>
@@ -21591,7 +22725,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
@@ -21617,7 +22751,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36</v>
       </c>
@@ -21643,7 +22777,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
@@ -21669,7 +22803,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
@@ -21695,7 +22829,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -21721,7 +22855,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
@@ -21747,7 +22881,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>41</v>
       </c>
@@ -21773,7 +22907,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42</v>
       </c>
@@ -21799,7 +22933,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>43</v>
       </c>
@@ -21825,7 +22959,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
@@ -21864,20 +22998,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21906,7 +23040,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21932,7 +23066,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22</v>
       </c>
@@ -21958,7 +23092,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -21984,7 +23118,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -22010,7 +23144,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -22036,7 +23170,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -22062,7 +23196,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22088,7 +23222,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -22114,7 +23248,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -22140,7 +23274,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -22166,7 +23300,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -22192,7 +23326,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -22218,7 +23352,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
@@ -22247,7 +23381,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28</v>
       </c>
@@ -22276,7 +23410,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>27</v>
       </c>
@@ -22305,7 +23439,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -22334,7 +23468,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -22363,7 +23497,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
@@ -22392,7 +23526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -22421,7 +23555,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -22450,7 +23584,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -22479,7 +23613,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -22508,7 +23642,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -22537,7 +23671,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>

--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="13.06.2018" sheetId="11" r:id="rId11"/>
     <sheet name="15.06.2018" sheetId="12" r:id="rId12"/>
     <sheet name="18.06.2018" sheetId="13" r:id="rId13"/>
+    <sheet name="21.06.2018" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.06.2018'!$A$1:$J$64</definedName>
@@ -30,11 +31,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'13.06.2018'!$A$1:$I$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'15.06.2018'!$A$1:$K$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'18.06.2018'!$A$1:$I$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'21.06.2018'!$A$1:$K$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4789" uniqueCount="916">
   <si>
     <t>№</t>
   </si>
@@ -2687,6 +2689,111 @@
   </si>
   <si>
     <t>http://24zp.org.ua/yaki-lampi-vikoristovuyutsya-v-farah-avtomobilya/</t>
+  </si>
+  <si>
+    <t>June 21, 2018, 9:44 a.m.</t>
+  </si>
+  <si>
+    <t>http://ypag.com.ua/de-zastosovuyutsya-metalokonstruktsiyi/</t>
+  </si>
+  <si>
+    <t>June 21, 2018, 12:03 p.m.</t>
+  </si>
+  <si>
+    <t>http://upu.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b2%d0%b8%d0%b1%d1%80%d0%b0%d1%82%d0%b8-%d0%bc%d0%be%d0%bf%d0%b5%d0%b4/</t>
+  </si>
+  <si>
+    <t>http://smartx.kiev.ua/de-zastosovuyetsya-palubna-doshka/</t>
+  </si>
+  <si>
+    <t>http://ukravtomobil.if.ua/yak-pravilno-vibrati-advokata/</t>
+  </si>
+  <si>
+    <t>http://ahumor.org.ua/yak-vybraty-sportyvne-harchuvannya/</t>
+  </si>
+  <si>
+    <t>June 21, 2018, 12:04 p.m.</t>
+  </si>
+  <si>
+    <t>http://odissey.net.ua/yak-pravylno-stezhyty-za-svoyim-zdorov-yam/</t>
+  </si>
+  <si>
+    <t>http://medical-beauty.org.ua/%d1%8f%d0%ba-%d0%bf%d1%80%d0%b0%d0%b2%d0%b8%d0%bb%d1%8c%d0%bd%d0%be-%d0%b7%d1%80%d0%be%d0%b1%d0%b8%d1%82%d0%b8-%d0%bc%d0%b0%d0%ba%d1%96%d1%8f%d0%b6-3/</t>
+  </si>
+  <si>
+    <t>http://elit-a-a.com.ua/yak-shvidko-vivchiti-anglijsku-3/</t>
+  </si>
+  <si>
+    <t>marsella.com.ua</t>
+  </si>
+  <si>
+    <t>http://marsella.com.ua/yak-pravilno-vibrati-kosmetiku/</t>
+  </si>
+  <si>
+    <t>http://gv.org.ua/yak-pravilno-stezhiti-za-svoyim-zdorov-yam/</t>
+  </si>
+  <si>
+    <t>http://adonaidenver.org/%d1%8f%d0%ba-%d0%b2%d0%b8%d0%ba%d0%be%d0%bd%d0%b0%d1%82%d0%b8-%d0%bf%d1%80%d0%be%d1%81%d1%83%d0%b2%d0%b0%d0%bd%d0%bd%d1%8f-%d1%81%d0%b0%d0%b9%d1%82%d1%83-3/</t>
+  </si>
+  <si>
+    <t>http://valiza-tour.kiev.ua/yak-narostiti-m-yazovu-masu/</t>
+  </si>
+  <si>
+    <t>June 21, 2018, 1:40 p.m.</t>
+  </si>
+  <si>
+    <t>http://turtrans.net.ua/yak-vibrati-sportivne-harchuvannya/</t>
+  </si>
+  <si>
+    <t>http://bigmoney.kiev.ua/%d1%8f%d0%ba-%d0%bd%d0%b0%d1%80%d0%be%d1%81%d1%82%d0%b8%d1%82%d0%b8-%d0%bc%d0%b0%d1%81%d1%83-%d0%bc%d0%b8%d1%88%d0%b5%d1%87%d0%bd%d1%83%d1%8e/</t>
+  </si>
+  <si>
+    <t>http://web-city.org.ua/yak-vstanoviti-svitlodiodni-lampi-na-avtomobil/</t>
+  </si>
+  <si>
+    <t>http://sharabt.com.ua/osnovni-polomky-miksera/</t>
+  </si>
+  <si>
+    <t>http://tren.com.ua/yak-vstanoviti-svitlodiodni-lampi-na-avtomobil/</t>
+  </si>
+  <si>
+    <t>http://blackmetal.kiev.ua/yaki-lampy-vykorystovuyutsya-dlya-far-avtomobilya/</t>
+  </si>
+  <si>
+    <t>June 21, 2018, 12:05 p.m.</t>
+  </si>
+  <si>
+    <t>http://turtrans.net.ua/yaki-lampi-vikoristovuyutsya-v-farah-avtomobilya/</t>
+  </si>
+  <si>
+    <t>http://linkomania.com.ua/yaki-lampi-vikoristovuyutsya-v-farah-avtomobilya/</t>
+  </si>
+  <si>
+    <t>June 21, 2018, 4:03 p.m.</t>
+  </si>
+  <si>
+    <t>http://fbk.org.ua/yak-vikonati-tyuning-gabaritnih-vogniv-avtomobilya/</t>
+  </si>
+  <si>
+    <t>http://dlemoduli.org.ua/yaki-lampy-vykorystovuyutsya-v-farah-avtomobilya/</t>
+  </si>
+  <si>
+    <t>http://catalog-security.com.ua/yaki-lampi-vikoristovuyutsya-v-farah-avtomobilya/</t>
+  </si>
+  <si>
+    <t>http://zvonkov.net.ua/yak-zrobiti-tyuning-avtomobilya/</t>
+  </si>
+  <si>
+    <t>http://orangecat.net.ua/yaki-lampy-vykorystovuyutsya-v-farah-avtomobilya/</t>
+  </si>
+  <si>
+    <t>http://shiva.net.ua/yaki-lampi-vikoristovuyutsya-v-farah-avtomobilya/</t>
+  </si>
+  <si>
+    <t>http://sortis.com.ua/yak-vigidnishe-podorozhuvati-po-ukrayini/</t>
+  </si>
+  <si>
+    <t>Не работает публикация.</t>
   </si>
 </sst>
 </file>
@@ -7337,8 +7444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8727,6 +8834,908 @@
   <autoFilter ref="A1:I50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28706401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>881</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28706427</v>
+      </c>
+      <c r="C3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>881</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>28712342</v>
+      </c>
+      <c r="C4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>881</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>24014805</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>882</v>
+      </c>
+      <c r="G5" t="s">
+        <v>883</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>24016436</v>
+      </c>
+      <c r="C6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>884</v>
+      </c>
+      <c r="G6" t="s">
+        <v>883</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>24013430</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>885</v>
+      </c>
+      <c r="G7" t="s">
+        <v>883</v>
+      </c>
+      <c r="H7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>28713917</v>
+      </c>
+      <c r="C8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>886</v>
+      </c>
+      <c r="G8" t="s">
+        <v>883</v>
+      </c>
+      <c r="H8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>28714986</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>887</v>
+      </c>
+      <c r="G9" t="s">
+        <v>888</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>28715112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>778</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>889</v>
+      </c>
+      <c r="G10" t="s">
+        <v>888</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>28715303</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>890</v>
+      </c>
+      <c r="G11" t="s">
+        <v>888</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>28713905</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>891</v>
+      </c>
+      <c r="G12" t="s">
+        <v>888</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>28714072</v>
+      </c>
+      <c r="C13" t="s">
+        <v>892</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>893</v>
+      </c>
+      <c r="G13" t="s">
+        <v>888</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>28715110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>894</v>
+      </c>
+      <c r="G14" t="s">
+        <v>888</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>28714939</v>
+      </c>
+      <c r="C15" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>895</v>
+      </c>
+      <c r="G15" t="s">
+        <v>888</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>28715373</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>881</v>
+      </c>
+      <c r="H16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>28714989</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>896</v>
+      </c>
+      <c r="G17" t="s">
+        <v>897</v>
+      </c>
+      <c r="H17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>28714997</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>898</v>
+      </c>
+      <c r="G18" t="s">
+        <v>888</v>
+      </c>
+      <c r="H18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>28714998</v>
+      </c>
+      <c r="C19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>899</v>
+      </c>
+      <c r="G19" t="s">
+        <v>888</v>
+      </c>
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>28715017</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>900</v>
+      </c>
+      <c r="G20" t="s">
+        <v>897</v>
+      </c>
+      <c r="H20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>28715063</v>
+      </c>
+      <c r="C21" t="s">
+        <v>861</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>901</v>
+      </c>
+      <c r="G21" t="s">
+        <v>897</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>28715018</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>902</v>
+      </c>
+      <c r="G22" t="s">
+        <v>897</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>28715019</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>903</v>
+      </c>
+      <c r="G23" t="s">
+        <v>904</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>28715020</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>905</v>
+      </c>
+      <c r="G24" t="s">
+        <v>904</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>28715027</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>906</v>
+      </c>
+      <c r="G25" t="s">
+        <v>907</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>28715021</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>908</v>
+      </c>
+      <c r="G26" t="s">
+        <v>904</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>28715022</v>
+      </c>
+      <c r="C27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>909</v>
+      </c>
+      <c r="G27" t="s">
+        <v>904</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>28715026</v>
+      </c>
+      <c r="C28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>910</v>
+      </c>
+      <c r="G28" t="s">
+        <v>904</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>28715023</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>911</v>
+      </c>
+      <c r="G29" t="s">
+        <v>904</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>28715024</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>912</v>
+      </c>
+      <c r="G30" t="s">
+        <v>904</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>28715025</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>913</v>
+      </c>
+      <c r="G31" t="s">
+        <v>904</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>28715540</v>
+      </c>
+      <c r="C32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>914</v>
+      </c>
+      <c r="G32" t="s">
+        <v>907</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>28702590</v>
+      </c>
+      <c r="C33" t="s">
+        <v>491</v>
+      </c>
+      <c r="D33" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>881</v>
+      </c>
+      <c r="H33" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Обработка.xlsx
+++ b/Обработка.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="22.05.2018" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="15.06.2018" sheetId="12" r:id="rId12"/>
     <sheet name="18.06.2018" sheetId="13" r:id="rId13"/>
     <sheet name="21.06.2018" sheetId="14" r:id="rId14"/>
+    <sheet name="25.06.2018" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.06.2018'!$A$1:$J$64</definedName>
@@ -34,6 +35,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'21.06.2018'!$A$1:$K$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23.05.2018'!$H$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'25.05.2018'!$I$1:$I$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'25.06.2018'!$A$1:$I$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'30.05.2018'!$A$1:$J$96</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4789" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="934">
   <si>
     <t>№</t>
   </si>
@@ -2794,6 +2796,60 @@
   </si>
   <si>
     <t>Не работает публикация.</t>
+  </si>
+  <si>
+    <t>June 23, 2018, 12:55 p.m.</t>
+  </si>
+  <si>
+    <t>June 23, 2018, 5:32 p.m.</t>
+  </si>
+  <si>
+    <t>http://linuxsam.org.ua/%d1%8f%d0%ba-%d0%bf%d0%b5%d1%80%d0%b5%d0%bc%d0%be%d0%b3%d1%82%d0%b8-%d0%b0%d0%bb%d0%ba%d0%be%d0%b3%d0%be%d0%bb%d1%96%d0%b7%d0%bc/</t>
+  </si>
+  <si>
+    <t>June 23, 2018, 4:01 p.m.</t>
+  </si>
+  <si>
+    <t>http://patriarh.in.ua/z-chogo-pochati-borotbu-z-alkogolizmom/</t>
+  </si>
+  <si>
+    <t>June 25, 2018, 5:14 p.m.</t>
+  </si>
+  <si>
+    <t>http://lightdesign.od.ua/z-chogo-pochaty-borotbu-z-narkozalezhnistyu/</t>
+  </si>
+  <si>
+    <t>June 25, 2018, 11:55 a.m.</t>
+  </si>
+  <si>
+    <t>http://fledur.org.ua/%d1%8f%d0%ba%d1%96-%d0%b4%d0%b5-%d1%8f%d0%ba%d1%96-%d0%b2%d0%b8%d0%b4%d0%b8-%d1%80%d0%be%d0%b1%d1%96%d1%82-%d0%bd%d0%b0%d0%b4%d0%b0%d1%94-%d0%b5%d0%bb%d0%b5%d0%ba%d1%82%d1%80%d0%b8%d0%ba/</t>
+  </si>
+  <si>
+    <t>http://infoweb.org.ua/yakij-vid-vidpochinku-vibrati</t>
+  </si>
+  <si>
+    <t>http://avtocentr.sumy.ua/yak-krashhe-prodaty-avtomobil-2/</t>
+  </si>
+  <si>
+    <t>http://xn--90afsemmyc.com.ua/%d1%8f%d0%ba-%d0%b4%d0%b5%d1%88%d0%b5%d0%b2%d1%88%d0%b5-%d0%ba%d1%83%d0%bf%d0%b8%d1%82%d0%b8-%d0%b0%d0%b2%d1%82%d0%be%d0%b7%d0%b0%d0%bf%d1%87%d0%b0%d1%81%d1%82%d0%b8%d0%bd%d0%b8</t>
+  </si>
+  <si>
+    <t>http://druzhba-lux.com.ua/yak-otrymaty-vizu-v-yevropejsku-krayinu/</t>
+  </si>
+  <si>
+    <t>http://gv.org.ua/osnovni-viznachni-pam-yatki-parizha/</t>
+  </si>
+  <si>
+    <t>http://tellall.kiev.ua/modni-sukni-tsogo-sezonu/</t>
+  </si>
+  <si>
+    <t>http://ekobil.com.ua/perevagi-alyuminiyevih-virobiv-2/</t>
+  </si>
+  <si>
+    <t>http://feyhoa.org.ua/yak-zasmagnuti-i-ne-obpekti-shkiru/</t>
+  </si>
+  <si>
+    <t>June 25, 2018, 11:56 a.m.</t>
   </si>
 </sst>
 </file>
@@ -8841,8 +8897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9732,6 +9788,709 @@
       </c>
       <c r="I33" t="s">
         <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28706401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>916</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28706427</v>
+      </c>
+      <c r="C3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>916</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>28712342</v>
+      </c>
+      <c r="C4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>916</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>24022477</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>917</v>
+      </c>
+      <c r="H5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>24019181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>640</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>918</v>
+      </c>
+      <c r="G6" t="s">
+        <v>919</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>24019101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>920</v>
+      </c>
+      <c r="G7" t="s">
+        <v>921</v>
+      </c>
+      <c r="H7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>24019061</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>922</v>
+      </c>
+      <c r="G8" t="s">
+        <v>923</v>
+      </c>
+      <c r="H8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>24021444</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>924</v>
+      </c>
+      <c r="G9" t="s">
+        <v>919</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>24002292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>925</v>
+      </c>
+      <c r="G10" t="s">
+        <v>923</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>24018954</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>926</v>
+      </c>
+      <c r="G11" t="s">
+        <v>919</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>28716150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>927</v>
+      </c>
+      <c r="G12" t="s">
+        <v>923</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>28716631</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>928</v>
+      </c>
+      <c r="G13" t="s">
+        <v>919</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>28716884</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>929</v>
+      </c>
+      <c r="G14" t="s">
+        <v>921</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>28717278</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>930</v>
+      </c>
+      <c r="G15" t="s">
+        <v>923</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>28716137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>931</v>
+      </c>
+      <c r="G16" t="s">
+        <v>919</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>28717395</v>
+      </c>
+      <c r="C17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>932</v>
+      </c>
+      <c r="G17" t="s">
+        <v>933</v>
+      </c>
+      <c r="H17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>28712579</v>
+      </c>
+      <c r="C18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>916</v>
+      </c>
+      <c r="H18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>28715373</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>916</v>
+      </c>
+      <c r="H19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>28708878</v>
+      </c>
+      <c r="C20" t="s">
+        <v>826</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>916</v>
+      </c>
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>28709063</v>
+      </c>
+      <c r="C21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>916</v>
+      </c>
+      <c r="H21" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>28716896</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>916</v>
+      </c>
+      <c r="H22" t="s">
+        <v>228</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>28715063</v>
+      </c>
+      <c r="C23" t="s">
+        <v>861</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>916</v>
+      </c>
+      <c r="H23" t="s">
+        <v>228</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>28702590</v>
+      </c>
+      <c r="C24" t="s">
+        <v>491</v>
+      </c>
+      <c r="D24" t="s">
+        <v>404</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>916</v>
+      </c>
+      <c r="H24" t="s">
+        <v>228</v>
+      </c>
+      <c r="I24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>28716019</v>
+      </c>
+      <c r="C25" t="s">
+        <v>409</v>
+      </c>
+      <c r="D25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>916</v>
+      </c>
+      <c r="H25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
